--- a/doc/sample/test_sample_input/google_test_sample_data.xlsx
+++ b/doc/sample/test_sample_input/google_test_sample_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="882"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="882" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="テスト一覧" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="107">
   <si>
     <t>○対象関数情報</t>
     <rPh sb="1" eb="7">
@@ -570,6 +570,21 @@
   </si>
   <si>
     <t>subFuncA_002_subInput1[0]</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>sample_function_004</t>
+  </si>
+  <si>
+    <t>sample_src.cpp</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>sample_src.cpp</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>sample_function_004</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1116,7 +1131,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F7"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="V49" sqref="V49"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1192,14 +1209,22 @@
         <v>65</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>67</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
+      <c r="C7" s="2">
+        <v>4</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>105</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
@@ -4176,7 +4201,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:X28"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.125" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
@@ -4244,7 +4271,7 @@
       </c>
       <c r="G4" s="6"/>
       <c r="H4" s="6" t="s">
-        <v>20</v>
+        <v>106</v>
       </c>
       <c r="I4" s="6"/>
       <c r="J4" s="6" t="s">

--- a/doc/sample/test_sample_input/google_test_sample_data.xlsx
+++ b/doc/sample/test_sample_input/google_test_sample_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="882" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="882"/>
   </bookViews>
   <sheets>
     <sheet name="テスト一覧" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="123">
   <si>
     <t>○対象関数情報</t>
     <rPh sb="1" eb="7">
@@ -585,6 +585,76 @@
   </si>
   <si>
     <t>sample_function_004</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>input2</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&amp;input2[0]</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>_input2[0]</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>_input2[0]</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>_input2[0]</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>非NULL</t>
+    <rPh sb="0" eb="1">
+      <t>ヒ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>input2</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&amp;_input2[0]</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>非NULL</t>
+    <rPh sb="0" eb="1">
+      <t>ヒ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>A</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -702,7 +772,17 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="13">
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+      <border>
+        <top/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <color theme="0" tint="-0.24994659260841701"/>
@@ -1131,9 +1211,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F7"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="V49" sqref="V49"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3270,7 +3348,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:AC27"/>
+  <dimension ref="B2:AC28"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -3289,9 +3367,9 @@
     <col min="12" max="12" width="2.375" style="5" customWidth="1"/>
     <col min="13" max="13" width="9.625" style="5" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="5.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6" style="5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="4.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="6" style="5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9" style="5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7" style="5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.125" style="5" bestFit="1" customWidth="1"/>
     <col min="18" max="45" width="3" style="5" customWidth="1"/>
     <col min="46" max="16384" width="2.125" style="5"/>
   </cols>
@@ -3641,9 +3719,11 @@
         <v>3</v>
       </c>
       <c r="O15" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="P15" s="3"/>
+        <v>110</v>
+      </c>
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
       <c r="Q15" s="6">
         <v>0</v>
       </c>
@@ -3686,7 +3766,7 @@
     </row>
     <row r="16" spans="2:29" x14ac:dyDescent="0.15">
       <c r="B16" s="8"/>
-      <c r="C16" s="9"/>
+      <c r="C16" s="8"/>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
@@ -3699,26 +3779,50 @@
         <v>3</v>
       </c>
       <c r="O16" s="3" t="s">
-        <v>76</v>
+        <v>115</v>
       </c>
       <c r="P16" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q16" s="6">
-        <v>0</v>
-      </c>
-      <c r="R16" s="3"/>
-      <c r="S16" s="3"/>
-      <c r="T16" s="3"/>
-      <c r="U16" s="3"/>
-      <c r="V16" s="3"/>
-      <c r="W16" s="3"/>
-      <c r="X16" s="3"/>
-      <c r="Y16" s="3"/>
-      <c r="Z16" s="3"/>
-      <c r="AA16" s="3"/>
-      <c r="AB16" s="3"/>
-      <c r="AC16" s="3"/>
+        <v>117</v>
+      </c>
+      <c r="Q16" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="R16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="S16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="T16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="U16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="V16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="W16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="X16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC16" s="3" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="17" spans="2:29" x14ac:dyDescent="0.15">
       <c r="B17" s="8"/>
@@ -3735,32 +3839,24 @@
         <v>3</v>
       </c>
       <c r="O17" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="P17" s="3" t="s">
         <v>40</v>
       </c>
       <c r="Q17" s="6">
-        <v>1</v>
-      </c>
-      <c r="R17" s="3" t="s">
-        <v>80</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="R17" s="3"/>
       <c r="S17" s="3"/>
       <c r="T17" s="3"/>
-      <c r="U17" s="3" t="s">
-        <v>80</v>
-      </c>
+      <c r="U17" s="3"/>
       <c r="V17" s="3"/>
       <c r="W17" s="3"/>
-      <c r="X17" s="3" t="s">
-        <v>80</v>
-      </c>
+      <c r="X17" s="3"/>
       <c r="Y17" s="3"/>
       <c r="Z17" s="3"/>
-      <c r="AA17" s="3" t="s">
-        <v>80</v>
-      </c>
+      <c r="AA17" s="3"/>
       <c r="AB17" s="3"/>
       <c r="AC17" s="3"/>
     </row>
@@ -3779,33 +3875,33 @@
         <v>3</v>
       </c>
       <c r="O18" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P18" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="Q18" s="6">
-        <v>2</v>
-      </c>
-      <c r="R18" s="3"/>
-      <c r="S18" s="3" t="s">
-        <v>82</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="R18" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="S18" s="3"/>
       <c r="T18" s="3"/>
-      <c r="U18" s="3"/>
-      <c r="V18" s="3" t="s">
-        <v>82</v>
-      </c>
+      <c r="U18" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="V18" s="3"/>
       <c r="W18" s="3"/>
-      <c r="X18" s="3"/>
-      <c r="Y18" s="3" t="s">
-        <v>82</v>
-      </c>
+      <c r="X18" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y18" s="3"/>
       <c r="Z18" s="3"/>
-      <c r="AA18" s="3"/>
-      <c r="AB18" s="3" t="s">
-        <v>82</v>
-      </c>
+      <c r="AA18" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB18" s="3"/>
       <c r="AC18" s="3"/>
     </row>
     <row r="19" spans="2:29" x14ac:dyDescent="0.15">
@@ -3823,76 +3919,86 @@
         <v>3</v>
       </c>
       <c r="O19" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="P19" s="3" t="s">
         <v>42</v>
       </c>
       <c r="Q19" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R19" s="3"/>
-      <c r="S19" s="3"/>
-      <c r="T19" s="3" t="s">
+      <c r="S19" s="3" t="s">
         <v>82</v>
       </c>
+      <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-      <c r="V19" s="3"/>
-      <c r="W19" s="3" t="s">
+      <c r="V19" s="3" t="s">
         <v>82</v>
       </c>
+      <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-      <c r="Y19" s="3"/>
-      <c r="Z19" s="3" t="s">
-        <v>80</v>
-      </c>
+      <c r="Y19" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-      <c r="AB19" s="3"/>
-      <c r="AC19" s="3" t="s">
-        <v>80</v>
-      </c>
+      <c r="AB19" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="AC19" s="3"/>
     </row>
     <row r="20" spans="2:29" x14ac:dyDescent="0.15">
       <c r="B20" s="8"/>
       <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
       <c r="H20" s="8"/>
       <c r="M20" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N20" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O20" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="P20" s="3"/>
+        <v>78</v>
+      </c>
+      <c r="P20" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="Q20" s="6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R20" s="3"/>
       <c r="S20" s="3"/>
-      <c r="T20" s="3"/>
+      <c r="T20" s="3" t="s">
+        <v>82</v>
+      </c>
       <c r="U20" s="3"/>
       <c r="V20" s="3"/>
-      <c r="W20" s="3"/>
+      <c r="W20" s="3" t="s">
+        <v>82</v>
+      </c>
       <c r="X20" s="3"/>
       <c r="Y20" s="3"/>
-      <c r="Z20" s="3"/>
+      <c r="Z20" s="3" t="s">
+        <v>80</v>
+      </c>
       <c r="AA20" s="3"/>
       <c r="AB20" s="3"/>
-      <c r="AC20" s="3"/>
+      <c r="AC20" s="3" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="21" spans="2:29" x14ac:dyDescent="0.15">
       <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
       <c r="H21" s="8"/>
       <c r="M21" s="3" t="s">
         <v>36</v>
@@ -3905,29 +4011,17 @@
       </c>
       <c r="P21" s="3"/>
       <c r="Q21" s="6">
-        <v>1</v>
-      </c>
-      <c r="R21" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="S21" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="T21" s="3" t="s">
-        <v>80</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="R21" s="3"/>
+      <c r="S21" s="3"/>
+      <c r="T21" s="3"/>
       <c r="U21" s="3"/>
-      <c r="V21" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="W21" s="3" t="s">
-        <v>80</v>
-      </c>
+      <c r="V21" s="3"/>
+      <c r="W21" s="3"/>
       <c r="X21" s="3"/>
       <c r="Y21" s="3"/>
-      <c r="Z21" s="3" t="s">
-        <v>80</v>
-      </c>
+      <c r="Z21" s="3"/>
       <c r="AA21" s="3"/>
       <c r="AB21" s="3"/>
       <c r="AC21" s="3"/>
@@ -3951,36 +4045,36 @@
       </c>
       <c r="P22" s="3"/>
       <c r="Q22" s="6">
-        <v>2</v>
-      </c>
-      <c r="R22" s="3"/>
-      <c r="S22" s="3"/>
-      <c r="T22" s="3"/>
-      <c r="U22" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="R22" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="S22" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="V22" s="3"/>
-      <c r="W22" s="3"/>
-      <c r="X22" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y22" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="Z22" s="3"/>
-      <c r="AA22" s="3" t="s">
+      <c r="T22" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="AB22" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="AC22" s="3" t="s">
-        <v>86</v>
-      </c>
+      <c r="U22" s="3"/>
+      <c r="V22" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="W22" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="X22" s="3"/>
+      <c r="Y22" s="3"/>
+      <c r="Z22" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA22" s="3"/>
+      <c r="AB22" s="3"/>
+      <c r="AC22" s="3"/>
     </row>
     <row r="23" spans="2:29" x14ac:dyDescent="0.15">
       <c r="B23" s="8"/>
-      <c r="C23" s="9"/>
+      <c r="C23" s="8"/>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
@@ -3997,20 +4091,32 @@
       </c>
       <c r="P23" s="3"/>
       <c r="Q23" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R23" s="3"/>
       <c r="S23" s="3"/>
       <c r="T23" s="3"/>
-      <c r="U23" s="3"/>
+      <c r="U23" s="3" t="s">
+        <v>80</v>
+      </c>
       <c r="V23" s="3"/>
       <c r="W23" s="3"/>
-      <c r="X23" s="3"/>
-      <c r="Y23" s="3"/>
+      <c r="X23" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y23" s="3" t="s">
+        <v>84</v>
+      </c>
       <c r="Z23" s="3"/>
-      <c r="AA23" s="3"/>
-      <c r="AB23" s="3"/>
-      <c r="AC23" s="3"/>
+      <c r="AA23" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB23" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC23" s="3" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="24" spans="2:29" x14ac:dyDescent="0.15">
       <c r="B24" s="8"/>
@@ -4024,37 +4130,31 @@
         <v>36</v>
       </c>
       <c r="N24" s="3" t="s">
-        <v>61</v>
+        <v>4</v>
       </c>
       <c r="O24" s="3" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="P24" s="3"/>
       <c r="Q24" s="6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R24" s="3"/>
       <c r="S24" s="3"/>
       <c r="T24" s="3"/>
-      <c r="U24" s="3" t="s">
-        <v>80</v>
-      </c>
+      <c r="U24" s="3"/>
       <c r="V24" s="3"/>
       <c r="W24" s="3"/>
       <c r="X24" s="3"/>
-      <c r="Y24" s="3" t="s">
-        <v>85</v>
-      </c>
+      <c r="Y24" s="3"/>
       <c r="Z24" s="3"/>
       <c r="AA24" s="3"/>
       <c r="AB24" s="3"/>
-      <c r="AC24" s="3" t="s">
-        <v>87</v>
-      </c>
+      <c r="AC24" s="3"/>
     </row>
     <row r="25" spans="2:29" x14ac:dyDescent="0.15">
       <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
+      <c r="C25" s="9"/>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
@@ -4071,30 +4171,26 @@
       </c>
       <c r="P25" s="3"/>
       <c r="Q25" s="6">
-        <v>10</v>
-      </c>
-      <c r="R25" s="3" t="s">
-        <v>80</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="R25" s="3"/>
       <c r="S25" s="3"/>
       <c r="T25" s="3"/>
-      <c r="U25" s="3"/>
-      <c r="V25" s="3" t="s">
+      <c r="U25" s="3" t="s">
         <v>80</v>
       </c>
+      <c r="V25" s="3"/>
       <c r="W25" s="3"/>
-      <c r="X25" s="3" t="s">
+      <c r="X25" s="3"/>
+      <c r="Y25" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="Y25" s="3"/>
-      <c r="Z25" s="3" t="s">
-        <v>80</v>
-      </c>
+      <c r="Z25" s="3"/>
       <c r="AA25" s="3"/>
-      <c r="AB25" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="AC25" s="3"/>
+      <c r="AB25" s="3"/>
+      <c r="AC25" s="3" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="26" spans="2:29" x14ac:dyDescent="0.15">
       <c r="B26" s="8"/>
@@ -4115,28 +4211,39 @@
       </c>
       <c r="P26" s="3"/>
       <c r="Q26" s="6">
-        <v>20</v>
-      </c>
-      <c r="R26" s="3"/>
-      <c r="S26" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="R26" s="3" t="s">
         <v>80</v>
       </c>
+      <c r="S26" s="3"/>
       <c r="T26" s="3"/>
       <c r="U26" s="3"/>
-      <c r="V26" s="3"/>
-      <c r="W26" s="3" t="s">
+      <c r="V26" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="X26" s="3"/>
+      <c r="W26" s="3"/>
+      <c r="X26" s="3" t="s">
+        <v>85</v>
+      </c>
       <c r="Y26" s="3"/>
-      <c r="Z26" s="3"/>
-      <c r="AA26" s="3" t="s">
+      <c r="Z26" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="AB26" s="3"/>
+      <c r="AA26" s="3"/>
+      <c r="AB26" s="3" t="s">
+        <v>80</v>
+      </c>
       <c r="AC26" s="3"/>
     </row>
     <row r="27" spans="2:29" x14ac:dyDescent="0.15">
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
       <c r="M27" s="3" t="s">
         <v>36</v>
       </c>
@@ -4148,48 +4255,81 @@
       </c>
       <c r="P27" s="3"/>
       <c r="Q27" s="6">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="R27" s="3"/>
-      <c r="S27" s="3"/>
-      <c r="T27" s="3" t="s">
+      <c r="S27" s="3" t="s">
         <v>80</v>
       </c>
+      <c r="T27" s="3"/>
       <c r="U27" s="3"/>
       <c r="V27" s="3"/>
-      <c r="W27" s="3"/>
+      <c r="W27" s="3" t="s">
+        <v>80</v>
+      </c>
       <c r="X27" s="3"/>
       <c r="Y27" s="3"/>
       <c r="Z27" s="3"/>
-      <c r="AA27" s="3"/>
+      <c r="AA27" s="3" t="s">
+        <v>80</v>
+      </c>
       <c r="AB27" s="3"/>
       <c r="AC27" s="3"/>
     </row>
+    <row r="28" spans="2:29" x14ac:dyDescent="0.15">
+      <c r="M28" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="N28" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="O28" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="P28" s="3"/>
+      <c r="Q28" s="6">
+        <v>30</v>
+      </c>
+      <c r="R28" s="3"/>
+      <c r="S28" s="3"/>
+      <c r="T28" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="U28" s="3"/>
+      <c r="V28" s="3"/>
+      <c r="W28" s="3"/>
+      <c r="X28" s="3"/>
+      <c r="Y28" s="3"/>
+      <c r="Z28" s="3"/>
+      <c r="AA28" s="3"/>
+      <c r="AB28" s="3"/>
+      <c r="AC28" s="3"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="2"/>
-  <conditionalFormatting sqref="C4:D7 M21:P23 M11:P15 M17:O19">
+  <conditionalFormatting sqref="C4:D7 M22:P24 M11:P16 M18:P20">
     <cfRule type="expression" dxfId="6" priority="4">
       <formula>C4=C3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M24:P27">
+  <conditionalFormatting sqref="M25:P28">
     <cfRule type="expression" dxfId="5" priority="2">
-      <formula>M24=M23</formula>
+      <formula>M25=M24</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M20:P20">
+  <conditionalFormatting sqref="M21:P21">
     <cfRule type="expression" dxfId="4" priority="6">
-      <formula>M20=#REF!</formula>
+      <formula>M21=#REF!</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M16:O16">
+  <conditionalFormatting sqref="M17:O17">
     <cfRule type="expression" dxfId="3" priority="8">
-      <formula>M16=#REF!</formula>
+      <formula>M17=#REF!</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P16:P19">
-    <cfRule type="expression" dxfId="2" priority="1">
-      <formula>P16=P15</formula>
+  <conditionalFormatting sqref="P17">
+    <cfRule type="expression" dxfId="0" priority="15">
+      <formula>P17=P15</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4199,11 +4339,9 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:X28"/>
+  <dimension ref="B2:Y29"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.125" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
@@ -4218,21 +4356,21 @@
     <col min="10" max="10" width="14.375" style="5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="2.125" style="5"/>
     <col min="12" max="12" width="2.375" style="5" customWidth="1"/>
-    <col min="13" max="13" width="9.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.875" style="5" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="5.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6" style="5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="4.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="6" style="5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9" style="5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7" style="5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.25" style="5" bestFit="1" customWidth="1"/>
     <col min="18" max="24" width="2.5" style="5" bestFit="1" customWidth="1"/>
     <col min="25" max="16384" width="2.125" style="5"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B2" s="10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:25" x14ac:dyDescent="0.15">
       <c r="C3" s="4" t="s">
         <v>30</v>
       </c>
@@ -4258,7 +4396,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:25" x14ac:dyDescent="0.15">
       <c r="C4" s="6" t="s">
         <v>17</v>
       </c>
@@ -4278,7 +4416,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:25" x14ac:dyDescent="0.15">
       <c r="C5" s="6" t="s">
         <v>17</v>
       </c>
@@ -4298,7 +4436,7 @@
       </c>
       <c r="J5" s="6"/>
     </row>
-    <row r="6" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:25" x14ac:dyDescent="0.15">
       <c r="C6" s="6" t="s">
         <v>17</v>
       </c>
@@ -4320,7 +4458,7 @@
       </c>
       <c r="J6" s="6"/>
     </row>
-    <row r="7" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:25" x14ac:dyDescent="0.15">
       <c r="C7" s="6" t="s">
         <v>15</v>
       </c>
@@ -4338,7 +4476,7 @@
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:25" x14ac:dyDescent="0.15">
       <c r="C8" s="6" t="s">
         <v>15</v>
       </c>
@@ -4360,7 +4498,7 @@
       </c>
       <c r="J8" s="6"/>
     </row>
-    <row r="9" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:25" x14ac:dyDescent="0.15">
       <c r="C9" s="6" t="s">
         <v>46</v>
       </c>
@@ -4378,7 +4516,7 @@
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:25" x14ac:dyDescent="0.15">
       <c r="C10" s="6" t="s">
         <v>46</v>
       </c>
@@ -4396,12 +4534,12 @@
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
     </row>
-    <row r="12" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:25" x14ac:dyDescent="0.15">
       <c r="L12" s="10" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:25" x14ac:dyDescent="0.15">
       <c r="M13" s="11" t="s">
         <v>37</v>
       </c>
@@ -4423,13 +4561,26 @@
       <c r="S13" s="4">
         <v>2</v>
       </c>
-      <c r="T13" s="4"/>
-      <c r="U13" s="4"/>
-      <c r="V13" s="4"/>
-      <c r="W13" s="4"/>
-      <c r="X13" s="4"/>
-    </row>
-    <row r="14" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="T13" s="4">
+        <v>3</v>
+      </c>
+      <c r="U13" s="4">
+        <v>4</v>
+      </c>
+      <c r="V13" s="4">
+        <v>5</v>
+      </c>
+      <c r="W13" s="4">
+        <v>6</v>
+      </c>
+      <c r="X13" s="4">
+        <v>7</v>
+      </c>
+      <c r="Y13" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="2:25" x14ac:dyDescent="0.15">
       <c r="M14" s="3" t="s">
         <v>35</v>
       </c>
@@ -4445,17 +4596,20 @@
       <c r="Q14" s="6">
         <v>0</v>
       </c>
-      <c r="R14" s="3"/>
+      <c r="R14" s="3" t="s">
+        <v>113</v>
+      </c>
       <c r="S14" s="3" t="s">
-        <v>12</v>
+        <v>113</v>
       </c>
       <c r="T14" s="3"/>
       <c r="U14" s="3"/>
       <c r="V14" s="3"/>
       <c r="W14" s="3"/>
       <c r="X14" s="3"/>
-    </row>
-    <row r="15" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="Y14" s="3"/>
+    </row>
+    <row r="15" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
@@ -4480,13 +4634,18 @@
       </c>
       <c r="R15" s="3"/>
       <c r="S15" s="3"/>
-      <c r="T15" s="3"/>
-      <c r="U15" s="3"/>
+      <c r="T15" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="U15" s="3" t="s">
+        <v>113</v>
+      </c>
       <c r="V15" s="3"/>
       <c r="W15" s="3"/>
       <c r="X15" s="3"/>
-    </row>
-    <row r="16" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="Y15" s="3"/>
+    </row>
+    <row r="16" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B16" s="8"/>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
@@ -4513,11 +4672,16 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-      <c r="V16" s="3"/>
-      <c r="W16" s="3"/>
+      <c r="V16" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="W16" s="3" t="s">
+        <v>113</v>
+      </c>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
@@ -4546,9 +4710,14 @@
       <c r="U17" s="3"/>
       <c r="V17" s="3"/>
       <c r="W17" s="3"/>
-      <c r="X17" s="3"/>
-    </row>
-    <row r="18" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="X17" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y17" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="18" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
@@ -4563,7 +4732,7 @@
         <v>3</v>
       </c>
       <c r="O18" s="3" t="s">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="P18" s="3" t="s">
         <v>40</v>
@@ -4571,15 +4740,20 @@
       <c r="Q18" s="6">
         <v>0</v>
       </c>
-      <c r="R18" s="3"/>
+      <c r="R18" s="3" t="s">
+        <v>118</v>
+      </c>
       <c r="S18" s="3"/>
-      <c r="T18" s="3"/>
+      <c r="T18" s="3" t="s">
+        <v>113</v>
+      </c>
       <c r="U18" s="3"/>
       <c r="V18" s="3"/>
       <c r="W18" s="3"/>
       <c r="X18" s="3"/>
-    </row>
-    <row r="19" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="Y18" s="3"/>
+    </row>
+    <row r="19" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
@@ -4594,7 +4768,7 @@
         <v>3</v>
       </c>
       <c r="O19" s="3" t="s">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="P19" s="3" t="s">
         <v>40</v>
@@ -4603,14 +4777,19 @@
         <v>1</v>
       </c>
       <c r="R19" s="3"/>
-      <c r="S19" s="3"/>
+      <c r="S19" s="3" t="s">
+        <v>113</v>
+      </c>
       <c r="T19" s="3"/>
-      <c r="U19" s="3"/>
+      <c r="U19" s="3" t="s">
+        <v>113</v>
+      </c>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B20" s="8"/>
       <c r="C20" s="9"/>
       <c r="D20" s="8"/>
@@ -4625,7 +4804,7 @@
         <v>3</v>
       </c>
       <c r="O20" s="3" t="s">
-        <v>10</v>
+        <v>111</v>
       </c>
       <c r="P20" s="3" t="s">
         <v>42</v>
@@ -4634,16 +4813,19 @@
         <v>2</v>
       </c>
       <c r="R20" s="3"/>
-      <c r="S20" s="3" t="s">
-        <v>12</v>
-      </c>
+      <c r="S20" s="3"/>
       <c r="T20" s="3"/>
       <c r="U20" s="3"/>
-      <c r="V20" s="3"/>
-      <c r="W20" s="3"/>
+      <c r="V20" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="W20" s="3" t="s">
+        <v>113</v>
+      </c>
       <c r="X20" s="3"/>
-    </row>
-    <row r="21" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="Y20" s="3"/>
+    </row>
+    <row r="21" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B21" s="8"/>
       <c r="C21" s="9"/>
       <c r="D21" s="8"/>
@@ -4658,7 +4840,7 @@
         <v>3</v>
       </c>
       <c r="O21" s="3" t="s">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="P21" s="3" t="s">
         <v>42</v>
@@ -4672,44 +4854,68 @@
       <c r="U21" s="3"/>
       <c r="V21" s="3"/>
       <c r="W21" s="3"/>
-      <c r="X21" s="3"/>
-    </row>
-    <row r="22" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="X21" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y21" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="22" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B22" s="8"/>
       <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
       <c r="H22" s="8"/>
       <c r="M22" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N22" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O22" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="P22" s="3"/>
-      <c r="Q22" s="6">
-        <v>0</v>
-      </c>
-      <c r="R22" s="3"/>
-      <c r="S22" s="3"/>
-      <c r="T22" s="3"/>
-      <c r="U22" s="3"/>
-      <c r="V22" s="3"/>
-      <c r="W22" s="3"/>
-      <c r="X22" s="3"/>
-    </row>
-    <row r="23" spans="2:24" x14ac:dyDescent="0.15">
+        <v>107</v>
+      </c>
+      <c r="P22" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q22" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="R22" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="S22" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="T22" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="U22" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="V22" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="W22" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="X22" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="Y22" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="23" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
       <c r="H23" s="8"/>
       <c r="M23" s="3" t="s">
         <v>36</v>
@@ -4722,17 +4928,22 @@
       </c>
       <c r="P23" s="3"/>
       <c r="Q23" s="6">
-        <v>1</v>
-      </c>
-      <c r="R23" s="3"/>
-      <c r="S23" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="R23" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="S23" s="3" t="s">
+        <v>113</v>
+      </c>
       <c r="T23" s="3"/>
       <c r="U23" s="3"/>
       <c r="V23" s="3"/>
       <c r="W23" s="3"/>
       <c r="X23" s="3"/>
-    </row>
-    <row r="24" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="Y23" s="3"/>
+    </row>
+    <row r="24" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
@@ -4751,21 +4962,24 @@
       </c>
       <c r="P24" s="3"/>
       <c r="Q24" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R24" s="3"/>
-      <c r="S24" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="T24" s="3"/>
-      <c r="U24" s="3"/>
+      <c r="S24" s="3"/>
+      <c r="T24" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="U24" s="3" t="s">
+        <v>113</v>
+      </c>
       <c r="V24" s="3"/>
       <c r="W24" s="3"/>
       <c r="X24" s="3"/>
-    </row>
-    <row r="25" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="Y24" s="3"/>
+    </row>
+    <row r="25" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B25" s="8"/>
-      <c r="C25" s="9"/>
+      <c r="C25" s="8"/>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
@@ -4782,17 +4996,22 @@
       </c>
       <c r="P25" s="3"/>
       <c r="Q25" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R25" s="3"/>
       <c r="S25" s="3"/>
       <c r="T25" s="3"/>
       <c r="U25" s="3"/>
-      <c r="V25" s="3"/>
-      <c r="W25" s="3"/>
+      <c r="V25" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="W25" s="3" t="s">
+        <v>122</v>
+      </c>
       <c r="X25" s="3"/>
-    </row>
-    <row r="26" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="Y25" s="3"/>
+    </row>
+    <row r="26" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B26" s="8"/>
       <c r="C26" s="9"/>
       <c r="D26" s="8"/>
@@ -4800,17 +5019,42 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c r="H26" s="8"/>
-    </row>
-    <row r="27" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="M26" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="N26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O26" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="P26" s="3"/>
+      <c r="Q26" s="6">
+        <v>3</v>
+      </c>
+      <c r="R26" s="3"/>
+      <c r="S26" s="3"/>
+      <c r="T26" s="3"/>
+      <c r="U26" s="3"/>
+      <c r="V26" s="3"/>
+      <c r="W26" s="3"/>
+      <c r="X26" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="Y26" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="27" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
+      <c r="C27" s="9"/>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c r="H27" s="8"/>
     </row>
-    <row r="28" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
       <c r="D28" s="8"/>
@@ -4819,16 +5063,25 @@
       <c r="G28" s="8"/>
       <c r="H28" s="8"/>
     </row>
+    <row r="29" spans="2:25" x14ac:dyDescent="0.15">
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="2"/>
-  <conditionalFormatting sqref="C4:D10">
-    <cfRule type="expression" dxfId="1" priority="2">
+  <conditionalFormatting sqref="C4:D10 M24:P26 M14:P22">
+    <cfRule type="expression" dxfId="2" priority="2">
       <formula>C4=C3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M14:P25">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>M14=M13</formula>
+  <conditionalFormatting sqref="M23:P23">
+    <cfRule type="expression" dxfId="1" priority="14">
+      <formula>M23=M21</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/sample/test_sample_input/google_test_sample_data.xlsx
+++ b/doc/sample/test_sample_input/google_test_sample_data.xlsx
@@ -4,21 +4,24 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="882" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="882"/>
   </bookViews>
   <sheets>
     <sheet name="テスト一覧" sheetId="2" r:id="rId1"/>
     <sheet name="sample_function_001" sheetId="1" r:id="rId2"/>
     <sheet name="sample_function_002" sheetId="3" r:id="rId3"/>
-    <sheet name="sample_function_003" sheetId="4" r:id="rId4"/>
-    <sheet name="sample_function_004" sheetId="5" r:id="rId5"/>
+    <sheet name="sample_function_003" sheetId="6" r:id="rId4"/>
+    <sheet name="sample_function_004" sheetId="7" r:id="rId5"/>
+    <sheet name="sample_function_004 (2)" sheetId="8" r:id="rId6"/>
+    <sheet name="_sample_function_003" sheetId="4" r:id="rId7"/>
+    <sheet name="_sample_function_004" sheetId="5" r:id="rId8"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1322" uniqueCount="203">
   <si>
     <t>○対象関数情報</t>
     <rPh sb="1" eb="7">
@@ -394,10 +397,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>sample_function_003</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>sample_function_001</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -486,45 +485,399 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>子関数呼び出し回数</t>
+    <t>A</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>sample_function_004</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>input2</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&amp;input2[0]</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>_input2[0]</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>_input2[0]</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>_input2[0]</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>非NULL</t>
+    <rPh sb="0" eb="1">
+      <t>ヒ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>input2</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&amp;_input2[0]</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>非NULL</t>
+    <rPh sb="0" eb="1">
+      <t>ヒ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>子関数：なし/引数：非ポインタ</t>
     <rPh sb="0" eb="3">
       <t>コカンスウ</t>
     </rPh>
-    <rPh sb="3" eb="4">
+    <rPh sb="7" eb="9">
+      <t>ヒキスウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ヒ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>*</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>*</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>テスト対象関数その2</t>
+    <rPh sb="3" eb="7">
+      <t>タイショウカンスウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>_input2[0]</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>_input1[0]</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>input1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>_input1[0]</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>input2</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&amp;_input2[0]</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>_input2[0]</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&amp;_input1[0]</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>非NULL</t>
+    <rPh sb="0" eb="1">
+      <t>ヒ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>*</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>_input1[0]</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>_input1[1]</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>_input1[1]</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>非0</t>
+    <rPh sb="0" eb="1">
+      <t>ヒ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>それ以外</t>
+    <rPh sb="2" eb="4">
+      <t>イガイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>_input2[0]</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>_input2[1]</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>_input2[1]</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>_input2[1]</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>テスト対象関数その3</t>
+    <rPh sb="3" eb="7">
+      <t>タイショウカンスウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>sample_function_003</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>subFunc_001</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>input</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>in</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>input1</t>
+  </si>
+  <si>
+    <t>0～1</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>2～3</t>
+  </si>
+  <si>
+    <t>input2</t>
+  </si>
+  <si>
+    <t>ret_val</t>
+  </si>
+  <si>
+    <t>&amp;_input1[0]</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>関数戻り値</t>
+    <rPh sb="0" eb="2">
+      <t>カンスウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>チ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>呼び出し回数</t>
+    <rPh sb="0" eb="1">
       <t>ヨ</t>
     </rPh>
-    <rPh sb="5" eb="6">
+    <rPh sb="2" eb="3">
       <t>ダ</t>
     </rPh>
-    <rPh sb="7" eb="9">
+    <rPh sb="4" eb="6">
       <t>カイスウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>subFuncA_002</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>子関数引数</t>
-    <rPh sb="0" eb="3">
-      <t>コカンスウ</t>
+    <t>subFunc_001_return_value[0]</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>subFunc_001_called_count</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>関数引数</t>
+    <rPh sb="0" eb="2">
+      <t>カンスウ</t>
     </rPh>
-    <rPh sb="3" eb="5">
+    <rPh sb="2" eb="4">
       <t>ヒキスウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>subFuncA_002_called_count</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>subFuncA_002_subInput1[0]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>subFuncA_002_subInput1[0]</t>
+    <t>subFunc_001_input[0]</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>subFunc_001_input[0]</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>subFunc_001_input[0]</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -532,16 +885,86 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>子関数戻り値</t>
-    <rPh sb="0" eb="3">
-      <t>コカンスウ</t>
+    <t>sample_function_003</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>sample_function_004</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>sample_function_003</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>sample_src.cpp</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>sample_function_004</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>out</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>0以外</t>
+    <rPh sb="1" eb="3">
+      <t>イガイ</t>
     </rPh>
-    <rPh sb="3" eb="4">
-      <t>モド</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>チ</t>
-    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>_input1[0]</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>_input1[1]</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>_input1[1]</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>_input1[1]</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&amp;_input1[0]</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>input2</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&amp;_input2[0]</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ret_val</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ret_val</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>_input2[0]</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>_input2[0]</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>_input2[1]</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>_input2[1]</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -549,14 +972,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>subFuncA_002_return_value[0]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>subFuncA_002_return_value[0]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>A</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -569,22 +984,19 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>subFuncA_002_subInput1[0]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>sample_function_004</t>
-  </si>
-  <si>
-    <t>sample_src.cpp</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>sample_src.cpp</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>sample_function_004</t>
+    <t>A</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ret_val</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>*</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -664,7 +1076,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -698,11 +1110,24 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="13">
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+      <border>
+        <top/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <color theme="0" tint="-0.24994659260841701"/>
@@ -1131,9 +1556,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F7"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="V49" sqref="V49"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1178,10 +1601,10 @@
         <v>63</v>
       </c>
       <c r="E4" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F4" s="14" t="s">
         <v>66</v>
-      </c>
-      <c r="F4" s="14" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.2">
@@ -1195,7 +1618,7 @@
         <v>64</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.2">
@@ -1203,13 +1626,13 @@
         <v>3</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>65</v>
+        <v>175</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>65</v>
+        <v>177</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>104</v>
+        <v>178</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.2">
@@ -1217,13 +1640,13 @@
         <v>4</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>103</v>
+        <v>176</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>105</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -1249,7 +1672,7 @@
     <col min="7" max="7" width="13.125" style="5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.625" style="5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="6" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.25" style="5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="2.125" style="5"/>
     <col min="12" max="12" width="2.375" style="5" customWidth="1"/>
     <col min="13" max="13" width="9.625" style="5" bestFit="1" customWidth="1"/>
@@ -1309,7 +1732,7 @@
       </c>
       <c r="I4" s="6"/>
       <c r="J4" s="6" t="s">
-        <v>32</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="2:33" x14ac:dyDescent="0.15">
@@ -1328,7 +1751,7 @@
         <v>24</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J5" s="6"/>
     </row>
@@ -1348,7 +1771,7 @@
         <v>25</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J6" s="6"/>
     </row>
@@ -1439,16 +1862,16 @@
         <v>0</v>
       </c>
       <c r="R10" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="S10" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="T10" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="U10" s="3" t="s">
         <v>73</v>
-      </c>
-      <c r="U10" s="3" t="s">
-        <v>74</v>
       </c>
       <c r="V10" s="3"/>
       <c r="W10" s="3"/>
@@ -1491,16 +1914,16 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="W11" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="X11" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y11" s="3" t="s">
         <v>73</v>
-      </c>
-      <c r="Y11" s="3" t="s">
-        <v>74</v>
       </c>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
@@ -1543,16 +1966,16 @@
       <c r="X12" s="3"/>
       <c r="Y12" s="3"/>
       <c r="Z12" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AA12" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AB12" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC12" s="3" t="s">
         <v>73</v>
-      </c>
-      <c r="AC12" s="3" t="s">
-        <v>74</v>
       </c>
       <c r="AD12" s="3"/>
       <c r="AE12" s="3"/>
@@ -1595,16 +2018,16 @@
       <c r="AB13" s="3"/>
       <c r="AC13" s="3"/>
       <c r="AD13" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AE13" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AF13" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="AG13" s="3" t="s">
         <v>73</v>
-      </c>
-      <c r="AG13" s="3" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="14" spans="2:33" x14ac:dyDescent="0.15">
@@ -1631,25 +2054,25 @@
         <v>0</v>
       </c>
       <c r="R14" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="S14" s="3"/>
       <c r="T14" s="3"/>
       <c r="U14" s="3"/>
       <c r="V14" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="W14" s="3"/>
       <c r="X14" s="3"/>
       <c r="Y14" s="3"/>
       <c r="Z14" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AA14" s="3"/>
       <c r="AB14" s="3"/>
       <c r="AC14" s="3"/>
       <c r="AD14" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AE14" s="3"/>
       <c r="AF14" s="3"/>
@@ -1680,25 +2103,25 @@
       </c>
       <c r="R15" s="3"/>
       <c r="S15" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="T15" s="3"/>
       <c r="U15" s="3"/>
       <c r="V15" s="3"/>
       <c r="W15" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="X15" s="3"/>
       <c r="Y15" s="3"/>
       <c r="Z15" s="3"/>
       <c r="AA15" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AB15" s="3"/>
       <c r="AC15" s="3"/>
       <c r="AD15" s="3"/>
       <c r="AE15" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AF15" s="3"/>
       <c r="AG15" s="3"/>
@@ -1729,25 +2152,25 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
       <c r="AF16" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AG16" s="3"/>
     </row>
@@ -1778,25 +2201,25 @@
       <c r="S17" s="3"/>
       <c r="T17" s="3"/>
       <c r="U17" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="V17" s="3"/>
       <c r="W17" s="3"/>
       <c r="X17" s="3"/>
       <c r="Y17" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Z17" s="3"/>
       <c r="AA17" s="3"/>
       <c r="AB17" s="3"/>
       <c r="AC17" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AD17" s="3"/>
       <c r="AE17" s="3"/>
       <c r="AF17" s="3"/>
       <c r="AG17" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18" spans="2:33" x14ac:dyDescent="0.15">
@@ -1821,28 +2244,28 @@
         <v>0</v>
       </c>
       <c r="R18" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="S18" s="3"/>
       <c r="T18" s="3"/>
       <c r="U18" s="3"/>
       <c r="V18" s="3"/>
       <c r="W18" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="X18" s="3"/>
       <c r="Y18" s="3"/>
       <c r="Z18" s="3"/>
       <c r="AA18" s="3"/>
       <c r="AB18" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AC18" s="3"/>
       <c r="AD18" s="3"/>
       <c r="AE18" s="3"/>
       <c r="AF18" s="3"/>
       <c r="AG18" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="19" spans="2:33" x14ac:dyDescent="0.15">
@@ -1868,30 +2291,30 @@
       </c>
       <c r="R19" s="3"/>
       <c r="S19" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="W19" s="3"/>
       <c r="X19" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
       <c r="AF19" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AG19" s="3"/>
     </row>
@@ -1919,24 +2342,24 @@
       <c r="R20" s="3"/>
       <c r="S20" s="3"/>
       <c r="T20" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="U20" s="3"/>
       <c r="V20" s="3"/>
       <c r="W20" s="3"/>
       <c r="X20" s="3"/>
       <c r="Y20" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="Z20" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AA20" s="3"/>
       <c r="AB20" s="3"/>
       <c r="AC20" s="3"/>
       <c r="AD20" s="3"/>
       <c r="AE20" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AF20" s="3"/>
       <c r="AG20" s="3"/>
@@ -1966,7 +2389,7 @@
       <c r="S21" s="3"/>
       <c r="T21" s="3"/>
       <c r="U21" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="V21" s="3"/>
       <c r="W21" s="3"/>
@@ -1977,7 +2400,7 @@
       <c r="AB21" s="3"/>
       <c r="AC21" s="3"/>
       <c r="AD21" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AE21" s="3"/>
       <c r="AF21" s="3"/>
@@ -2013,12 +2436,12 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="C4:D6">
-    <cfRule type="expression" dxfId="11" priority="2">
+    <cfRule type="expression" dxfId="12" priority="2">
       <formula>C4=C3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M10:P21">
-    <cfRule type="expression" dxfId="10" priority="1">
+    <cfRule type="expression" dxfId="11" priority="1">
       <formula>M10=M9</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2029,7 +2452,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:AG32"/>
+  <dimension ref="B2:AG23"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -2046,11 +2469,11 @@
     <col min="10" max="10" width="14.375" style="5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="2.125" style="5"/>
     <col min="12" max="12" width="2.375" style="5" customWidth="1"/>
-    <col min="13" max="13" width="9.625" style="5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.875" style="5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="25.625" style="5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="4.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="6" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.875" style="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9" style="5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7" style="5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.125" style="5" bestFit="1" customWidth="1"/>
     <col min="18" max="33" width="3" style="5" customWidth="1"/>
     <col min="34" max="16384" width="2.125" style="5"/>
   </cols>
@@ -2103,7 +2526,7 @@
       </c>
       <c r="I4" s="6"/>
       <c r="J4" s="6" t="s">
-        <v>32</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="2:33" x14ac:dyDescent="0.15">
@@ -2117,6 +2540,3993 @@
       <c r="F5" s="7" t="s">
         <v>21</v>
       </c>
+      <c r="G5" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="J5" s="6"/>
+    </row>
+    <row r="6" spans="2:33" x14ac:dyDescent="0.15">
+      <c r="C6" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="6"/>
+      <c r="F6" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="J6" s="6"/>
+    </row>
+    <row r="8" spans="2:33" x14ac:dyDescent="0.15">
+      <c r="L8" s="10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="2:33" x14ac:dyDescent="0.15">
+      <c r="M9" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="N9" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="O9" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="P9" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q9" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="R9" s="4">
+        <v>1</v>
+      </c>
+      <c r="S9" s="4">
+        <v>2</v>
+      </c>
+      <c r="T9" s="4">
+        <v>3</v>
+      </c>
+      <c r="U9" s="4">
+        <v>4</v>
+      </c>
+      <c r="V9" s="4">
+        <v>5</v>
+      </c>
+      <c r="W9" s="4">
+        <v>6</v>
+      </c>
+      <c r="X9" s="4">
+        <v>7</v>
+      </c>
+      <c r="Y9" s="4">
+        <v>8</v>
+      </c>
+      <c r="Z9" s="4">
+        <v>9</v>
+      </c>
+      <c r="AA9" s="4">
+        <v>10</v>
+      </c>
+      <c r="AB9" s="4">
+        <v>11</v>
+      </c>
+      <c r="AC9" s="4">
+        <v>12</v>
+      </c>
+      <c r="AD9" s="4">
+        <v>13</v>
+      </c>
+      <c r="AE9" s="4">
+        <v>14</v>
+      </c>
+      <c r="AF9" s="4">
+        <v>15</v>
+      </c>
+      <c r="AG9" s="4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="2:33" x14ac:dyDescent="0.15">
+      <c r="M10" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q10" s="6">
+        <v>0</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="T10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="U10" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="V10" s="3"/>
+      <c r="W10" s="3"/>
+      <c r="X10" s="3"/>
+      <c r="Y10" s="3"/>
+      <c r="Z10" s="3"/>
+      <c r="AA10" s="3"/>
+      <c r="AB10" s="3"/>
+      <c r="AC10" s="3"/>
+      <c r="AD10" s="3"/>
+      <c r="AE10" s="3"/>
+      <c r="AF10" s="3"/>
+      <c r="AG10" s="3"/>
+    </row>
+    <row r="11" spans="2:33" x14ac:dyDescent="0.15">
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="M11" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O11" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="P11" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q11" s="6">
+        <v>1</v>
+      </c>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+      <c r="V11" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="W11" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="X11" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y11" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+      <c r="AB11" s="3"/>
+      <c r="AC11" s="3"/>
+      <c r="AD11" s="3"/>
+      <c r="AE11" s="3"/>
+      <c r="AF11" s="3"/>
+      <c r="AG11" s="3"/>
+    </row>
+    <row r="12" spans="2:33" x14ac:dyDescent="0.15">
+      <c r="B12" s="8"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="8"/>
+      <c r="M12" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q12" s="6">
+        <v>2</v>
+      </c>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="3"/>
+      <c r="U12" s="3"/>
+      <c r="V12" s="3"/>
+      <c r="W12" s="3"/>
+      <c r="X12" s="3"/>
+      <c r="Y12" s="3"/>
+      <c r="Z12" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA12" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="AB12" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="AC12" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AD12" s="3"/>
+      <c r="AE12" s="3"/>
+      <c r="AF12" s="3"/>
+      <c r="AG12" s="3"/>
+    </row>
+    <row r="13" spans="2:33" x14ac:dyDescent="0.15">
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="M13" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O13" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="P13" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q13" s="6">
+        <v>3</v>
+      </c>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
+      <c r="U13" s="3"/>
+      <c r="V13" s="3"/>
+      <c r="W13" s="3"/>
+      <c r="X13" s="3"/>
+      <c r="Y13" s="3"/>
+      <c r="Z13" s="3"/>
+      <c r="AA13" s="3"/>
+      <c r="AB13" s="3"/>
+      <c r="AC13" s="3"/>
+      <c r="AD13" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="AE13" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="AF13" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="AG13" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="14" spans="2:33" x14ac:dyDescent="0.15">
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="M14" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q14" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="S14" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="T14" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="U14" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="V14" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="W14" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="X14" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y14" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="Z14" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="AA14" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="AB14" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="AC14" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="AD14" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="AE14" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="AF14" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="AG14" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="15" spans="2:33" x14ac:dyDescent="0.15">
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="M15" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="P15" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q15" s="6">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3"/>
+      <c r="U15" s="3"/>
+      <c r="V15" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="W15" s="3"/>
+      <c r="X15" s="3"/>
+      <c r="Y15" s="3"/>
+      <c r="Z15" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA15" s="3"/>
+      <c r="AB15" s="3"/>
+      <c r="AC15" s="3"/>
+      <c r="AD15" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="AE15" s="3"/>
+      <c r="AF15" s="3"/>
+      <c r="AG15" s="3"/>
+    </row>
+    <row r="16" spans="2:33" x14ac:dyDescent="0.15">
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="M16" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="N16" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O16" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="P16" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q16" s="6">
+        <v>1</v>
+      </c>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+      <c r="W16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB16" s="3"/>
+      <c r="AC16" s="3"/>
+      <c r="AD16" s="3"/>
+      <c r="AE16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF16" s="3"/>
+      <c r="AG16" s="3"/>
+    </row>
+    <row r="17" spans="2:33" x14ac:dyDescent="0.15">
+      <c r="B17" s="8"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="M17" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O17" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="P17" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q17" s="6">
+        <v>2</v>
+      </c>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="U17" s="3"/>
+      <c r="V17" s="3"/>
+      <c r="W17" s="3"/>
+      <c r="X17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y17" s="3"/>
+      <c r="Z17" s="3"/>
+      <c r="AA17" s="3"/>
+      <c r="AB17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC17" s="3"/>
+      <c r="AD17" s="3"/>
+      <c r="AE17" s="3"/>
+      <c r="AF17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG17" s="3"/>
+    </row>
+    <row r="18" spans="2:33" x14ac:dyDescent="0.15">
+      <c r="B18" s="8"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="M18" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O18" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="P18" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q18" s="6">
+        <v>3</v>
+      </c>
+      <c r="R18" s="3"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="3"/>
+      <c r="U18" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="V18" s="3"/>
+      <c r="W18" s="3"/>
+      <c r="X18" s="3"/>
+      <c r="Y18" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z18" s="3"/>
+      <c r="AA18" s="3"/>
+      <c r="AB18" s="3"/>
+      <c r="AC18" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="AD18" s="3"/>
+      <c r="AE18" s="3"/>
+      <c r="AF18" s="3"/>
+      <c r="AG18" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="19" spans="2:33" x14ac:dyDescent="0.15">
+      <c r="B19" s="8"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="M19" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="N19" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O19" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="P19" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q19" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="R19" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="S19" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="T19" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="U19" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="V19" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="W19" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="X19" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y19" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="Z19" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="AA19" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="AB19" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="AC19" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="AD19" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="AE19" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="AF19" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="AG19" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="20" spans="2:33" x14ac:dyDescent="0.15">
+      <c r="B20" s="8"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="8"/>
+      <c r="M20" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="6">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="S20" s="3"/>
+      <c r="T20" s="3"/>
+      <c r="U20" s="3"/>
+      <c r="V20" s="3"/>
+      <c r="W20" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="X20" s="3"/>
+      <c r="Y20" s="3"/>
+      <c r="Z20" s="3"/>
+      <c r="AA20" s="3"/>
+      <c r="AB20" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC20" s="3"/>
+      <c r="AD20" s="3"/>
+      <c r="AE20" s="3"/>
+      <c r="AF20" s="3"/>
+      <c r="AG20" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="2:33" x14ac:dyDescent="0.15">
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="M21" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O21" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="6">
+        <v>1</v>
+      </c>
+      <c r="R21" s="3"/>
+      <c r="S21" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="T21" s="3"/>
+      <c r="U21" s="3"/>
+      <c r="V21" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="W21" s="3"/>
+      <c r="X21" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y21" s="3"/>
+      <c r="Z21" s="3"/>
+      <c r="AA21" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB21" s="3"/>
+      <c r="AC21" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD21" s="3"/>
+      <c r="AE21" s="3"/>
+      <c r="AF21" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG21" s="3"/>
+    </row>
+    <row r="22" spans="2:33" x14ac:dyDescent="0.15">
+      <c r="M22" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O22" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="6">
+        <v>2</v>
+      </c>
+      <c r="R22" s="3"/>
+      <c r="S22" s="3"/>
+      <c r="T22" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="U22" s="3"/>
+      <c r="V22" s="3"/>
+      <c r="W22" s="3"/>
+      <c r="X22" s="3"/>
+      <c r="Y22" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z22" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA22" s="3"/>
+      <c r="AB22" s="3"/>
+      <c r="AC22" s="3"/>
+      <c r="AD22" s="3"/>
+      <c r="AE22" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF22" s="3"/>
+      <c r="AG22" s="3"/>
+    </row>
+    <row r="23" spans="2:33" x14ac:dyDescent="0.15">
+      <c r="M23" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O23" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="6">
+        <v>3</v>
+      </c>
+      <c r="R23" s="3"/>
+      <c r="S23" s="3"/>
+      <c r="T23" s="3"/>
+      <c r="U23" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="V23" s="3"/>
+      <c r="W23" s="3"/>
+      <c r="X23" s="3"/>
+      <c r="Y23" s="3"/>
+      <c r="Z23" s="3"/>
+      <c r="AA23" s="3"/>
+      <c r="AB23" s="3"/>
+      <c r="AC23" s="3"/>
+      <c r="AD23" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE23" s="3"/>
+      <c r="AF23" s="3"/>
+      <c r="AG23" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <conditionalFormatting sqref="M10:P23">
+    <cfRule type="expression" dxfId="10" priority="3">
+      <formula>M10=M9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:AG27"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.125" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="2" width="2.125" style="5"/>
+    <col min="3" max="3" width="10.875" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.875" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="2.125" style="5"/>
+    <col min="12" max="12" width="2.375" style="5" customWidth="1"/>
+    <col min="13" max="13" width="9.875" style="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9" style="5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7" style="5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="18" max="33" width="3" style="5" customWidth="1"/>
+    <col min="34" max="16384" width="2.125" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:33" x14ac:dyDescent="0.15">
+      <c r="B2" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="2:33" x14ac:dyDescent="0.15">
+      <c r="C3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="2:33" x14ac:dyDescent="0.15">
+      <c r="C4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="6"/>
+      <c r="F4" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="5" spans="2:33" x14ac:dyDescent="0.15">
+      <c r="C5" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="6"/>
+      <c r="F5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="J5" s="6"/>
+    </row>
+    <row r="6" spans="2:33" x14ac:dyDescent="0.15">
+      <c r="C6" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="6"/>
+      <c r="F6" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="J6" s="6"/>
+    </row>
+    <row r="8" spans="2:33" x14ac:dyDescent="0.15">
+      <c r="L8" s="10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="2:33" x14ac:dyDescent="0.15">
+      <c r="M9" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="N9" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="O9" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="P9" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q9" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="R9" s="4">
+        <v>1</v>
+      </c>
+      <c r="S9" s="4">
+        <v>2</v>
+      </c>
+      <c r="T9" s="4">
+        <v>3</v>
+      </c>
+      <c r="U9" s="4">
+        <v>4</v>
+      </c>
+      <c r="V9" s="4">
+        <v>5</v>
+      </c>
+      <c r="W9" s="4">
+        <v>6</v>
+      </c>
+      <c r="X9" s="4">
+        <v>7</v>
+      </c>
+      <c r="Y9" s="4">
+        <v>8</v>
+      </c>
+      <c r="Z9" s="4">
+        <v>9</v>
+      </c>
+      <c r="AA9" s="4">
+        <v>10</v>
+      </c>
+      <c r="AB9" s="4">
+        <v>11</v>
+      </c>
+      <c r="AC9" s="4">
+        <v>12</v>
+      </c>
+      <c r="AD9" s="4">
+        <v>13</v>
+      </c>
+      <c r="AE9" s="4">
+        <v>14</v>
+      </c>
+      <c r="AF9" s="4">
+        <v>15</v>
+      </c>
+      <c r="AG9" s="4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="2:33" x14ac:dyDescent="0.15">
+      <c r="M10" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q10" s="6">
+        <v>0</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="T10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="U10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="V10" s="3"/>
+      <c r="W10" s="3"/>
+      <c r="X10" s="3"/>
+      <c r="Y10" s="3"/>
+      <c r="Z10" s="3"/>
+      <c r="AA10" s="3"/>
+      <c r="AB10" s="3"/>
+      <c r="AC10" s="3"/>
+      <c r="AD10" s="3"/>
+      <c r="AE10" s="3"/>
+      <c r="AF10" s="3"/>
+      <c r="AG10" s="3"/>
+    </row>
+    <row r="11" spans="2:33" x14ac:dyDescent="0.15">
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="M11" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O11" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="P11" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q11" s="6">
+        <v>1</v>
+      </c>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+      <c r="V11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="W11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="X11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+      <c r="AB11" s="3"/>
+      <c r="AC11" s="3"/>
+      <c r="AD11" s="3"/>
+      <c r="AE11" s="3"/>
+      <c r="AF11" s="3"/>
+      <c r="AG11" s="3"/>
+    </row>
+    <row r="12" spans="2:33" x14ac:dyDescent="0.15">
+      <c r="B12" s="8"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="8"/>
+      <c r="M12" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q12" s="6">
+        <v>2</v>
+      </c>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="3"/>
+      <c r="U12" s="3"/>
+      <c r="V12" s="3"/>
+      <c r="W12" s="3"/>
+      <c r="X12" s="3"/>
+      <c r="Y12" s="3"/>
+      <c r="Z12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD12" s="3"/>
+      <c r="AE12" s="3"/>
+      <c r="AF12" s="3"/>
+      <c r="AG12" s="3"/>
+    </row>
+    <row r="13" spans="2:33" x14ac:dyDescent="0.15">
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="M13" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O13" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="P13" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q13" s="6">
+        <v>3</v>
+      </c>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
+      <c r="U13" s="3"/>
+      <c r="V13" s="3"/>
+      <c r="W13" s="3"/>
+      <c r="X13" s="3"/>
+      <c r="Y13" s="3"/>
+      <c r="Z13" s="3"/>
+      <c r="AA13" s="3"/>
+      <c r="AB13" s="3"/>
+      <c r="AC13" s="3"/>
+      <c r="AD13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG13" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="2:33" x14ac:dyDescent="0.15">
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="M14" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q14" s="6">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="T14" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="U14" s="3"/>
+      <c r="V14" s="3"/>
+      <c r="W14" s="3"/>
+      <c r="X14" s="3"/>
+      <c r="Y14" s="3"/>
+      <c r="Z14" s="3"/>
+      <c r="AA14" s="3"/>
+      <c r="AB14" s="3"/>
+      <c r="AC14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD14" s="3"/>
+      <c r="AE14" s="3"/>
+      <c r="AF14" s="3"/>
+      <c r="AG14" s="3"/>
+    </row>
+    <row r="15" spans="2:33" x14ac:dyDescent="0.15">
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="M15" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="P15" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q15" s="6">
+        <v>1</v>
+      </c>
+      <c r="R15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3"/>
+      <c r="U15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="V15" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="W15" s="3"/>
+      <c r="X15" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="Y15" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="Z15" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="AA15" s="3"/>
+      <c r="AB15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC15" s="3"/>
+      <c r="AD15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE15" s="3"/>
+      <c r="AF15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG15" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="16" spans="2:33" x14ac:dyDescent="0.15">
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="M16" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="N16" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O16" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="P16" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q16" s="6">
+        <v>-1</v>
+      </c>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+      <c r="W16" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="AB16" s="3"/>
+      <c r="AC16" s="3"/>
+      <c r="AD16" s="3"/>
+      <c r="AE16" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="AF16" s="3"/>
+      <c r="AG16" s="3"/>
+    </row>
+    <row r="17" spans="2:33" x14ac:dyDescent="0.15">
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="M17" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O17" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="P17" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q17" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="R17" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="S17" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="T17" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="U17" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="V17" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="W17" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="X17" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="Y17" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="Z17" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="AA17" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="AB17" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="AC17" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="AD17" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="AE17" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="AF17" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="AG17" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="18" spans="2:33" x14ac:dyDescent="0.15">
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="M18" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O18" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="P18" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q18" s="6">
+        <v>0</v>
+      </c>
+      <c r="R18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="S18" s="3"/>
+      <c r="T18" s="3"/>
+      <c r="U18" s="3"/>
+      <c r="V18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="W18" s="3"/>
+      <c r="X18" s="3"/>
+      <c r="Y18" s="3"/>
+      <c r="Z18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA18" s="3"/>
+      <c r="AB18" s="3"/>
+      <c r="AC18" s="3"/>
+      <c r="AD18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE18" s="3"/>
+      <c r="AF18" s="3"/>
+      <c r="AG18" s="3"/>
+    </row>
+    <row r="19" spans="2:33" x14ac:dyDescent="0.15">
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="M19" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="N19" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O19" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="P19" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q19" s="6">
+        <v>1</v>
+      </c>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+      <c r="W19" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="X19" s="3"/>
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="3"/>
+      <c r="AA19" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB19" s="3"/>
+      <c r="AC19" s="3"/>
+      <c r="AD19" s="3"/>
+      <c r="AE19" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF19" s="3"/>
+      <c r="AG19" s="3"/>
+    </row>
+    <row r="20" spans="2:33" x14ac:dyDescent="0.15">
+      <c r="B20" s="8"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="M20" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="P20" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q20" s="6">
+        <v>2</v>
+      </c>
+      <c r="R20" s="3"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="U20" s="3"/>
+      <c r="V20" s="3"/>
+      <c r="W20" s="3"/>
+      <c r="X20" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y20" s="3"/>
+      <c r="Z20" s="3"/>
+      <c r="AA20" s="3"/>
+      <c r="AB20" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC20" s="3"/>
+      <c r="AD20" s="3"/>
+      <c r="AE20" s="3"/>
+      <c r="AF20" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG20" s="3"/>
+    </row>
+    <row r="21" spans="2:33" x14ac:dyDescent="0.15">
+      <c r="B21" s="8"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="M21" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O21" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="P21" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q21" s="6">
+        <v>3</v>
+      </c>
+      <c r="R21" s="3"/>
+      <c r="S21" s="3"/>
+      <c r="T21" s="3"/>
+      <c r="U21" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="V21" s="3"/>
+      <c r="W21" s="3"/>
+      <c r="X21" s="3"/>
+      <c r="Y21" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z21" s="3"/>
+      <c r="AA21" s="3"/>
+      <c r="AB21" s="3"/>
+      <c r="AC21" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD21" s="3"/>
+      <c r="AE21" s="3"/>
+      <c r="AF21" s="3"/>
+      <c r="AG21" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="2:33" x14ac:dyDescent="0.15">
+      <c r="B22" s="8"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="M22" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O22" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="P22" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q22" s="6">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="S22" s="3"/>
+      <c r="T22" s="3"/>
+      <c r="U22" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="V22" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="W22" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="X22" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="Y22" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z22" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA22" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB22" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC22" s="3"/>
+      <c r="AD22" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE22" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="AF22" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG22" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="2:33" x14ac:dyDescent="0.15">
+      <c r="B23" s="8"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="M23" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O23" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="P23" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q23" s="6">
+        <v>1</v>
+      </c>
+      <c r="R23" s="3"/>
+      <c r="S23" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="T23" s="3"/>
+      <c r="U23" s="3"/>
+      <c r="V23" s="3"/>
+      <c r="W23" s="3"/>
+      <c r="X23" s="3"/>
+      <c r="Y23" s="3"/>
+      <c r="Z23" s="3"/>
+      <c r="AA23" s="3"/>
+      <c r="AB23" s="3"/>
+      <c r="AC23" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="AD23" s="3"/>
+      <c r="AE23" s="3"/>
+      <c r="AF23" s="3"/>
+      <c r="AG23" s="3"/>
+    </row>
+    <row r="24" spans="2:33" x14ac:dyDescent="0.15">
+      <c r="B24" s="8"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="M24" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O24" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="P24" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q24" s="6">
+        <v>-1</v>
+      </c>
+      <c r="R24" s="3"/>
+      <c r="S24" s="3"/>
+      <c r="T24" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="U24" s="3"/>
+      <c r="V24" s="3"/>
+      <c r="W24" s="3"/>
+      <c r="X24" s="3"/>
+      <c r="Y24" s="3"/>
+      <c r="Z24" s="3"/>
+      <c r="AA24" s="3"/>
+      <c r="AB24" s="3"/>
+      <c r="AC24" s="3"/>
+      <c r="AD24" s="3"/>
+      <c r="AE24" s="3"/>
+      <c r="AF24" s="3"/>
+      <c r="AG24" s="3"/>
+    </row>
+    <row r="25" spans="2:33" x14ac:dyDescent="0.15">
+      <c r="B25" s="8"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="M25" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="N25" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O25" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="P25" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q25" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="R25" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="S25" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="T25" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="U25" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="V25" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="W25" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="X25" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="Y25" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="Z25" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="AA25" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="AB25" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="AC25" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="AD25" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="AE25" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="AF25" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="AG25" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="26" spans="2:33" x14ac:dyDescent="0.15">
+      <c r="B26" s="8"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="8"/>
+      <c r="M26" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="N26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O26" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="P26" s="3"/>
+      <c r="Q26" s="6">
+        <v>0</v>
+      </c>
+      <c r="R26" s="3"/>
+      <c r="S26" s="3"/>
+      <c r="T26" s="3"/>
+      <c r="U26" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="V26" s="3"/>
+      <c r="W26" s="3"/>
+      <c r="X26" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="Y26" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="Z26" s="3"/>
+      <c r="AA26" s="3"/>
+      <c r="AB26" s="3"/>
+      <c r="AC26" s="3"/>
+      <c r="AD26" s="3"/>
+      <c r="AE26" s="3"/>
+      <c r="AF26" s="3"/>
+      <c r="AG26" s="3"/>
+    </row>
+    <row r="27" spans="2:33" x14ac:dyDescent="0.15">
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="M27" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="N27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O27" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="P27" s="3"/>
+      <c r="Q27" s="6">
+        <v>1</v>
+      </c>
+      <c r="R27" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="S27" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="T27" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="U27" s="3"/>
+      <c r="V27" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="W27" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="X27" s="3"/>
+      <c r="Y27" s="3"/>
+      <c r="Z27" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="AA27" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="AB27" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="AC27" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD27" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="AE27" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF27" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="AG27" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <conditionalFormatting sqref="C4:D6 M10:P27">
+    <cfRule type="expression" dxfId="9" priority="3">
+      <formula>C4=C3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:AP40"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.125" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="2" width="2.125" style="5"/>
+    <col min="3" max="3" width="10.875" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.875" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="2.125" style="5"/>
+    <col min="12" max="12" width="2.375" style="5" customWidth="1"/>
+    <col min="13" max="14" width="9.875" style="5" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="9.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="18" max="63" width="3" style="5" customWidth="1"/>
+    <col min="64" max="16384" width="2.125" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:42" x14ac:dyDescent="0.15">
+      <c r="B2" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="2:42" x14ac:dyDescent="0.15">
+      <c r="C3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="2:42" x14ac:dyDescent="0.15">
+      <c r="C4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="6"/>
+      <c r="F4" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="5" spans="2:42" x14ac:dyDescent="0.15">
+      <c r="C5" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="6"/>
+      <c r="F5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="J5" s="6"/>
+    </row>
+    <row r="6" spans="2:42" x14ac:dyDescent="0.15">
+      <c r="C6" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="6"/>
+      <c r="F6" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="J6" s="6"/>
+    </row>
+    <row r="7" spans="2:42" x14ac:dyDescent="0.15">
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+    </row>
+    <row r="8" spans="2:42" x14ac:dyDescent="0.15">
+      <c r="L8" s="10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="2:42" x14ac:dyDescent="0.15">
+      <c r="M9" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="N9" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="O9" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="P9" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q9" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="R9" s="4">
+        <v>1</v>
+      </c>
+      <c r="S9" s="4">
+        <v>2</v>
+      </c>
+      <c r="T9" s="4">
+        <v>3</v>
+      </c>
+      <c r="U9" s="4">
+        <v>4</v>
+      </c>
+      <c r="V9" s="4">
+        <v>5</v>
+      </c>
+      <c r="W9" s="4">
+        <v>6</v>
+      </c>
+      <c r="X9" s="4">
+        <v>7</v>
+      </c>
+      <c r="Y9" s="4">
+        <v>8</v>
+      </c>
+      <c r="Z9" s="4">
+        <v>9</v>
+      </c>
+      <c r="AA9" s="4">
+        <v>10</v>
+      </c>
+      <c r="AB9" s="4">
+        <v>11</v>
+      </c>
+      <c r="AC9" s="4">
+        <v>12</v>
+      </c>
+      <c r="AD9" s="4">
+        <v>13</v>
+      </c>
+      <c r="AE9" s="4">
+        <v>14</v>
+      </c>
+      <c r="AF9" s="4">
+        <v>15</v>
+      </c>
+      <c r="AG9" s="4">
+        <v>16</v>
+      </c>
+      <c r="AH9" s="4">
+        <v>17</v>
+      </c>
+      <c r="AI9" s="4">
+        <v>18</v>
+      </c>
+      <c r="AJ9" s="4">
+        <v>19</v>
+      </c>
+      <c r="AK9" s="4">
+        <v>20</v>
+      </c>
+      <c r="AL9" s="4">
+        <v>21</v>
+      </c>
+      <c r="AM9" s="4">
+        <v>22</v>
+      </c>
+      <c r="AN9" s="4">
+        <v>23</v>
+      </c>
+      <c r="AO9" s="4">
+        <v>24</v>
+      </c>
+      <c r="AP9" s="4">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="2:42" x14ac:dyDescent="0.15">
+      <c r="M10" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="P10" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="6">
+        <v>0</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="T10" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="U10" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="V10" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="W10" s="3"/>
+      <c r="X10" s="3"/>
+      <c r="Y10" s="3"/>
+      <c r="Z10" s="3"/>
+      <c r="AA10" s="3"/>
+      <c r="AB10" s="3"/>
+      <c r="AC10" s="3"/>
+      <c r="AD10" s="3"/>
+      <c r="AE10" s="3"/>
+      <c r="AF10" s="3"/>
+      <c r="AG10" s="3"/>
+      <c r="AH10" s="3"/>
+      <c r="AI10" s="3"/>
+      <c r="AJ10" s="3"/>
+      <c r="AK10" s="3"/>
+      <c r="AL10" s="3"/>
+      <c r="AM10" s="3"/>
+      <c r="AN10" s="3"/>
+      <c r="AO10" s="3"/>
+      <c r="AP10" s="3"/>
+    </row>
+    <row r="11" spans="2:42" x14ac:dyDescent="0.15">
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="M11" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O11" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="P11" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q11" s="6">
+        <v>1</v>
+      </c>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+      <c r="W11" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="X11" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="Y11" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="Z11" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA11" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="AB11" s="3"/>
+      <c r="AC11" s="3"/>
+      <c r="AD11" s="3"/>
+      <c r="AE11" s="3"/>
+      <c r="AF11" s="3"/>
+      <c r="AG11" s="3"/>
+      <c r="AH11" s="3"/>
+      <c r="AI11" s="3"/>
+      <c r="AJ11" s="3"/>
+      <c r="AK11" s="3"/>
+      <c r="AL11" s="3"/>
+      <c r="AM11" s="3"/>
+      <c r="AN11" s="3"/>
+      <c r="AO11" s="3"/>
+      <c r="AP11" s="3"/>
+    </row>
+    <row r="12" spans="2:42" x14ac:dyDescent="0.15">
+      <c r="B12" s="8"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="8"/>
+      <c r="M12" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q12" s="6">
+        <v>-1</v>
+      </c>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="3"/>
+      <c r="U12" s="3"/>
+      <c r="V12" s="3"/>
+      <c r="W12" s="3"/>
+      <c r="X12" s="3"/>
+      <c r="Y12" s="3"/>
+      <c r="Z12" s="3"/>
+      <c r="AA12" s="3"/>
+      <c r="AB12" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="AC12" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="AD12" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="AE12" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="AF12" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="AG12" s="3"/>
+      <c r="AH12" s="3"/>
+      <c r="AI12" s="3"/>
+      <c r="AJ12" s="3"/>
+      <c r="AK12" s="3"/>
+      <c r="AL12" s="3"/>
+      <c r="AM12" s="3"/>
+      <c r="AN12" s="3"/>
+      <c r="AO12" s="3"/>
+      <c r="AP12" s="3"/>
+    </row>
+    <row r="13" spans="2:42" x14ac:dyDescent="0.15">
+      <c r="B13" s="8"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="8"/>
+      <c r="M13" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O13" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="P13" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q13" s="6">
+        <v>2</v>
+      </c>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
+      <c r="U13" s="3"/>
+      <c r="V13" s="3"/>
+      <c r="W13" s="3"/>
+      <c r="X13" s="3"/>
+      <c r="Y13" s="3"/>
+      <c r="Z13" s="3"/>
+      <c r="AA13" s="3"/>
+      <c r="AB13" s="3"/>
+      <c r="AC13" s="3"/>
+      <c r="AD13" s="3"/>
+      <c r="AE13" s="3"/>
+      <c r="AF13" s="3"/>
+      <c r="AG13" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="AH13" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="AI13" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="AJ13" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK13" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="AL13" s="3"/>
+      <c r="AM13" s="3"/>
+      <c r="AN13" s="3"/>
+      <c r="AO13" s="3"/>
+      <c r="AP13" s="3"/>
+    </row>
+    <row r="14" spans="2:42" x14ac:dyDescent="0.15">
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="M14" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q14" s="6">
+        <v>-2</v>
+      </c>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="3"/>
+      <c r="W14" s="3"/>
+      <c r="X14" s="3"/>
+      <c r="Y14" s="3"/>
+      <c r="Z14" s="3"/>
+      <c r="AA14" s="3"/>
+      <c r="AB14" s="3"/>
+      <c r="AC14" s="3"/>
+      <c r="AD14" s="3"/>
+      <c r="AE14" s="3"/>
+      <c r="AF14" s="3"/>
+      <c r="AG14" s="3"/>
+      <c r="AH14" s="3"/>
+      <c r="AI14" s="3"/>
+      <c r="AJ14" s="3"/>
+      <c r="AK14" s="3"/>
+      <c r="AL14" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="AM14" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="AN14" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="AO14" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="AP14" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="15" spans="2:42" x14ac:dyDescent="0.15">
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="M15" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="6">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3"/>
+      <c r="U15" s="3"/>
+      <c r="V15" s="3"/>
+      <c r="W15" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="X15" s="3"/>
+      <c r="Y15" s="3"/>
+      <c r="Z15" s="3"/>
+      <c r="AA15" s="3"/>
+      <c r="AB15" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC15" s="3"/>
+      <c r="AD15" s="3"/>
+      <c r="AE15" s="3"/>
+      <c r="AF15" s="3"/>
+      <c r="AG15" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="AH15" s="3"/>
+      <c r="AI15" s="3"/>
+      <c r="AJ15" s="3"/>
+      <c r="AK15" s="3"/>
+      <c r="AL15" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="AM15" s="3"/>
+      <c r="AN15" s="3"/>
+      <c r="AO15" s="3"/>
+      <c r="AP15" s="3"/>
+    </row>
+    <row r="16" spans="2:42" x14ac:dyDescent="0.15">
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="M16" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="N16" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O16" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="P16" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q16" s="6">
+        <v>1</v>
+      </c>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+      <c r="X16" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3"/>
+      <c r="AB16" s="3"/>
+      <c r="AC16" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="AD16" s="3"/>
+      <c r="AE16" s="3"/>
+      <c r="AF16" s="3"/>
+      <c r="AG16" s="3"/>
+      <c r="AH16" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="AI16" s="3"/>
+      <c r="AJ16" s="3"/>
+      <c r="AK16" s="3"/>
+      <c r="AL16" s="3"/>
+      <c r="AM16" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="AN16" s="3"/>
+      <c r="AO16" s="3"/>
+      <c r="AP16" s="3"/>
+    </row>
+    <row r="17" spans="2:42" x14ac:dyDescent="0.15">
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="M17" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O17" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="P17" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q17" s="6">
+        <v>-1</v>
+      </c>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="U17" s="3"/>
+      <c r="V17" s="3"/>
+      <c r="W17" s="3"/>
+      <c r="X17" s="3"/>
+      <c r="Y17" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="Z17" s="3"/>
+      <c r="AA17" s="3"/>
+      <c r="AB17" s="3"/>
+      <c r="AC17" s="3"/>
+      <c r="AD17" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="AE17" s="3"/>
+      <c r="AF17" s="3"/>
+      <c r="AG17" s="3"/>
+      <c r="AH17" s="3"/>
+      <c r="AI17" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="AJ17" s="3"/>
+      <c r="AK17" s="3"/>
+      <c r="AL17" s="3"/>
+      <c r="AM17" s="3"/>
+      <c r="AN17" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="AO17" s="3"/>
+      <c r="AP17" s="3"/>
+    </row>
+    <row r="18" spans="2:42" x14ac:dyDescent="0.15">
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="M18" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O18" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="P18" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q18" s="6">
+        <v>2</v>
+      </c>
+      <c r="R18" s="3"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="3"/>
+      <c r="U18" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="V18" s="3"/>
+      <c r="W18" s="3"/>
+      <c r="X18" s="3"/>
+      <c r="Y18" s="3"/>
+      <c r="Z18" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA18" s="3"/>
+      <c r="AB18" s="3"/>
+      <c r="AC18" s="3"/>
+      <c r="AD18" s="3"/>
+      <c r="AE18" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="AF18" s="3"/>
+      <c r="AG18" s="3"/>
+      <c r="AH18" s="3"/>
+      <c r="AI18" s="3"/>
+      <c r="AJ18" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK18" s="3"/>
+      <c r="AL18" s="3"/>
+      <c r="AM18" s="3"/>
+      <c r="AN18" s="3"/>
+      <c r="AO18" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="AP18" s="3"/>
+    </row>
+    <row r="19" spans="2:42" x14ac:dyDescent="0.15">
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="M19" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="N19" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O19" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="P19" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q19" s="6">
+        <v>-2</v>
+      </c>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+      <c r="V19" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="3"/>
+      <c r="AA19" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="AB19" s="3"/>
+      <c r="AC19" s="3"/>
+      <c r="AD19" s="3"/>
+      <c r="AE19" s="3"/>
+      <c r="AF19" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="AG19" s="3"/>
+      <c r="AH19" s="3"/>
+      <c r="AI19" s="3"/>
+      <c r="AJ19" s="3"/>
+      <c r="AK19" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="AL19" s="3"/>
+      <c r="AM19" s="3"/>
+      <c r="AN19" s="3"/>
+      <c r="AO19" s="3"/>
+      <c r="AP19" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="20" spans="2:42" x14ac:dyDescent="0.15">
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="M20" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="P20" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q20" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="R20" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="S20" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="T20" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="U20" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="V20" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="W20" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="X20" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="Y20" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="Z20" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="AA20" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB20" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="AC20" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="AD20" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="AE20" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="AF20" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="AG20" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="AH20" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="AI20" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="AJ20" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK20" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="AL20" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="AM20" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="AN20" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="AO20" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="AP20" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="21" spans="2:42" x14ac:dyDescent="0.15">
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="M21" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O21" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="P21" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q21" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="R21" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="S21" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="T21" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="U21" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="V21" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="W21" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="X21" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="Y21" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="Z21" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="AA21" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB21" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="AC21" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="AD21" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="AE21" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="AF21" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="AG21" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="AH21" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="AI21" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="AJ21" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK21" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="AL21" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="AM21" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="AN21" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="AO21" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="AP21" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="22" spans="2:42" x14ac:dyDescent="0.15">
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="M22" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O22" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="6">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="S22" s="3"/>
+      <c r="T22" s="3"/>
+      <c r="U22" s="3"/>
+      <c r="V22" s="3"/>
+      <c r="W22" s="3"/>
+      <c r="X22" s="3"/>
+      <c r="Y22" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z22" s="3"/>
+      <c r="AA22" s="3"/>
+      <c r="AB22" s="3"/>
+      <c r="AC22" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="AD22" s="3"/>
+      <c r="AE22" s="3"/>
+      <c r="AF22" s="3"/>
+      <c r="AG22" s="3"/>
+      <c r="AH22" s="3"/>
+      <c r="AI22" s="3"/>
+      <c r="AJ22" s="3"/>
+      <c r="AK22" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="AL22" s="3"/>
+      <c r="AM22" s="3"/>
+      <c r="AN22" s="3"/>
+      <c r="AO22" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="AP22" s="3"/>
+    </row>
+    <row r="23" spans="2:42" x14ac:dyDescent="0.15">
+      <c r="B23" s="8"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="M23" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O23" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="6">
+        <v>1</v>
+      </c>
+      <c r="R23" s="3"/>
+      <c r="S23" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="T23" s="3"/>
+      <c r="U23" s="3"/>
+      <c r="V23" s="3"/>
+      <c r="W23" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="X23" s="3"/>
+      <c r="Y23" s="3"/>
+      <c r="Z23" s="3"/>
+      <c r="AA23" s="3"/>
+      <c r="AB23" s="3"/>
+      <c r="AC23" s="3"/>
+      <c r="AD23" s="3"/>
+      <c r="AE23" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="AF23" s="3"/>
+      <c r="AG23" s="3"/>
+      <c r="AH23" s="3"/>
+      <c r="AI23" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="AJ23" s="3"/>
+      <c r="AK23" s="3"/>
+      <c r="AL23" s="3"/>
+      <c r="AM23" s="3"/>
+      <c r="AN23" s="3"/>
+      <c r="AO23" s="3"/>
+      <c r="AP23" s="3"/>
+    </row>
+    <row r="24" spans="2:42" x14ac:dyDescent="0.15">
+      <c r="B24" s="8"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="M24" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O24" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="6">
+        <v>-1</v>
+      </c>
+      <c r="R24" s="3"/>
+      <c r="S24" s="3"/>
+      <c r="T24" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="U24" s="3"/>
+      <c r="V24" s="3"/>
+      <c r="W24" s="3"/>
+      <c r="X24" s="3"/>
+      <c r="Y24" s="3"/>
+      <c r="Z24" s="3"/>
+      <c r="AA24" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB24" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC24" s="3"/>
+      <c r="AD24" s="3"/>
+      <c r="AE24" s="3"/>
+      <c r="AF24" s="3"/>
+      <c r="AG24" s="3"/>
+      <c r="AH24" s="3"/>
+      <c r="AI24" s="3"/>
+      <c r="AJ24" s="3"/>
+      <c r="AK24" s="3"/>
+      <c r="AL24" s="3"/>
+      <c r="AM24" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="AN24" s="3"/>
+      <c r="AO24" s="3"/>
+      <c r="AP24" s="3"/>
+    </row>
+    <row r="25" spans="2:42" x14ac:dyDescent="0.15">
+      <c r="M25" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="N25" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O25" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="P25" s="3"/>
+      <c r="Q25" s="7">
+        <v>2</v>
+      </c>
+      <c r="R25" s="3"/>
+      <c r="S25" s="3"/>
+      <c r="T25" s="3"/>
+      <c r="U25" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="V25" s="3"/>
+      <c r="W25" s="3"/>
+      <c r="X25" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y25" s="3"/>
+      <c r="Z25" s="3"/>
+      <c r="AA25" s="3"/>
+      <c r="AB25" s="3"/>
+      <c r="AC25" s="3"/>
+      <c r="AD25" s="3"/>
+      <c r="AE25" s="3"/>
+      <c r="AF25" s="3"/>
+      <c r="AG25" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="AH25" s="3"/>
+      <c r="AI25" s="3"/>
+      <c r="AJ25" s="3"/>
+      <c r="AK25" s="3"/>
+      <c r="AL25" s="3"/>
+      <c r="AM25" s="3"/>
+      <c r="AN25" s="3"/>
+      <c r="AO25" s="3"/>
+      <c r="AP25" s="3"/>
+    </row>
+    <row r="26" spans="2:42" x14ac:dyDescent="0.15">
+      <c r="M26" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="N26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O26" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="P26" s="3"/>
+      <c r="Q26" s="7">
+        <v>-2</v>
+      </c>
+      <c r="R26" s="3"/>
+      <c r="S26" s="3"/>
+      <c r="T26" s="3"/>
+      <c r="U26" s="3"/>
+      <c r="V26" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="W26" s="3"/>
+      <c r="X26" s="3"/>
+      <c r="Y26" s="3"/>
+      <c r="Z26" s="3"/>
+      <c r="AA26" s="3"/>
+      <c r="AB26" s="3"/>
+      <c r="AC26" s="3"/>
+      <c r="AD26" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="AE26" s="3"/>
+      <c r="AF26" s="3"/>
+      <c r="AG26" s="3"/>
+      <c r="AH26" s="3"/>
+      <c r="AI26" s="3"/>
+      <c r="AJ26" s="3"/>
+      <c r="AK26" s="3"/>
+      <c r="AL26" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="AM26" s="3"/>
+      <c r="AN26" s="3"/>
+      <c r="AO26" s="3"/>
+      <c r="AP26" s="3"/>
+    </row>
+    <row r="27" spans="2:42" x14ac:dyDescent="0.15">
+      <c r="M27" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="N27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O27" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="P27" s="3"/>
+      <c r="Q27" s="7">
+        <v>3</v>
+      </c>
+      <c r="R27" s="3"/>
+      <c r="S27" s="3"/>
+      <c r="T27" s="3"/>
+      <c r="U27" s="3"/>
+      <c r="V27" s="3"/>
+      <c r="W27" s="3"/>
+      <c r="X27" s="3"/>
+      <c r="Y27" s="3"/>
+      <c r="Z27" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA27" s="3"/>
+      <c r="AB27" s="3"/>
+      <c r="AC27" s="3"/>
+      <c r="AD27" s="3"/>
+      <c r="AE27" s="3"/>
+      <c r="AF27" s="3"/>
+      <c r="AG27" s="3"/>
+      <c r="AH27" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="AI27" s="3"/>
+      <c r="AJ27" s="3"/>
+      <c r="AK27" s="3"/>
+      <c r="AL27" s="3"/>
+      <c r="AM27" s="3"/>
+      <c r="AN27" s="3"/>
+      <c r="AO27" s="3"/>
+      <c r="AP27" s="3"/>
+    </row>
+    <row r="28" spans="2:42" x14ac:dyDescent="0.15">
+      <c r="M28" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="N28" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O28" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="P28" s="6"/>
+      <c r="Q28" s="6">
+        <v>-3</v>
+      </c>
+      <c r="R28" s="6"/>
+      <c r="S28" s="6"/>
+      <c r="T28" s="6"/>
+      <c r="U28" s="6"/>
+      <c r="V28" s="6"/>
+      <c r="W28" s="6"/>
+      <c r="X28" s="6"/>
+      <c r="Y28" s="6"/>
+      <c r="Z28" s="6"/>
+      <c r="AA28" s="6"/>
+      <c r="AB28" s="6"/>
+      <c r="AC28" s="6"/>
+      <c r="AD28" s="6"/>
+      <c r="AE28" s="6"/>
+      <c r="AF28" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="AG28" s="6"/>
+      <c r="AH28" s="6"/>
+      <c r="AI28" s="6"/>
+      <c r="AJ28" s="6"/>
+      <c r="AK28" s="6"/>
+      <c r="AL28" s="6"/>
+      <c r="AM28" s="6"/>
+      <c r="AN28" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="AO28" s="6"/>
+      <c r="AP28" s="6"/>
+    </row>
+    <row r="29" spans="2:42" x14ac:dyDescent="0.15">
+      <c r="M29" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="N29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O29" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="P29" s="6"/>
+      <c r="Q29" s="6">
+        <v>4</v>
+      </c>
+      <c r="R29" s="6"/>
+      <c r="S29" s="6"/>
+      <c r="T29" s="6"/>
+      <c r="U29" s="6"/>
+      <c r="V29" s="6"/>
+      <c r="W29" s="6"/>
+      <c r="X29" s="6"/>
+      <c r="Y29" s="6"/>
+      <c r="Z29" s="6"/>
+      <c r="AA29" s="6"/>
+      <c r="AB29" s="6"/>
+      <c r="AC29" s="6"/>
+      <c r="AD29" s="6"/>
+      <c r="AE29" s="6"/>
+      <c r="AF29" s="6"/>
+      <c r="AG29" s="6"/>
+      <c r="AH29" s="6"/>
+      <c r="AI29" s="6"/>
+      <c r="AJ29" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK29" s="6"/>
+      <c r="AL29" s="6"/>
+      <c r="AM29" s="6"/>
+      <c r="AN29" s="6"/>
+      <c r="AO29" s="6"/>
+      <c r="AP29" s="6"/>
+    </row>
+    <row r="30" spans="2:42" x14ac:dyDescent="0.15">
+      <c r="M30" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="N30" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O30" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="P30" s="6"/>
+      <c r="Q30" s="6">
+        <v>-4</v>
+      </c>
+      <c r="R30" s="6"/>
+      <c r="S30" s="6"/>
+      <c r="T30" s="6"/>
+      <c r="U30" s="6"/>
+      <c r="V30" s="6"/>
+      <c r="W30" s="6"/>
+      <c r="X30" s="6"/>
+      <c r="Y30" s="6"/>
+      <c r="Z30" s="6"/>
+      <c r="AA30" s="6"/>
+      <c r="AB30" s="6"/>
+      <c r="AC30" s="6"/>
+      <c r="AD30" s="6"/>
+      <c r="AE30" s="6"/>
+      <c r="AF30" s="6"/>
+      <c r="AG30" s="6"/>
+      <c r="AH30" s="6"/>
+      <c r="AI30" s="6"/>
+      <c r="AJ30" s="6"/>
+      <c r="AK30" s="6"/>
+      <c r="AL30" s="6"/>
+      <c r="AM30" s="6"/>
+      <c r="AN30" s="6"/>
+      <c r="AO30" s="6"/>
+      <c r="AP30" s="6" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="31" spans="2:42" x14ac:dyDescent="0.15">
+      <c r="M31" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="N31" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O31" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="P31" s="6"/>
+      <c r="Q31" s="6">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="S31" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="T31" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="U31" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="V31" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="W31" s="3"/>
+      <c r="X31" s="3"/>
+      <c r="Y31" s="3"/>
+      <c r="Z31" s="3"/>
+      <c r="AA31" s="3"/>
+      <c r="AB31" s="3"/>
+      <c r="AC31" s="3"/>
+      <c r="AD31" s="3"/>
+      <c r="AE31" s="3"/>
+      <c r="AF31" s="3"/>
+      <c r="AG31" s="3"/>
+      <c r="AH31" s="3"/>
+      <c r="AI31" s="3"/>
+      <c r="AJ31" s="3"/>
+      <c r="AK31" s="3"/>
+      <c r="AL31" s="3"/>
+      <c r="AM31" s="3"/>
+      <c r="AN31" s="3"/>
+      <c r="AO31" s="3"/>
+      <c r="AP31" s="3"/>
+    </row>
+    <row r="32" spans="2:42" x14ac:dyDescent="0.15">
+      <c r="M32" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O32" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="P32" s="6"/>
+      <c r="Q32" s="6">
+        <v>1</v>
+      </c>
+      <c r="R32" s="3"/>
+      <c r="S32" s="3"/>
+      <c r="T32" s="3"/>
+      <c r="U32" s="3"/>
+      <c r="V32" s="3"/>
+      <c r="W32" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="X32" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="Y32" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="Z32" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA32" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="AB32" s="3"/>
+      <c r="AC32" s="3"/>
+      <c r="AD32" s="3"/>
+      <c r="AE32" s="3"/>
+      <c r="AF32" s="3"/>
+      <c r="AG32" s="3"/>
+      <c r="AH32" s="3"/>
+      <c r="AI32" s="3"/>
+      <c r="AJ32" s="3"/>
+      <c r="AK32" s="3"/>
+      <c r="AL32" s="3"/>
+      <c r="AM32" s="3"/>
+      <c r="AN32" s="3"/>
+      <c r="AO32" s="3"/>
+      <c r="AP32" s="3"/>
+    </row>
+    <row r="33" spans="13:42" x14ac:dyDescent="0.15">
+      <c r="M33" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="N33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O33" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="P33" s="6"/>
+      <c r="Q33" s="6">
+        <v>-1</v>
+      </c>
+      <c r="R33" s="3"/>
+      <c r="S33" s="3"/>
+      <c r="T33" s="3"/>
+      <c r="U33" s="3"/>
+      <c r="V33" s="3"/>
+      <c r="W33" s="3"/>
+      <c r="X33" s="3"/>
+      <c r="Y33" s="3"/>
+      <c r="Z33" s="3"/>
+      <c r="AA33" s="3"/>
+      <c r="AB33" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="AC33" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="AD33" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="AE33" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="AF33" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="AG33" s="3"/>
+      <c r="AH33" s="3"/>
+      <c r="AI33" s="3"/>
+      <c r="AJ33" s="3"/>
+      <c r="AK33" s="3"/>
+      <c r="AL33" s="3"/>
+      <c r="AM33" s="3"/>
+      <c r="AN33" s="3"/>
+      <c r="AO33" s="3"/>
+      <c r="AP33" s="3"/>
+    </row>
+    <row r="34" spans="13:42" x14ac:dyDescent="0.15">
+      <c r="M34" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="N34" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O34" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="P34" s="6"/>
+      <c r="Q34" s="6">
+        <v>2</v>
+      </c>
+      <c r="R34" s="3"/>
+      <c r="S34" s="3"/>
+      <c r="T34" s="3"/>
+      <c r="U34" s="3"/>
+      <c r="V34" s="3"/>
+      <c r="W34" s="3"/>
+      <c r="X34" s="3"/>
+      <c r="Y34" s="3"/>
+      <c r="Z34" s="3"/>
+      <c r="AA34" s="3"/>
+      <c r="AB34" s="3"/>
+      <c r="AC34" s="3"/>
+      <c r="AD34" s="3"/>
+      <c r="AE34" s="3"/>
+      <c r="AF34" s="3"/>
+      <c r="AG34" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="AH34" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="AI34" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="AJ34" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK34" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="AL34" s="3"/>
+      <c r="AM34" s="3"/>
+      <c r="AN34" s="3"/>
+      <c r="AO34" s="3"/>
+      <c r="AP34" s="3"/>
+    </row>
+    <row r="35" spans="13:42" x14ac:dyDescent="0.15">
+      <c r="M35" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="N35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O35" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="P35" s="6"/>
+      <c r="Q35" s="6">
+        <v>-2</v>
+      </c>
+      <c r="R35" s="3"/>
+      <c r="S35" s="3"/>
+      <c r="T35" s="3"/>
+      <c r="U35" s="3"/>
+      <c r="V35" s="3"/>
+      <c r="W35" s="3"/>
+      <c r="X35" s="3"/>
+      <c r="Y35" s="3"/>
+      <c r="Z35" s="3"/>
+      <c r="AA35" s="3"/>
+      <c r="AB35" s="3"/>
+      <c r="AC35" s="3"/>
+      <c r="AD35" s="3"/>
+      <c r="AE35" s="3"/>
+      <c r="AF35" s="3"/>
+      <c r="AG35" s="3"/>
+      <c r="AH35" s="3"/>
+      <c r="AI35" s="3"/>
+      <c r="AJ35" s="3"/>
+      <c r="AK35" s="3"/>
+      <c r="AL35" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="AM35" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="AN35" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="AO35" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="AP35" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="36" spans="13:42" x14ac:dyDescent="0.15">
+      <c r="M36" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="N36" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O36" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="P36" s="6"/>
+      <c r="Q36" s="6">
+        <v>0</v>
+      </c>
+      <c r="R36" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="S36" s="3"/>
+      <c r="T36" s="3"/>
+      <c r="U36" s="3"/>
+      <c r="V36" s="3"/>
+      <c r="W36" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="X36" s="3"/>
+      <c r="Y36" s="3"/>
+      <c r="Z36" s="3"/>
+      <c r="AA36" s="3"/>
+      <c r="AB36" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC36" s="3"/>
+      <c r="AD36" s="3"/>
+      <c r="AE36" s="3"/>
+      <c r="AF36" s="3"/>
+      <c r="AG36" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="AH36" s="3"/>
+      <c r="AI36" s="3"/>
+      <c r="AJ36" s="3"/>
+      <c r="AK36" s="3"/>
+      <c r="AL36" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="AM36" s="3"/>
+      <c r="AN36" s="3"/>
+      <c r="AO36" s="3"/>
+      <c r="AP36" s="3"/>
+    </row>
+    <row r="37" spans="13:42" x14ac:dyDescent="0.15">
+      <c r="M37" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="N37" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O37" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="P37" s="6"/>
+      <c r="Q37" s="6">
+        <v>1</v>
+      </c>
+      <c r="R37" s="3"/>
+      <c r="S37" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="T37" s="3"/>
+      <c r="U37" s="3"/>
+      <c r="V37" s="3"/>
+      <c r="W37" s="3"/>
+      <c r="X37" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="Y37" s="3"/>
+      <c r="Z37" s="3"/>
+      <c r="AA37" s="3"/>
+      <c r="AB37" s="3"/>
+      <c r="AC37" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="AD37" s="3"/>
+      <c r="AE37" s="3"/>
+      <c r="AF37" s="3"/>
+      <c r="AG37" s="3"/>
+      <c r="AH37" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="AI37" s="3"/>
+      <c r="AJ37" s="3"/>
+      <c r="AK37" s="3"/>
+      <c r="AL37" s="3"/>
+      <c r="AM37" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="AN37" s="3"/>
+      <c r="AO37" s="3"/>
+      <c r="AP37" s="3"/>
+    </row>
+    <row r="38" spans="13:42" x14ac:dyDescent="0.15">
+      <c r="M38" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="N38" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O38" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="P38" s="6"/>
+      <c r="Q38" s="6">
+        <v>-1</v>
+      </c>
+      <c r="R38" s="3"/>
+      <c r="S38" s="3"/>
+      <c r="T38" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="U38" s="3"/>
+      <c r="V38" s="3"/>
+      <c r="W38" s="3"/>
+      <c r="X38" s="3"/>
+      <c r="Y38" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="Z38" s="3"/>
+      <c r="AA38" s="3"/>
+      <c r="AB38" s="3"/>
+      <c r="AC38" s="3"/>
+      <c r="AD38" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="AE38" s="3"/>
+      <c r="AF38" s="3"/>
+      <c r="AG38" s="3"/>
+      <c r="AH38" s="3"/>
+      <c r="AI38" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="AJ38" s="3"/>
+      <c r="AK38" s="3"/>
+      <c r="AL38" s="3"/>
+      <c r="AM38" s="3"/>
+      <c r="AN38" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="AO38" s="3"/>
+      <c r="AP38" s="3"/>
+    </row>
+    <row r="39" spans="13:42" x14ac:dyDescent="0.15">
+      <c r="M39" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="N39" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O39" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="P39" s="6"/>
+      <c r="Q39" s="6">
+        <v>2</v>
+      </c>
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+      <c r="T39" s="3"/>
+      <c r="U39" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="V39" s="3"/>
+      <c r="W39" s="3"/>
+      <c r="X39" s="3"/>
+      <c r="Y39" s="3"/>
+      <c r="Z39" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA39" s="3"/>
+      <c r="AB39" s="3"/>
+      <c r="AC39" s="3"/>
+      <c r="AD39" s="3"/>
+      <c r="AE39" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="AF39" s="3"/>
+      <c r="AG39" s="3"/>
+      <c r="AH39" s="3"/>
+      <c r="AI39" s="3"/>
+      <c r="AJ39" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK39" s="3"/>
+      <c r="AL39" s="3"/>
+      <c r="AM39" s="3"/>
+      <c r="AN39" s="3"/>
+      <c r="AO39" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="AP39" s="3"/>
+    </row>
+    <row r="40" spans="13:42" x14ac:dyDescent="0.15">
+      <c r="M40" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="N40" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O40" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="P40" s="6"/>
+      <c r="Q40" s="6">
+        <v>-2</v>
+      </c>
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+      <c r="V40" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="W40" s="3"/>
+      <c r="X40" s="3"/>
+      <c r="Y40" s="3"/>
+      <c r="Z40" s="3"/>
+      <c r="AA40" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="AB40" s="3"/>
+      <c r="AC40" s="3"/>
+      <c r="AD40" s="3"/>
+      <c r="AE40" s="3"/>
+      <c r="AF40" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="AG40" s="3"/>
+      <c r="AH40" s="3"/>
+      <c r="AI40" s="3"/>
+      <c r="AJ40" s="3"/>
+      <c r="AK40" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="AL40" s="3"/>
+      <c r="AM40" s="3"/>
+      <c r="AN40" s="3"/>
+      <c r="AO40" s="3"/>
+      <c r="AP40" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <conditionalFormatting sqref="C4:D6 M10:P40">
+    <cfRule type="expression" dxfId="8" priority="1">
+      <formula>C4=C3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:AG26"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.125" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="2" width="2.125" style="5"/>
+    <col min="3" max="3" width="10.875" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.875" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="2.125" style="5"/>
+    <col min="12" max="12" width="2.375" style="5" customWidth="1"/>
+    <col min="13" max="14" width="9.875" style="5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="24.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7" style="5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="18" max="33" width="3" style="5" customWidth="1"/>
+    <col min="34" max="16384" width="2.125" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:33" x14ac:dyDescent="0.15">
+      <c r="B2" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="2:33" x14ac:dyDescent="0.15">
+      <c r="C3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="2:33" x14ac:dyDescent="0.15">
+      <c r="C4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="6"/>
+      <c r="F4" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="5" spans="2:33" x14ac:dyDescent="0.15">
+      <c r="C5" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="6"/>
+      <c r="F5" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="G5" s="6"/>
       <c r="H5" s="6" t="s">
         <v>9</v>
@@ -2155,11 +6565,11 @@
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="7" t="s">
-        <v>21</v>
+        <v>146</v>
       </c>
       <c r="G7" s="6"/>
       <c r="H7" s="6" t="s">
-        <v>89</v>
+        <v>148</v>
       </c>
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
@@ -2173,16 +6583,26 @@
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="7" t="s">
-        <v>21</v>
+        <v>147</v>
       </c>
       <c r="G8" s="6"/>
       <c r="H8" s="6" t="s">
-        <v>29</v>
+        <v>149</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>26</v>
+        <v>150</v>
       </c>
       <c r="J8" s="6"/>
+    </row>
+    <row r="9" spans="2:33" x14ac:dyDescent="0.15">
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
     </row>
     <row r="10" spans="2:33" x14ac:dyDescent="0.15">
       <c r="L10" s="10" t="s">
@@ -2262,25 +6682,25 @@
         <v>3</v>
       </c>
       <c r="O12" s="3" t="s">
-        <v>9</v>
+        <v>151</v>
       </c>
       <c r="P12" s="3" t="s">
-        <v>40</v>
+        <v>152</v>
       </c>
       <c r="Q12" s="6">
         <v>0</v>
       </c>
       <c r="R12" s="3" t="s">
-        <v>12</v>
+        <v>153</v>
       </c>
       <c r="S12" s="3" t="s">
-        <v>12</v>
+        <v>153</v>
       </c>
       <c r="T12" s="3" t="s">
-        <v>12</v>
+        <v>153</v>
       </c>
       <c r="U12" s="3" t="s">
-        <v>94</v>
+        <v>153</v>
       </c>
       <c r="V12" s="3"/>
       <c r="W12" s="3"/>
@@ -2310,10 +6730,10 @@
         <v>3</v>
       </c>
       <c r="O13" s="3" t="s">
-        <v>9</v>
+        <v>151</v>
       </c>
       <c r="P13" s="3" t="s">
-        <v>40</v>
+        <v>152</v>
       </c>
       <c r="Q13" s="6">
         <v>1</v>
@@ -2323,16 +6743,16 @@
       <c r="T13" s="3"/>
       <c r="U13" s="3"/>
       <c r="V13" s="3" t="s">
-        <v>100</v>
+        <v>153</v>
       </c>
       <c r="W13" s="3" t="s">
-        <v>94</v>
+        <v>153</v>
       </c>
       <c r="X13" s="3" t="s">
-        <v>94</v>
+        <v>153</v>
       </c>
       <c r="Y13" s="3" t="s">
-        <v>99</v>
+        <v>153</v>
       </c>
       <c r="Z13" s="3"/>
       <c r="AA13" s="3"/>
@@ -2358,10 +6778,10 @@
         <v>3</v>
       </c>
       <c r="O14" s="3" t="s">
-        <v>9</v>
+        <v>151</v>
       </c>
       <c r="P14" s="3" t="s">
-        <v>42</v>
+        <v>154</v>
       </c>
       <c r="Q14" s="6">
         <v>2</v>
@@ -2375,16 +6795,16 @@
       <c r="X14" s="3"/>
       <c r="Y14" s="3"/>
       <c r="Z14" s="3" t="s">
-        <v>100</v>
+        <v>153</v>
       </c>
       <c r="AA14" s="3" t="s">
-        <v>94</v>
+        <v>153</v>
       </c>
       <c r="AB14" s="3" t="s">
-        <v>94</v>
+        <v>153</v>
       </c>
       <c r="AC14" s="3" t="s">
-        <v>99</v>
+        <v>153</v>
       </c>
       <c r="AD14" s="3"/>
       <c r="AE14" s="3"/>
@@ -2406,10 +6826,10 @@
         <v>3</v>
       </c>
       <c r="O15" s="3" t="s">
-        <v>9</v>
+        <v>151</v>
       </c>
       <c r="P15" s="3" t="s">
-        <v>42</v>
+        <v>154</v>
       </c>
       <c r="Q15" s="6">
         <v>3</v>
@@ -2427,16 +6847,16 @@
       <c r="AB15" s="3"/>
       <c r="AC15" s="3"/>
       <c r="AD15" s="3" t="s">
-        <v>100</v>
+        <v>153</v>
       </c>
       <c r="AE15" s="3" t="s">
-        <v>94</v>
+        <v>153</v>
       </c>
       <c r="AF15" s="3" t="s">
-        <v>94</v>
+        <v>153</v>
       </c>
       <c r="AG15" s="3" t="s">
-        <v>99</v>
+        <v>153</v>
       </c>
     </row>
     <row r="16" spans="2:33" x14ac:dyDescent="0.15">
@@ -2454,34 +6874,34 @@
         <v>3</v>
       </c>
       <c r="O16" s="3" t="s">
-        <v>10</v>
+        <v>155</v>
       </c>
       <c r="P16" s="3" t="s">
-        <v>40</v>
+        <v>152</v>
       </c>
       <c r="Q16" s="6">
         <v>0</v>
       </c>
       <c r="R16" s="3" t="s">
-        <v>94</v>
+        <v>153</v>
       </c>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3" t="s">
-        <v>94</v>
+        <v>153</v>
       </c>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3" t="s">
-        <v>94</v>
+        <v>153</v>
       </c>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3" t="s">
-        <v>94</v>
+        <v>153</v>
       </c>
       <c r="AE16" s="3"/>
       <c r="AF16" s="3"/>
@@ -2502,42 +6922,42 @@
         <v>3</v>
       </c>
       <c r="O17" s="3" t="s">
-        <v>10</v>
+        <v>155</v>
       </c>
       <c r="P17" s="3" t="s">
-        <v>40</v>
+        <v>152</v>
       </c>
       <c r="Q17" s="6">
         <v>1</v>
       </c>
       <c r="R17" s="3"/>
       <c r="S17" s="3" t="s">
-        <v>12</v>
+        <v>153</v>
       </c>
       <c r="T17" s="3"/>
       <c r="U17" s="3"/>
       <c r="V17" s="3"/>
       <c r="W17" s="3" t="s">
-        <v>12</v>
+        <v>153</v>
       </c>
       <c r="X17" s="3"/>
       <c r="Y17" s="3"/>
       <c r="Z17" s="3"/>
       <c r="AA17" s="3" t="s">
-        <v>12</v>
+        <v>153</v>
       </c>
       <c r="AB17" s="3"/>
       <c r="AC17" s="3"/>
       <c r="AD17" s="3"/>
       <c r="AE17" s="3" t="s">
-        <v>12</v>
+        <v>153</v>
       </c>
       <c r="AF17" s="3"/>
       <c r="AG17" s="3"/>
     </row>
     <row r="18" spans="2:33" x14ac:dyDescent="0.15">
       <c r="B18" s="8"/>
-      <c r="C18" s="9"/>
+      <c r="C18" s="8"/>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
@@ -2550,10 +6970,10 @@
         <v>3</v>
       </c>
       <c r="O18" s="3" t="s">
-        <v>10</v>
+        <v>155</v>
       </c>
       <c r="P18" s="3" t="s">
-        <v>42</v>
+        <v>154</v>
       </c>
       <c r="Q18" s="6">
         <v>2</v>
@@ -2561,31 +6981,31 @@
       <c r="R18" s="3"/>
       <c r="S18" s="3"/>
       <c r="T18" s="3" t="s">
-        <v>12</v>
+        <v>153</v>
       </c>
       <c r="U18" s="3"/>
       <c r="V18" s="3"/>
       <c r="W18" s="3"/>
       <c r="X18" s="3" t="s">
-        <v>12</v>
+        <v>153</v>
       </c>
       <c r="Y18" s="3"/>
       <c r="Z18" s="3"/>
       <c r="AA18" s="3"/>
       <c r="AB18" s="3" t="s">
-        <v>12</v>
+        <v>153</v>
       </c>
       <c r="AC18" s="3"/>
       <c r="AD18" s="3"/>
       <c r="AE18" s="3"/>
       <c r="AF18" s="3" t="s">
-        <v>12</v>
+        <v>153</v>
       </c>
       <c r="AG18" s="3"/>
     </row>
     <row r="19" spans="2:33" x14ac:dyDescent="0.15">
       <c r="B19" s="8"/>
-      <c r="C19" s="9"/>
+      <c r="C19" s="8"/>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
@@ -2598,10 +7018,10 @@
         <v>3</v>
       </c>
       <c r="O19" s="3" t="s">
-        <v>10</v>
+        <v>155</v>
       </c>
       <c r="P19" s="3" t="s">
-        <v>42</v>
+        <v>154</v>
       </c>
       <c r="Q19" s="6">
         <v>3</v>
@@ -2610,30 +7030,30 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3" t="s">
-        <v>94</v>
+        <v>153</v>
       </c>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3" t="s">
-        <v>94</v>
+        <v>153</v>
       </c>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3" t="s">
-        <v>94</v>
+        <v>153</v>
       </c>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
       <c r="AF19" s="3"/>
       <c r="AG19" s="3" t="s">
-        <v>94</v>
+        <v>153</v>
       </c>
     </row>
     <row r="20" spans="2:33" x14ac:dyDescent="0.15">
       <c r="B20" s="8"/>
-      <c r="C20" s="9"/>
+      <c r="C20" s="8"/>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
@@ -2643,85 +7063,133 @@
         <v>35</v>
       </c>
       <c r="N20" s="3" t="s">
-        <v>95</v>
+        <v>159</v>
       </c>
       <c r="O20" s="3" t="s">
-        <v>98</v>
+        <v>165</v>
       </c>
       <c r="P20" s="3"/>
       <c r="Q20" s="6">
         <v>1</v>
       </c>
       <c r="R20" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="S20" s="3"/>
-      <c r="T20" s="3"/>
-      <c r="U20" s="3"/>
+        <v>160</v>
+      </c>
+      <c r="S20" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="T20" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="U20" s="3" t="s">
+        <v>161</v>
+      </c>
       <c r="V20" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="W20" s="3"/>
-      <c r="X20" s="3"/>
-      <c r="Y20" s="3"/>
+        <v>72</v>
+      </c>
+      <c r="W20" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="X20" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y20" s="3" t="s">
+        <v>72</v>
+      </c>
       <c r="Z20" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="AA20" s="3"/>
-      <c r="AB20" s="3"/>
-      <c r="AC20" s="3"/>
+        <v>161</v>
+      </c>
+      <c r="AA20" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="AB20" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="AC20" s="3" t="s">
+        <v>72</v>
+      </c>
       <c r="AD20" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="AE20" s="3"/>
-      <c r="AF20" s="3"/>
-      <c r="AG20" s="3"/>
+        <v>161</v>
+      </c>
+      <c r="AE20" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="AF20" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="AG20" s="3" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="21" spans="2:33" x14ac:dyDescent="0.15">
       <c r="B21" s="8"/>
-      <c r="C21" s="9"/>
+      <c r="C21" s="8"/>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c r="H21" s="8"/>
       <c r="M21" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N21" s="3" t="s">
-        <v>95</v>
+        <v>4</v>
       </c>
       <c r="O21" s="3" t="s">
-        <v>97</v>
+        <v>156</v>
       </c>
       <c r="P21" s="3"/>
       <c r="Q21" s="6">
-        <v>2</v>
-      </c>
-      <c r="R21" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="R21" s="3" t="s">
+        <v>72</v>
+      </c>
       <c r="S21" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="T21" s="3"/>
-      <c r="U21" s="3"/>
-      <c r="V21" s="3"/>
+        <v>161</v>
+      </c>
+      <c r="T21" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="U21" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="V21" s="3" t="s">
+        <v>163</v>
+      </c>
       <c r="W21" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="X21" s="3"/>
-      <c r="Y21" s="3"/>
-      <c r="Z21" s="3"/>
+        <v>72</v>
+      </c>
+      <c r="X21" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="Y21" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z21" s="3" t="s">
+        <v>72</v>
+      </c>
       <c r="AA21" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="AB21" s="3"/>
-      <c r="AC21" s="3"/>
-      <c r="AD21" s="3"/>
+        <v>161</v>
+      </c>
+      <c r="AB21" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="AC21" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="AD21" s="3" t="s">
+        <v>161</v>
+      </c>
       <c r="AE21" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="AF21" s="3"/>
-      <c r="AG21" s="3"/>
+        <v>161</v>
+      </c>
+      <c r="AF21" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="AG21" s="3" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="22" spans="2:33" x14ac:dyDescent="0.15">
       <c r="B22" s="8"/>
@@ -2732,42 +7200,66 @@
       <c r="G22" s="8"/>
       <c r="H22" s="8"/>
       <c r="M22" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N22" s="3" t="s">
-        <v>95</v>
+        <v>164</v>
       </c>
       <c r="O22" s="3" t="s">
-        <v>97</v>
+        <v>169</v>
       </c>
       <c r="P22" s="3"/>
       <c r="Q22" s="6">
-        <v>4</v>
-      </c>
-      <c r="R22" s="3"/>
-      <c r="S22" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="R22" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="S22" s="3" t="s">
+        <v>167</v>
+      </c>
       <c r="T22" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="U22" s="3"/>
-      <c r="V22" s="3"/>
-      <c r="W22" s="3"/>
+        <v>161</v>
+      </c>
+      <c r="U22" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="V22" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="W22" s="3" t="s">
+        <v>161</v>
+      </c>
       <c r="X22" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="Y22" s="3"/>
-      <c r="Z22" s="3"/>
-      <c r="AA22" s="3"/>
+        <v>166</v>
+      </c>
+      <c r="Y22" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="Z22" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="AA22" s="3" t="s">
+        <v>166</v>
+      </c>
       <c r="AB22" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="AC22" s="3"/>
-      <c r="AD22" s="3"/>
-      <c r="AE22" s="3"/>
+        <v>166</v>
+      </c>
+      <c r="AC22" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="AD22" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="AE22" s="3" t="s">
+        <v>168</v>
+      </c>
       <c r="AF22" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="AG22" s="3"/>
+        <v>161</v>
+      </c>
+      <c r="AG22" s="3" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="23" spans="2:33" x14ac:dyDescent="0.15">
       <c r="B23" s="8"/>
@@ -2778,489 +7270,165 @@
       <c r="G23" s="8"/>
       <c r="H23" s="8"/>
       <c r="M23" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N23" s="3" t="s">
-        <v>95</v>
+        <v>170</v>
       </c>
       <c r="O23" s="3" t="s">
-        <v>97</v>
+        <v>171</v>
       </c>
       <c r="P23" s="3"/>
       <c r="Q23" s="6">
-        <v>8</v>
-      </c>
-      <c r="R23" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="R23" s="3" t="s">
+        <v>72</v>
+      </c>
       <c r="S23" s="3"/>
       <c r="T23" s="3"/>
-      <c r="U23" s="3" t="s">
-        <v>94</v>
-      </c>
+      <c r="U23" s="3"/>
       <c r="V23" s="3"/>
       <c r="W23" s="3"/>
       <c r="X23" s="3"/>
-      <c r="Y23" s="3" t="s">
-        <v>94</v>
-      </c>
+      <c r="Y23" s="3"/>
       <c r="Z23" s="3"/>
       <c r="AA23" s="3"/>
       <c r="AB23" s="3"/>
-      <c r="AC23" s="3" t="s">
-        <v>94</v>
-      </c>
+      <c r="AC23" s="3"/>
       <c r="AD23" s="3"/>
       <c r="AE23" s="3"/>
       <c r="AF23" s="3"/>
-      <c r="AG23" s="3" t="s">
-        <v>94</v>
-      </c>
+      <c r="AG23" s="3"/>
     </row>
     <row r="24" spans="2:33" x14ac:dyDescent="0.15">
-      <c r="B24" s="8"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="8"/>
       <c r="M24" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N24" s="3" t="s">
-        <v>4</v>
+        <v>170</v>
       </c>
       <c r="O24" s="3" t="s">
-        <v>44</v>
+        <v>171</v>
       </c>
       <c r="P24" s="3"/>
-      <c r="Q24" s="6">
+      <c r="Q24" s="7">
         <v>1</v>
       </c>
-      <c r="R24" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="S24" s="3"/>
+      <c r="R24" s="3"/>
+      <c r="S24" s="3" t="s">
+        <v>174</v>
+      </c>
       <c r="T24" s="3"/>
       <c r="U24" s="3"/>
       <c r="V24" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="W24" s="3"/>
+        <v>72</v>
+      </c>
+      <c r="W24" s="3" t="s">
+        <v>72</v>
+      </c>
       <c r="X24" s="3"/>
       <c r="Y24" s="3"/>
-      <c r="Z24" s="3" t="s">
-        <v>94</v>
-      </c>
+      <c r="Z24" s="3"/>
       <c r="AA24" s="3"/>
       <c r="AB24" s="3"/>
       <c r="AC24" s="3"/>
-      <c r="AD24" s="3" t="s">
-        <v>94</v>
-      </c>
+      <c r="AD24" s="3"/>
       <c r="AE24" s="3"/>
       <c r="AF24" s="3"/>
       <c r="AG24" s="3"/>
     </row>
     <row r="25" spans="2:33" x14ac:dyDescent="0.15">
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
       <c r="M25" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N25" s="3" t="s">
-        <v>4</v>
+        <v>170</v>
       </c>
       <c r="O25" s="3" t="s">
-        <v>44</v>
+        <v>172</v>
       </c>
       <c r="P25" s="3"/>
-      <c r="Q25" s="6">
+      <c r="Q25" s="7">
         <v>2</v>
       </c>
       <c r="R25" s="3"/>
-      <c r="S25" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="T25" s="3"/>
+      <c r="S25" s="3"/>
+      <c r="T25" s="3" t="s">
+        <v>72</v>
+      </c>
       <c r="U25" s="3"/>
       <c r="V25" s="3"/>
-      <c r="W25" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="X25" s="3"/>
+      <c r="W25" s="3"/>
+      <c r="X25" s="3" t="s">
+        <v>72</v>
+      </c>
       <c r="Y25" s="3"/>
-      <c r="Z25" s="3"/>
+      <c r="Z25" s="3" t="s">
+        <v>72</v>
+      </c>
       <c r="AA25" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="AB25" s="3"/>
+        <v>160</v>
+      </c>
+      <c r="AB25" s="3" t="s">
+        <v>72</v>
+      </c>
       <c r="AC25" s="3"/>
       <c r="AD25" s="3"/>
-      <c r="AE25" s="3" t="s">
-        <v>12</v>
-      </c>
+      <c r="AE25" s="3"/>
       <c r="AF25" s="3"/>
       <c r="AG25" s="3"/>
     </row>
     <row r="26" spans="2:33" x14ac:dyDescent="0.15">
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
       <c r="M26" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N26" s="3" t="s">
-        <v>4</v>
+        <v>170</v>
       </c>
       <c r="O26" s="3" t="s">
-        <v>44</v>
+        <v>173</v>
       </c>
       <c r="P26" s="3"/>
-      <c r="Q26" s="6">
-        <v>4</v>
+      <c r="Q26" s="7">
+        <v>3</v>
       </c>
       <c r="R26" s="3"/>
       <c r="S26" s="3"/>
-      <c r="T26" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="U26" s="3"/>
+      <c r="T26" s="3"/>
+      <c r="U26" s="3" t="s">
+        <v>160</v>
+      </c>
       <c r="V26" s="3"/>
       <c r="W26" s="3"/>
-      <c r="X26" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y26" s="3"/>
+      <c r="X26" s="3"/>
+      <c r="Y26" s="3" t="s">
+        <v>72</v>
+      </c>
       <c r="Z26" s="3"/>
       <c r="AA26" s="3"/>
-      <c r="AB26" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="AC26" s="3"/>
-      <c r="AD26" s="3"/>
-      <c r="AE26" s="3"/>
+      <c r="AB26" s="3"/>
+      <c r="AC26" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD26" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="AE26" s="3" t="s">
+        <v>161</v>
+      </c>
       <c r="AF26" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="AG26" s="3"/>
-    </row>
-    <row r="27" spans="2:33" x14ac:dyDescent="0.15">
-      <c r="B27" s="8"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
-      <c r="M27" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="N27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O27" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="P27" s="3"/>
-      <c r="Q27" s="6">
-        <v>8</v>
-      </c>
-      <c r="R27" s="3"/>
-      <c r="S27" s="3"/>
-      <c r="T27" s="3"/>
-      <c r="U27" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="V27" s="3"/>
-      <c r="W27" s="3"/>
-      <c r="X27" s="3"/>
-      <c r="Y27" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="Z27" s="3"/>
-      <c r="AA27" s="3"/>
-      <c r="AB27" s="3"/>
-      <c r="AC27" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="AD27" s="3"/>
-      <c r="AE27" s="3"/>
-      <c r="AF27" s="3"/>
-      <c r="AG27" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="28" spans="2:33" x14ac:dyDescent="0.15">
-      <c r="B28" s="8"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-      <c r="M28" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="N28" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="O28" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="P28" s="6"/>
-      <c r="Q28" s="6">
-        <v>1</v>
-      </c>
-      <c r="R28" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="S28" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="T28" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="U28" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="V28" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="W28" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="X28" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="Y28" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="Z28" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="AA28" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="AB28" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="AC28" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="AD28" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="AE28" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="AF28" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="AG28" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="29" spans="2:33" x14ac:dyDescent="0.15">
-      <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
-      <c r="M29" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="O29" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="P29" s="6"/>
-      <c r="Q29" s="6">
-        <v>0</v>
-      </c>
-      <c r="R29" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="S29" s="3"/>
-      <c r="T29" s="3"/>
-      <c r="U29" s="3"/>
-      <c r="V29" s="3"/>
-      <c r="W29" s="3"/>
-      <c r="X29" s="3"/>
-      <c r="Y29" s="3"/>
-      <c r="Z29" s="3"/>
-      <c r="AA29" s="3"/>
-      <c r="AB29" s="3"/>
-      <c r="AC29" s="3"/>
-      <c r="AD29" s="3"/>
-      <c r="AE29" s="3"/>
-      <c r="AF29" s="3"/>
-      <c r="AG29" s="3"/>
-    </row>
-    <row r="30" spans="2:33" x14ac:dyDescent="0.15">
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
-      <c r="M30" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="N30" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="O30" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="P30" s="6"/>
-      <c r="Q30" s="6">
-        <v>1</v>
-      </c>
-      <c r="R30" s="3"/>
-      <c r="S30" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="T30" s="3"/>
-      <c r="U30" s="3"/>
-      <c r="V30" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="W30" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="X30" s="3"/>
-      <c r="Y30" s="3"/>
-      <c r="Z30" s="3"/>
-      <c r="AA30" s="3"/>
-      <c r="AB30" s="3"/>
-      <c r="AC30" s="3"/>
-      <c r="AD30" s="3"/>
-      <c r="AE30" s="3"/>
-      <c r="AF30" s="3"/>
-      <c r="AG30" s="3"/>
-    </row>
-    <row r="31" spans="2:33" x14ac:dyDescent="0.15">
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
-      <c r="M31" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="N31" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="O31" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="P31" s="6"/>
-      <c r="Q31" s="6">
-        <v>2</v>
-      </c>
-      <c r="R31" s="3"/>
-      <c r="S31" s="3"/>
-      <c r="T31" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="U31" s="3"/>
-      <c r="V31" s="3"/>
-      <c r="W31" s="3"/>
-      <c r="X31" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="Y31" s="3"/>
-      <c r="Z31" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="AA31" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="AB31" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="AC31" s="3"/>
-      <c r="AD31" s="3"/>
-      <c r="AE31" s="3"/>
-      <c r="AF31" s="3"/>
-      <c r="AG31" s="3"/>
-    </row>
-    <row r="32" spans="2:33" x14ac:dyDescent="0.15">
-      <c r="M32" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="N32" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="O32" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="P32" s="6"/>
-      <c r="Q32" s="6">
-        <v>3</v>
-      </c>
-      <c r="R32" s="3"/>
-      <c r="S32" s="3"/>
-      <c r="T32" s="3"/>
-      <c r="U32" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="V32" s="3"/>
-      <c r="W32" s="3"/>
-      <c r="X32" s="3"/>
-      <c r="Y32" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="Z32" s="3"/>
-      <c r="AA32" s="3"/>
-      <c r="AB32" s="3"/>
-      <c r="AC32" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="AD32" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="AE32" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="AF32" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="AG32" s="3" t="s">
-        <v>94</v>
+        <v>161</v>
+      </c>
+      <c r="AG26" s="3" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
-  <conditionalFormatting sqref="C4:D8 M12:P27 M29:P30 M32:P32">
-    <cfRule type="expression" dxfId="9" priority="3">
+  <conditionalFormatting sqref="C4:D8 M12:P26">
+    <cfRule type="expression" dxfId="7" priority="1">
       <formula>C4=C3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M28:P28">
-    <cfRule type="expression" dxfId="8" priority="10">
-      <formula>M28=M27</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M31:P31">
-    <cfRule type="expression" dxfId="7" priority="12">
-      <formula>M31=M29</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3268,9 +7436,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:AC27"/>
+  <dimension ref="B2:AC28"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -3289,9 +7457,9 @@
     <col min="12" max="12" width="2.375" style="5" customWidth="1"/>
     <col min="13" max="13" width="9.625" style="5" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="5.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6" style="5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="4.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="6" style="5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9" style="5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7" style="5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.125" style="5" bestFit="1" customWidth="1"/>
     <col min="18" max="45" width="3" style="5" customWidth="1"/>
     <col min="46" max="16384" width="2.125" style="5"/>
   </cols>
@@ -3482,13 +7650,13 @@
         <v>0</v>
       </c>
       <c r="R11" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="S11" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="T11" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
@@ -3527,13 +7695,13 @@
       <c r="S12" s="3"/>
       <c r="T12" s="3"/>
       <c r="U12" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="V12" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="W12" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="X12" s="3"/>
       <c r="Y12" s="3"/>
@@ -3572,13 +7740,13 @@
       <c r="V13" s="3"/>
       <c r="W13" s="3"/>
       <c r="X13" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y13" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z13" s="3" t="s">
         <v>80</v>
-      </c>
-      <c r="Y13" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="Z13" s="3" t="s">
-        <v>81</v>
       </c>
       <c r="AA13" s="3"/>
       <c r="AB13" s="3"/>
@@ -3617,13 +7785,13 @@
       <c r="Y14" s="3"/>
       <c r="Z14" s="3"/>
       <c r="AA14" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB14" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC14" s="3" t="s">
         <v>80</v>
-      </c>
-      <c r="AB14" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="AC14" s="3" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="15" spans="2:29" x14ac:dyDescent="0.15">
@@ -3641,52 +7809,54 @@
         <v>3</v>
       </c>
       <c r="O15" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="P15" s="3"/>
+        <v>94</v>
+      </c>
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
       <c r="Q15" s="6">
         <v>0</v>
       </c>
       <c r="R15" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="S15" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="T15" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="U15" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="V15" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="W15" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="X15" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Y15" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Z15" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AA15" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AB15" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AC15" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16" spans="2:29" x14ac:dyDescent="0.15">
       <c r="B16" s="8"/>
-      <c r="C16" s="9"/>
+      <c r="C16" s="8"/>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
@@ -3699,26 +7869,50 @@
         <v>3</v>
       </c>
       <c r="O16" s="3" t="s">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="P16" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q16" s="6">
-        <v>0</v>
-      </c>
-      <c r="R16" s="3"/>
-      <c r="S16" s="3"/>
-      <c r="T16" s="3"/>
-      <c r="U16" s="3"/>
-      <c r="V16" s="3"/>
-      <c r="W16" s="3"/>
-      <c r="X16" s="3"/>
-      <c r="Y16" s="3"/>
-      <c r="Z16" s="3"/>
-      <c r="AA16" s="3"/>
-      <c r="AB16" s="3"/>
-      <c r="AC16" s="3"/>
+        <v>101</v>
+      </c>
+      <c r="Q16" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="R16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="S16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="T16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="U16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="V16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="W16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="X16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC16" s="3" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="17" spans="2:29" x14ac:dyDescent="0.15">
       <c r="B17" s="8"/>
@@ -3735,32 +7929,24 @@
         <v>3</v>
       </c>
       <c r="O17" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="P17" s="3" t="s">
         <v>40</v>
       </c>
       <c r="Q17" s="6">
-        <v>1</v>
-      </c>
-      <c r="R17" s="3" t="s">
-        <v>80</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="R17" s="3"/>
       <c r="S17" s="3"/>
       <c r="T17" s="3"/>
-      <c r="U17" s="3" t="s">
-        <v>80</v>
-      </c>
+      <c r="U17" s="3"/>
       <c r="V17" s="3"/>
       <c r="W17" s="3"/>
-      <c r="X17" s="3" t="s">
-        <v>80</v>
-      </c>
+      <c r="X17" s="3"/>
       <c r="Y17" s="3"/>
       <c r="Z17" s="3"/>
-      <c r="AA17" s="3" t="s">
-        <v>80</v>
-      </c>
+      <c r="AA17" s="3"/>
       <c r="AB17" s="3"/>
       <c r="AC17" s="3"/>
     </row>
@@ -3782,30 +7968,30 @@
         <v>76</v>
       </c>
       <c r="P18" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="Q18" s="6">
-        <v>2</v>
-      </c>
-      <c r="R18" s="3"/>
-      <c r="S18" s="3" t="s">
-        <v>82</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="R18" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="S18" s="3"/>
       <c r="T18" s="3"/>
-      <c r="U18" s="3"/>
-      <c r="V18" s="3" t="s">
-        <v>82</v>
-      </c>
+      <c r="U18" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="V18" s="3"/>
       <c r="W18" s="3"/>
-      <c r="X18" s="3"/>
-      <c r="Y18" s="3" t="s">
-        <v>82</v>
-      </c>
+      <c r="X18" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y18" s="3"/>
       <c r="Z18" s="3"/>
-      <c r="AA18" s="3"/>
-      <c r="AB18" s="3" t="s">
-        <v>82</v>
-      </c>
+      <c r="AA18" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB18" s="3"/>
       <c r="AC18" s="3"/>
     </row>
     <row r="19" spans="2:29" x14ac:dyDescent="0.15">
@@ -3823,76 +8009,86 @@
         <v>3</v>
       </c>
       <c r="O19" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="P19" s="3" t="s">
         <v>42</v>
       </c>
       <c r="Q19" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R19" s="3"/>
-      <c r="S19" s="3"/>
-      <c r="T19" s="3" t="s">
-        <v>82</v>
-      </c>
+      <c r="S19" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-      <c r="V19" s="3"/>
-      <c r="W19" s="3" t="s">
-        <v>82</v>
-      </c>
+      <c r="V19" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-      <c r="Y19" s="3"/>
-      <c r="Z19" s="3" t="s">
-        <v>80</v>
-      </c>
+      <c r="Y19" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-      <c r="AB19" s="3"/>
-      <c r="AC19" s="3" t="s">
-        <v>80</v>
-      </c>
+      <c r="AB19" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AC19" s="3"/>
     </row>
     <row r="20" spans="2:29" x14ac:dyDescent="0.15">
       <c r="B20" s="8"/>
       <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
       <c r="H20" s="8"/>
       <c r="M20" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N20" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O20" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="P20" s="3"/>
+        <v>77</v>
+      </c>
+      <c r="P20" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="Q20" s="6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R20" s="3"/>
       <c r="S20" s="3"/>
-      <c r="T20" s="3"/>
+      <c r="T20" s="3" t="s">
+        <v>81</v>
+      </c>
       <c r="U20" s="3"/>
       <c r="V20" s="3"/>
-      <c r="W20" s="3"/>
+      <c r="W20" s="3" t="s">
+        <v>81</v>
+      </c>
       <c r="X20" s="3"/>
       <c r="Y20" s="3"/>
-      <c r="Z20" s="3"/>
+      <c r="Z20" s="3" t="s">
+        <v>79</v>
+      </c>
       <c r="AA20" s="3"/>
       <c r="AB20" s="3"/>
-      <c r="AC20" s="3"/>
+      <c r="AC20" s="3" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="21" spans="2:29" x14ac:dyDescent="0.15">
       <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
       <c r="H21" s="8"/>
       <c r="M21" s="3" t="s">
         <v>36</v>
@@ -3905,29 +8101,17 @@
       </c>
       <c r="P21" s="3"/>
       <c r="Q21" s="6">
-        <v>1</v>
-      </c>
-      <c r="R21" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="S21" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="T21" s="3" t="s">
-        <v>80</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="R21" s="3"/>
+      <c r="S21" s="3"/>
+      <c r="T21" s="3"/>
       <c r="U21" s="3"/>
-      <c r="V21" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="W21" s="3" t="s">
-        <v>80</v>
-      </c>
+      <c r="V21" s="3"/>
+      <c r="W21" s="3"/>
       <c r="X21" s="3"/>
       <c r="Y21" s="3"/>
-      <c r="Z21" s="3" t="s">
-        <v>80</v>
-      </c>
+      <c r="Z21" s="3"/>
       <c r="AA21" s="3"/>
       <c r="AB21" s="3"/>
       <c r="AC21" s="3"/>
@@ -3951,36 +8135,36 @@
       </c>
       <c r="P22" s="3"/>
       <c r="Q22" s="6">
-        <v>2</v>
-      </c>
-      <c r="R22" s="3"/>
-      <c r="S22" s="3"/>
-      <c r="T22" s="3"/>
-      <c r="U22" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="R22" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="V22" s="3"/>
-      <c r="W22" s="3"/>
-      <c r="X22" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y22" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="Z22" s="3"/>
-      <c r="AA22" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="AB22" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="AC22" s="3" t="s">
-        <v>86</v>
-      </c>
+      <c r="S22" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="T22" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="U22" s="3"/>
+      <c r="V22" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="W22" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="X22" s="3"/>
+      <c r="Y22" s="3"/>
+      <c r="Z22" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA22" s="3"/>
+      <c r="AB22" s="3"/>
+      <c r="AC22" s="3"/>
     </row>
     <row r="23" spans="2:29" x14ac:dyDescent="0.15">
       <c r="B23" s="8"/>
-      <c r="C23" s="9"/>
+      <c r="C23" s="8"/>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
@@ -3997,20 +8181,32 @@
       </c>
       <c r="P23" s="3"/>
       <c r="Q23" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R23" s="3"/>
       <c r="S23" s="3"/>
       <c r="T23" s="3"/>
-      <c r="U23" s="3"/>
+      <c r="U23" s="3" t="s">
+        <v>79</v>
+      </c>
       <c r="V23" s="3"/>
       <c r="W23" s="3"/>
-      <c r="X23" s="3"/>
-      <c r="Y23" s="3"/>
+      <c r="X23" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y23" s="3" t="s">
+        <v>83</v>
+      </c>
       <c r="Z23" s="3"/>
-      <c r="AA23" s="3"/>
-      <c r="AB23" s="3"/>
-      <c r="AC23" s="3"/>
+      <c r="AA23" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB23" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="AC23" s="3" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="24" spans="2:29" x14ac:dyDescent="0.15">
       <c r="B24" s="8"/>
@@ -4024,37 +8220,31 @@
         <v>36</v>
       </c>
       <c r="N24" s="3" t="s">
-        <v>61</v>
+        <v>4</v>
       </c>
       <c r="O24" s="3" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="P24" s="3"/>
       <c r="Q24" s="6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R24" s="3"/>
       <c r="S24" s="3"/>
       <c r="T24" s="3"/>
-      <c r="U24" s="3" t="s">
-        <v>80</v>
-      </c>
+      <c r="U24" s="3"/>
       <c r="V24" s="3"/>
       <c r="W24" s="3"/>
       <c r="X24" s="3"/>
-      <c r="Y24" s="3" t="s">
-        <v>85</v>
-      </c>
+      <c r="Y24" s="3"/>
       <c r="Z24" s="3"/>
       <c r="AA24" s="3"/>
       <c r="AB24" s="3"/>
-      <c r="AC24" s="3" t="s">
-        <v>87</v>
-      </c>
+      <c r="AC24" s="3"/>
     </row>
     <row r="25" spans="2:29" x14ac:dyDescent="0.15">
       <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
+      <c r="C25" s="9"/>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
@@ -4071,30 +8261,26 @@
       </c>
       <c r="P25" s="3"/>
       <c r="Q25" s="6">
-        <v>10</v>
-      </c>
-      <c r="R25" s="3" t="s">
-        <v>80</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="R25" s="3"/>
       <c r="S25" s="3"/>
       <c r="T25" s="3"/>
-      <c r="U25" s="3"/>
-      <c r="V25" s="3" t="s">
-        <v>80</v>
-      </c>
+      <c r="U25" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="V25" s="3"/>
       <c r="W25" s="3"/>
-      <c r="X25" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="Y25" s="3"/>
-      <c r="Z25" s="3" t="s">
-        <v>80</v>
-      </c>
+      <c r="X25" s="3"/>
+      <c r="Y25" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="Z25" s="3"/>
       <c r="AA25" s="3"/>
-      <c r="AB25" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="AC25" s="3"/>
+      <c r="AB25" s="3"/>
+      <c r="AC25" s="3" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="26" spans="2:29" x14ac:dyDescent="0.15">
       <c r="B26" s="8"/>
@@ -4115,28 +8301,39 @@
       </c>
       <c r="P26" s="3"/>
       <c r="Q26" s="6">
-        <v>20</v>
-      </c>
-      <c r="R26" s="3"/>
-      <c r="S26" s="3" t="s">
-        <v>80</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="R26" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="S26" s="3"/>
       <c r="T26" s="3"/>
       <c r="U26" s="3"/>
-      <c r="V26" s="3"/>
-      <c r="W26" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="X26" s="3"/>
+      <c r="V26" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="W26" s="3"/>
+      <c r="X26" s="3" t="s">
+        <v>84</v>
+      </c>
       <c r="Y26" s="3"/>
-      <c r="Z26" s="3"/>
-      <c r="AA26" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="AB26" s="3"/>
+      <c r="Z26" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA26" s="3"/>
+      <c r="AB26" s="3" t="s">
+        <v>79</v>
+      </c>
       <c r="AC26" s="3"/>
     </row>
     <row r="27" spans="2:29" x14ac:dyDescent="0.15">
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
       <c r="M27" s="3" t="s">
         <v>36</v>
       </c>
@@ -4148,48 +8345,81 @@
       </c>
       <c r="P27" s="3"/>
       <c r="Q27" s="6">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="R27" s="3"/>
-      <c r="S27" s="3"/>
-      <c r="T27" s="3" t="s">
-        <v>80</v>
-      </c>
+      <c r="S27" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="T27" s="3"/>
       <c r="U27" s="3"/>
       <c r="V27" s="3"/>
-      <c r="W27" s="3"/>
+      <c r="W27" s="3" t="s">
+        <v>79</v>
+      </c>
       <c r="X27" s="3"/>
       <c r="Y27" s="3"/>
       <c r="Z27" s="3"/>
-      <c r="AA27" s="3"/>
+      <c r="AA27" s="3" t="s">
+        <v>79</v>
+      </c>
       <c r="AB27" s="3"/>
       <c r="AC27" s="3"/>
     </row>
+    <row r="28" spans="2:29" x14ac:dyDescent="0.15">
+      <c r="M28" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="N28" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="O28" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="P28" s="3"/>
+      <c r="Q28" s="6">
+        <v>30</v>
+      </c>
+      <c r="R28" s="3"/>
+      <c r="S28" s="3"/>
+      <c r="T28" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="U28" s="3"/>
+      <c r="V28" s="3"/>
+      <c r="W28" s="3"/>
+      <c r="X28" s="3"/>
+      <c r="Y28" s="3"/>
+      <c r="Z28" s="3"/>
+      <c r="AA28" s="3"/>
+      <c r="AB28" s="3"/>
+      <c r="AC28" s="3"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="2"/>
-  <conditionalFormatting sqref="C4:D7 M21:P23 M11:P15 M17:O19">
+  <conditionalFormatting sqref="C4:D7 M22:P24 M11:P16 M18:P20">
     <cfRule type="expression" dxfId="6" priority="4">
       <formula>C4=C3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M24:P27">
+  <conditionalFormatting sqref="M25:P28">
     <cfRule type="expression" dxfId="5" priority="2">
-      <formula>M24=M23</formula>
+      <formula>M25=M24</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M20:P20">
+  <conditionalFormatting sqref="M21:P21">
     <cfRule type="expression" dxfId="4" priority="6">
-      <formula>M20=#REF!</formula>
+      <formula>M21=#REF!</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M16:O16">
+  <conditionalFormatting sqref="M17:O17">
     <cfRule type="expression" dxfId="3" priority="8">
-      <formula>M16=#REF!</formula>
+      <formula>M17=#REF!</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P16:P19">
-    <cfRule type="expression" dxfId="2" priority="1">
-      <formula>P16=P15</formula>
+  <conditionalFormatting sqref="P17">
+    <cfRule type="expression" dxfId="2" priority="15">
+      <formula>P17=P15</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4197,12 +8427,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:X28"/>
+  <dimension ref="B2:Y29"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="M40" sqref="M40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.125" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -4218,21 +8448,21 @@
     <col min="10" max="10" width="14.375" style="5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="2.125" style="5"/>
     <col min="12" max="12" width="2.375" style="5" customWidth="1"/>
-    <col min="13" max="13" width="9.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.875" style="5" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="5.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6" style="5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="4.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="6" style="5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9" style="5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7" style="5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.25" style="5" bestFit="1" customWidth="1"/>
     <col min="18" max="24" width="2.5" style="5" bestFit="1" customWidth="1"/>
     <col min="25" max="16384" width="2.125" style="5"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B2" s="10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:25" x14ac:dyDescent="0.15">
       <c r="C3" s="4" t="s">
         <v>30</v>
       </c>
@@ -4258,7 +8488,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:25" x14ac:dyDescent="0.15">
       <c r="C4" s="6" t="s">
         <v>17</v>
       </c>
@@ -4271,14 +8501,14 @@
       </c>
       <c r="G4" s="6"/>
       <c r="H4" s="6" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="I4" s="6"/>
       <c r="J4" s="6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:25" x14ac:dyDescent="0.15">
       <c r="C5" s="6" t="s">
         <v>17</v>
       </c>
@@ -4298,7 +8528,7 @@
       </c>
       <c r="J5" s="6"/>
     </row>
-    <row r="6" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:25" x14ac:dyDescent="0.15">
       <c r="C6" s="6" t="s">
         <v>17</v>
       </c>
@@ -4320,7 +8550,7 @@
       </c>
       <c r="J6" s="6"/>
     </row>
-    <row r="7" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:25" x14ac:dyDescent="0.15">
       <c r="C7" s="6" t="s">
         <v>15</v>
       </c>
@@ -4338,7 +8568,7 @@
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:25" x14ac:dyDescent="0.15">
       <c r="C8" s="6" t="s">
         <v>15</v>
       </c>
@@ -4360,7 +8590,7 @@
       </c>
       <c r="J8" s="6"/>
     </row>
-    <row r="9" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:25" x14ac:dyDescent="0.15">
       <c r="C9" s="6" t="s">
         <v>46</v>
       </c>
@@ -4378,7 +8608,7 @@
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:25" x14ac:dyDescent="0.15">
       <c r="C10" s="6" t="s">
         <v>46</v>
       </c>
@@ -4396,12 +8626,12 @@
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
     </row>
-    <row r="12" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:25" x14ac:dyDescent="0.15">
       <c r="L12" s="10" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:25" x14ac:dyDescent="0.15">
       <c r="M13" s="11" t="s">
         <v>37</v>
       </c>
@@ -4423,13 +8653,26 @@
       <c r="S13" s="4">
         <v>2</v>
       </c>
-      <c r="T13" s="4"/>
-      <c r="U13" s="4"/>
-      <c r="V13" s="4"/>
-      <c r="W13" s="4"/>
-      <c r="X13" s="4"/>
-    </row>
-    <row r="14" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="T13" s="4">
+        <v>3</v>
+      </c>
+      <c r="U13" s="4">
+        <v>4</v>
+      </c>
+      <c r="V13" s="4">
+        <v>5</v>
+      </c>
+      <c r="W13" s="4">
+        <v>6</v>
+      </c>
+      <c r="X13" s="4">
+        <v>7</v>
+      </c>
+      <c r="Y13" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="2:25" x14ac:dyDescent="0.15">
       <c r="M14" s="3" t="s">
         <v>35</v>
       </c>
@@ -4445,17 +8688,20 @@
       <c r="Q14" s="6">
         <v>0</v>
       </c>
-      <c r="R14" s="3"/>
+      <c r="R14" s="3" t="s">
+        <v>97</v>
+      </c>
       <c r="S14" s="3" t="s">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="T14" s="3"/>
       <c r="U14" s="3"/>
       <c r="V14" s="3"/>
       <c r="W14" s="3"/>
       <c r="X14" s="3"/>
-    </row>
-    <row r="15" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="Y14" s="3"/>
+    </row>
+    <row r="15" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
@@ -4480,13 +8726,18 @@
       </c>
       <c r="R15" s="3"/>
       <c r="S15" s="3"/>
-      <c r="T15" s="3"/>
-      <c r="U15" s="3"/>
+      <c r="T15" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="U15" s="3" t="s">
+        <v>97</v>
+      </c>
       <c r="V15" s="3"/>
       <c r="W15" s="3"/>
       <c r="X15" s="3"/>
-    </row>
-    <row r="16" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="Y15" s="3"/>
+    </row>
+    <row r="16" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B16" s="8"/>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
@@ -4513,11 +8764,16 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-      <c r="V16" s="3"/>
-      <c r="W16" s="3"/>
+      <c r="V16" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="W16" s="3" t="s">
+        <v>97</v>
+      </c>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
@@ -4546,9 +8802,14 @@
       <c r="U17" s="3"/>
       <c r="V17" s="3"/>
       <c r="W17" s="3"/>
-      <c r="X17" s="3"/>
-    </row>
-    <row r="18" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="X17" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y17" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="18" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
@@ -4563,7 +8824,7 @@
         <v>3</v>
       </c>
       <c r="O18" s="3" t="s">
-        <v>10</v>
+        <v>93</v>
       </c>
       <c r="P18" s="3" t="s">
         <v>40</v>
@@ -4571,15 +8832,20 @@
       <c r="Q18" s="6">
         <v>0</v>
       </c>
-      <c r="R18" s="3"/>
+      <c r="R18" s="3" t="s">
+        <v>102</v>
+      </c>
       <c r="S18" s="3"/>
-      <c r="T18" s="3"/>
+      <c r="T18" s="3" t="s">
+        <v>97</v>
+      </c>
       <c r="U18" s="3"/>
       <c r="V18" s="3"/>
       <c r="W18" s="3"/>
       <c r="X18" s="3"/>
-    </row>
-    <row r="19" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="Y18" s="3"/>
+    </row>
+    <row r="19" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
@@ -4594,7 +8860,7 @@
         <v>3</v>
       </c>
       <c r="O19" s="3" t="s">
-        <v>10</v>
+        <v>94</v>
       </c>
       <c r="P19" s="3" t="s">
         <v>40</v>
@@ -4603,14 +8869,19 @@
         <v>1</v>
       </c>
       <c r="R19" s="3"/>
-      <c r="S19" s="3"/>
+      <c r="S19" s="3" t="s">
+        <v>97</v>
+      </c>
       <c r="T19" s="3"/>
-      <c r="U19" s="3"/>
+      <c r="U19" s="3" t="s">
+        <v>97</v>
+      </c>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B20" s="8"/>
       <c r="C20" s="9"/>
       <c r="D20" s="8"/>
@@ -4625,7 +8896,7 @@
         <v>3</v>
       </c>
       <c r="O20" s="3" t="s">
-        <v>10</v>
+        <v>95</v>
       </c>
       <c r="P20" s="3" t="s">
         <v>42</v>
@@ -4634,16 +8905,19 @@
         <v>2</v>
       </c>
       <c r="R20" s="3"/>
-      <c r="S20" s="3" t="s">
-        <v>12</v>
-      </c>
+      <c r="S20" s="3"/>
       <c r="T20" s="3"/>
       <c r="U20" s="3"/>
-      <c r="V20" s="3"/>
-      <c r="W20" s="3"/>
+      <c r="V20" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="W20" s="3" t="s">
+        <v>97</v>
+      </c>
       <c r="X20" s="3"/>
-    </row>
-    <row r="21" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="Y20" s="3"/>
+    </row>
+    <row r="21" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B21" s="8"/>
       <c r="C21" s="9"/>
       <c r="D21" s="8"/>
@@ -4658,7 +8932,7 @@
         <v>3</v>
       </c>
       <c r="O21" s="3" t="s">
-        <v>10</v>
+        <v>93</v>
       </c>
       <c r="P21" s="3" t="s">
         <v>42</v>
@@ -4672,44 +8946,68 @@
       <c r="U21" s="3"/>
       <c r="V21" s="3"/>
       <c r="W21" s="3"/>
-      <c r="X21" s="3"/>
-    </row>
-    <row r="22" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="X21" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y21" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="22" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B22" s="8"/>
       <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
       <c r="H22" s="8"/>
       <c r="M22" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N22" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O22" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="P22" s="3"/>
-      <c r="Q22" s="6">
-        <v>0</v>
-      </c>
-      <c r="R22" s="3"/>
-      <c r="S22" s="3"/>
-      <c r="T22" s="3"/>
-      <c r="U22" s="3"/>
-      <c r="V22" s="3"/>
-      <c r="W22" s="3"/>
-      <c r="X22" s="3"/>
-    </row>
-    <row r="23" spans="2:24" x14ac:dyDescent="0.15">
+        <v>91</v>
+      </c>
+      <c r="P22" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q22" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="R22" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="S22" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="T22" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="U22" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="V22" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="W22" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="X22" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y22" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="23" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
       <c r="H23" s="8"/>
       <c r="M23" s="3" t="s">
         <v>36</v>
@@ -4722,17 +9020,22 @@
       </c>
       <c r="P23" s="3"/>
       <c r="Q23" s="6">
-        <v>1</v>
-      </c>
-      <c r="R23" s="3"/>
-      <c r="S23" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="R23" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="S23" s="3" t="s">
+        <v>97</v>
+      </c>
       <c r="T23" s="3"/>
       <c r="U23" s="3"/>
       <c r="V23" s="3"/>
       <c r="W23" s="3"/>
       <c r="X23" s="3"/>
-    </row>
-    <row r="24" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="Y23" s="3"/>
+    </row>
+    <row r="24" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
@@ -4751,21 +9054,24 @@
       </c>
       <c r="P24" s="3"/>
       <c r="Q24" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R24" s="3"/>
-      <c r="S24" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="T24" s="3"/>
-      <c r="U24" s="3"/>
+      <c r="S24" s="3"/>
+      <c r="T24" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="U24" s="3" t="s">
+        <v>97</v>
+      </c>
       <c r="V24" s="3"/>
       <c r="W24" s="3"/>
       <c r="X24" s="3"/>
-    </row>
-    <row r="25" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="Y24" s="3"/>
+    </row>
+    <row r="25" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B25" s="8"/>
-      <c r="C25" s="9"/>
+      <c r="C25" s="8"/>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
@@ -4782,17 +9088,22 @@
       </c>
       <c r="P25" s="3"/>
       <c r="Q25" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R25" s="3"/>
       <c r="S25" s="3"/>
       <c r="T25" s="3"/>
       <c r="U25" s="3"/>
-      <c r="V25" s="3"/>
-      <c r="W25" s="3"/>
+      <c r="V25" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="W25" s="3" t="s">
+        <v>106</v>
+      </c>
       <c r="X25" s="3"/>
-    </row>
-    <row r="26" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="Y25" s="3"/>
+    </row>
+    <row r="26" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B26" s="8"/>
       <c r="C26" s="9"/>
       <c r="D26" s="8"/>
@@ -4800,17 +9111,42 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c r="H26" s="8"/>
-    </row>
-    <row r="27" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="M26" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="N26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O26" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="P26" s="3"/>
+      <c r="Q26" s="6">
+        <v>3</v>
+      </c>
+      <c r="R26" s="3"/>
+      <c r="S26" s="3"/>
+      <c r="T26" s="3"/>
+      <c r="U26" s="3"/>
+      <c r="V26" s="3"/>
+      <c r="W26" s="3"/>
+      <c r="X26" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="Y26" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="27" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
+      <c r="C27" s="9"/>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c r="H27" s="8"/>
     </row>
-    <row r="28" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
       <c r="D28" s="8"/>
@@ -4819,16 +9155,25 @@
       <c r="G28" s="8"/>
       <c r="H28" s="8"/>
     </row>
+    <row r="29" spans="2:25" x14ac:dyDescent="0.15">
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="2"/>
-  <conditionalFormatting sqref="C4:D10">
+  <conditionalFormatting sqref="C4:D10 M24:P26 M14:P22">
     <cfRule type="expression" dxfId="1" priority="2">
       <formula>C4=C3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M14:P25">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>M14=M13</formula>
+  <conditionalFormatting sqref="M23:P23">
+    <cfRule type="expression" dxfId="0" priority="14">
+      <formula>M23=M21</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/sample/test_sample_input/google_test_sample_data.xlsx
+++ b/doc/sample/test_sample_input/google_test_sample_data.xlsx
@@ -12,16 +12,13 @@
     <sheet name="sample_function_002" sheetId="3" r:id="rId3"/>
     <sheet name="sample_function_003" sheetId="6" r:id="rId4"/>
     <sheet name="sample_function_004" sheetId="7" r:id="rId5"/>
-    <sheet name="sample_function_004 (2)" sheetId="8" r:id="rId6"/>
-    <sheet name="_sample_function_003" sheetId="4" r:id="rId7"/>
-    <sheet name="_sample_function_004" sheetId="5" r:id="rId8"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1322" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="136">
   <si>
     <t>○対象関数情報</t>
     <rPh sb="1" eb="7">
@@ -119,13 +116,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>子関数</t>
-    <rPh sb="0" eb="3">
-      <t>コカンスウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>本体</t>
     <rPh sb="0" eb="2">
       <t>ホンタイ</t>
@@ -188,18 +178,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>out</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>subFuncA</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>subInput1</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>種類</t>
     <rPh sb="0" eb="2">
       <t>シュルイ</t>
@@ -210,13 +188,6 @@
     <t>内容</t>
     <rPh sb="0" eb="2">
       <t>ナイヨウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>テスト対象関数その1</t>
-    <rPh sb="3" eb="7">
-      <t>タイショウカンスウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -303,48 +274,7 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>グローバル変数</t>
-    <rPh sb="5" eb="7">
-      <t>ヘンスウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>内部</t>
-    <rPh sb="0" eb="2">
-      <t>ナイブ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>外部</t>
-    <rPh sb="0" eb="2">
-      <t>ガイブ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>*</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>**</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>short</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>long</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>insideVariable</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>outsideVariable</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -362,33 +292,10 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>sample_function_003</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>sample_function_002</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>input3</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>SHORT</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>引数</t>
-    <rPh sb="0" eb="2">
-      <t>ヒキスウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>input2</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>sample_function_001</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -437,18 +344,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>input3</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>input3</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>input3</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>A</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -461,59 +356,7 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>A</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>A</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>A</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>A</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>A</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>A</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>A</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>A</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>A</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>sample_function_004</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>input2</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>&amp;input2[0]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>_input2[0]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>_input2[0]</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -528,46 +371,7 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>A</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>A</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>input2</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>&amp;_input2[0]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>非NULL</t>
-    <rPh sb="0" eb="1">
-      <t>ヒ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>A</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>A</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>A</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>A</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>A</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -751,45 +555,11 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>int</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>subFunc_001</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>input</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>in</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>input1</t>
-  </si>
-  <si>
-    <t>0～1</t>
+    <t>&amp;_input1[0]</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>A</t>
-  </si>
-  <si>
-    <t>2～3</t>
-  </si>
-  <si>
-    <t>input2</t>
-  </si>
-  <si>
-    <t>ret_val</t>
-  </si>
-  <si>
-    <t>&amp;_input1[0]</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -797,87 +567,7 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>関数戻り値</t>
-    <rPh sb="0" eb="2">
-      <t>カンスウ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>モド</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>チ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>A</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>A</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>A</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>A</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>呼び出し回数</t>
-    <rPh sb="0" eb="1">
-      <t>ヨ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ダ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>カイスウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>subFunc_001_return_value[0]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>A</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>A</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>A</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>subFunc_001_called_count</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>関数引数</t>
-    <rPh sb="0" eb="2">
-      <t>カンスウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ヒキスウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>subFunc_001_input[0]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>subFunc_001_input[0]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>subFunc_001_input[0]</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -1117,77 +807,7 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="13">
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-      <border>
-        <top/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-      <border>
-        <top/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-      <border>
-        <top/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-      <border>
-        <top/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-      <border>
-        <top/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-      <border>
-        <top/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-      <border>
-        <top/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="6">
     <dxf>
       <font>
         <color theme="0" tint="-0.24994659260841701"/>
@@ -1570,7 +1190,7 @@
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B2" s="12" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="C2" s="13"/>
       <c r="D2" s="13"/>
@@ -1598,13 +1218,13 @@
         <v>1</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.2">
@@ -1612,13 +1232,13 @@
         <v>2</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.2">
@@ -1626,13 +1246,13 @@
         <v>3</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>175</v>
+        <v>108</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>177</v>
+        <v>110</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>178</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.2">
@@ -1640,13 +1260,13 @@
         <v>4</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>176</v>
+        <v>109</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>178</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -1691,107 +1311,107 @@
     </row>
     <row r="3" spans="2:33" x14ac:dyDescent="0.15">
       <c r="C3" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>14</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>13</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="2:33" x14ac:dyDescent="0.15">
       <c r="C4" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G4" s="6"/>
       <c r="H4" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I4" s="6"/>
       <c r="J4" s="6" t="s">
-        <v>107</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="2:33" x14ac:dyDescent="0.15">
       <c r="C5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>17</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>18</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G5" s="6"/>
       <c r="H5" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="J5" s="6"/>
     </row>
     <row r="6" spans="2:33" x14ac:dyDescent="0.15">
       <c r="C6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>17</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>18</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G6" s="6"/>
       <c r="H6" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="J6" s="6"/>
     </row>
     <row r="8" spans="2:33" x14ac:dyDescent="0.15">
       <c r="L8" s="10" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="2:33" x14ac:dyDescent="0.15">
       <c r="M9" s="11" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="N9" s="4" t="s">
         <v>1</v>
       </c>
       <c r="O9" s="4" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="P9" s="4" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="Q9" s="4" t="s">
         <v>2</v>
@@ -1847,7 +1467,7 @@
     </row>
     <row r="10" spans="2:33" x14ac:dyDescent="0.15">
       <c r="M10" s="3" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="N10" s="3" t="s">
         <v>3</v>
@@ -1856,22 +1476,22 @@
         <v>9</v>
       </c>
       <c r="P10" s="3" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="Q10" s="6">
         <v>0</v>
       </c>
       <c r="R10" s="3" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="S10" s="3" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="T10" s="3" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="U10" s="3" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="V10" s="3"/>
       <c r="W10" s="3"/>
@@ -1895,7 +1515,7 @@
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
       <c r="M11" s="3" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="N11" s="3" t="s">
         <v>3</v>
@@ -1904,7 +1524,7 @@
         <v>9</v>
       </c>
       <c r="P11" s="3" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="Q11" s="6">
         <v>1</v>
@@ -1914,16 +1534,16 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="W11" s="3" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="X11" s="3" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="Y11" s="3" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
@@ -1943,7 +1563,7 @@
       <c r="G12" s="9"/>
       <c r="H12" s="8"/>
       <c r="M12" s="3" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="N12" s="3" t="s">
         <v>3</v>
@@ -1952,7 +1572,7 @@
         <v>9</v>
       </c>
       <c r="P12" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="Q12" s="6">
         <v>2</v>
@@ -1966,16 +1586,16 @@
       <c r="X12" s="3"/>
       <c r="Y12" s="3"/>
       <c r="Z12" s="3" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="AA12" s="3" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="AB12" s="3" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="AC12" s="3" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="AD12" s="3"/>
       <c r="AE12" s="3"/>
@@ -1991,7 +1611,7 @@
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
       <c r="M13" s="3" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="N13" s="3" t="s">
         <v>3</v>
@@ -2000,7 +1620,7 @@
         <v>9</v>
       </c>
       <c r="P13" s="3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="Q13" s="6">
         <v>3</v>
@@ -2018,16 +1638,16 @@
       <c r="AB13" s="3"/>
       <c r="AC13" s="3"/>
       <c r="AD13" s="3" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="AE13" s="3" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="AF13" s="3" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="AG13" s="3" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="2:33" x14ac:dyDescent="0.15">
@@ -2039,7 +1659,7 @@
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
       <c r="M14" s="3" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>3</v>
@@ -2048,31 +1668,31 @@
         <v>10</v>
       </c>
       <c r="P14" s="3" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="Q14" s="6">
         <v>0</v>
       </c>
       <c r="R14" s="3" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="S14" s="3"/>
       <c r="T14" s="3"/>
       <c r="U14" s="3"/>
       <c r="V14" s="3" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="W14" s="3"/>
       <c r="X14" s="3"/>
       <c r="Y14" s="3"/>
       <c r="Z14" s="3" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="AA14" s="3"/>
       <c r="AB14" s="3"/>
       <c r="AC14" s="3"/>
       <c r="AD14" s="3" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="AE14" s="3"/>
       <c r="AF14" s="3"/>
@@ -2087,7 +1707,7 @@
       <c r="G15" s="8"/>
       <c r="H15" s="8"/>
       <c r="M15" s="3" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="N15" s="3" t="s">
         <v>3</v>
@@ -2096,32 +1716,32 @@
         <v>11</v>
       </c>
       <c r="P15" s="3" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="Q15" s="6">
         <v>1</v>
       </c>
       <c r="R15" s="3"/>
       <c r="S15" s="3" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="T15" s="3"/>
       <c r="U15" s="3"/>
       <c r="V15" s="3"/>
       <c r="W15" s="3" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="X15" s="3"/>
       <c r="Y15" s="3"/>
       <c r="Z15" s="3"/>
       <c r="AA15" s="3" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="AB15" s="3"/>
       <c r="AC15" s="3"/>
       <c r="AD15" s="3"/>
       <c r="AE15" s="3" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="AF15" s="3"/>
       <c r="AG15" s="3"/>
@@ -2135,7 +1755,7 @@
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
       <c r="M16" s="3" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="N16" s="3" t="s">
         <v>3</v>
@@ -2144,7 +1764,7 @@
         <v>11</v>
       </c>
       <c r="P16" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="Q16" s="6">
         <v>2</v>
@@ -2152,25 +1772,25 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
       <c r="AF16" s="3" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="AG16" s="3"/>
     </row>
@@ -2183,7 +1803,7 @@
       <c r="G17" s="8"/>
       <c r="H17" s="8"/>
       <c r="M17" s="3" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="N17" s="3" t="s">
         <v>3</v>
@@ -2192,7 +1812,7 @@
         <v>11</v>
       </c>
       <c r="P17" s="3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="Q17" s="6">
         <v>3</v>
@@ -2201,25 +1821,25 @@
       <c r="S17" s="3"/>
       <c r="T17" s="3"/>
       <c r="U17" s="3" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="V17" s="3"/>
       <c r="W17" s="3"/>
       <c r="X17" s="3"/>
       <c r="Y17" s="3" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="Z17" s="3"/>
       <c r="AA17" s="3"/>
       <c r="AB17" s="3"/>
       <c r="AC17" s="3" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="AD17" s="3"/>
       <c r="AE17" s="3"/>
       <c r="AF17" s="3"/>
       <c r="AG17" s="3" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="2:33" x14ac:dyDescent="0.15">
@@ -2231,41 +1851,41 @@
       <c r="G18" s="9"/>
       <c r="H18" s="8"/>
       <c r="M18" s="3" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="N18" s="3" t="s">
         <v>4</v>
       </c>
       <c r="O18" s="3" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="P18" s="3"/>
       <c r="Q18" s="6">
         <v>0</v>
       </c>
       <c r="R18" s="3" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="S18" s="3"/>
       <c r="T18" s="3"/>
       <c r="U18" s="3"/>
       <c r="V18" s="3"/>
       <c r="W18" s="3" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="X18" s="3"/>
       <c r="Y18" s="3"/>
       <c r="Z18" s="3"/>
       <c r="AA18" s="3"/>
       <c r="AB18" s="3" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="AC18" s="3"/>
       <c r="AD18" s="3"/>
       <c r="AE18" s="3"/>
       <c r="AF18" s="3"/>
       <c r="AG18" s="3" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="2:33" x14ac:dyDescent="0.15">
@@ -2277,13 +1897,13 @@
       <c r="G19" s="8"/>
       <c r="H19" s="8"/>
       <c r="M19" s="3" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="N19" s="3" t="s">
         <v>4</v>
       </c>
       <c r="O19" s="3" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="P19" s="3"/>
       <c r="Q19" s="6">
@@ -2291,30 +1911,30 @@
       </c>
       <c r="R19" s="3"/>
       <c r="S19" s="3" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="W19" s="3"/>
       <c r="X19" s="3" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
       <c r="AF19" s="3" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="AG19" s="3"/>
     </row>
@@ -2327,13 +1947,13 @@
       <c r="G20" s="8"/>
       <c r="H20" s="8"/>
       <c r="M20" s="3" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="N20" s="3" t="s">
         <v>4</v>
       </c>
       <c r="O20" s="3" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="P20" s="3"/>
       <c r="Q20" s="6">
@@ -2342,24 +1962,24 @@
       <c r="R20" s="3"/>
       <c r="S20" s="3"/>
       <c r="T20" s="3" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="U20" s="3"/>
       <c r="V20" s="3"/>
       <c r="W20" s="3"/>
       <c r="X20" s="3"/>
       <c r="Y20" s="3" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="Z20" s="3" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="AA20" s="3"/>
       <c r="AB20" s="3"/>
       <c r="AC20" s="3"/>
       <c r="AD20" s="3"/>
       <c r="AE20" s="3" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="AF20" s="3"/>
       <c r="AG20" s="3"/>
@@ -2373,13 +1993,13 @@
       <c r="G21" s="8"/>
       <c r="H21" s="8"/>
       <c r="M21" s="3" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="N21" s="3" t="s">
         <v>4</v>
       </c>
       <c r="O21" s="3" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="P21" s="3"/>
       <c r="Q21" s="6">
@@ -2389,7 +2009,7 @@
       <c r="S21" s="3"/>
       <c r="T21" s="3"/>
       <c r="U21" s="3" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="V21" s="3"/>
       <c r="W21" s="3"/>
@@ -2400,7 +2020,7 @@
       <c r="AB21" s="3"/>
       <c r="AC21" s="3"/>
       <c r="AD21" s="3" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="AE21" s="3"/>
       <c r="AF21" s="3"/>
@@ -2436,12 +2056,12 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="C4:D6">
-    <cfRule type="expression" dxfId="12" priority="2">
+    <cfRule type="expression" dxfId="5" priority="2">
       <formula>C4=C3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M10:P21">
-    <cfRule type="expression" dxfId="11" priority="1">
+    <cfRule type="expression" dxfId="4" priority="1">
       <formula>M10=M9</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2485,111 +2105,111 @@
     </row>
     <row r="3" spans="2:33" x14ac:dyDescent="0.15">
       <c r="C3" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>14</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>13</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="2:33" x14ac:dyDescent="0.15">
       <c r="C4" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G4" s="6"/>
       <c r="H4" s="6" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="I4" s="6"/>
       <c r="J4" s="6" t="s">
-        <v>110</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="2:33" x14ac:dyDescent="0.15">
       <c r="C5" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>3</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>108</v>
+        <v>65</v>
       </c>
       <c r="H5" s="6" t="s">
         <v>9</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J5" s="6"/>
     </row>
     <row r="6" spans="2:33" x14ac:dyDescent="0.15">
       <c r="C6" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>3</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>109</v>
+        <v>66</v>
       </c>
       <c r="H6" s="6" t="s">
         <v>10</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J6" s="6"/>
     </row>
     <row r="8" spans="2:33" x14ac:dyDescent="0.15">
       <c r="L8" s="10" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="2:33" x14ac:dyDescent="0.15">
       <c r="M9" s="11" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="N9" s="4" t="s">
         <v>1</v>
       </c>
       <c r="O9" s="4" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="P9" s="4" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="Q9" s="4" t="s">
         <v>2</v>
@@ -2645,16 +2265,16 @@
     </row>
     <row r="10" spans="2:33" x14ac:dyDescent="0.15">
       <c r="M10" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="P10" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="N10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O10" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="P10" s="3" t="s">
-        <v>40</v>
       </c>
       <c r="Q10" s="6">
         <v>0</v>
@@ -2669,7 +2289,7 @@
         <v>12</v>
       </c>
       <c r="U10" s="3" t="s">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="V10" s="3"/>
       <c r="W10" s="3"/>
@@ -2693,16 +2313,16 @@
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
       <c r="M11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O11" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="P11" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="N11" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O11" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="P11" s="3" t="s">
-        <v>40</v>
       </c>
       <c r="Q11" s="6">
         <v>1</v>
@@ -2712,16 +2332,16 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="W11" s="3" t="s">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="X11" s="3" t="s">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="Y11" s="3" t="s">
-        <v>88</v>
+        <v>58</v>
       </c>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
@@ -2741,16 +2361,16 @@
       <c r="G12" s="9"/>
       <c r="H12" s="8"/>
       <c r="M12" s="3" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="N12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O12" s="3" t="s">
-        <v>112</v>
+        <v>69</v>
       </c>
       <c r="P12" s="3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="Q12" s="6">
         <v>2</v>
@@ -2764,16 +2384,16 @@
       <c r="X12" s="3"/>
       <c r="Y12" s="3"/>
       <c r="Z12" s="3" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="AA12" s="3" t="s">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="AB12" s="3" t="s">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="AC12" s="3" t="s">
-        <v>88</v>
+        <v>58</v>
       </c>
       <c r="AD12" s="3"/>
       <c r="AE12" s="3"/>
@@ -2789,16 +2409,16 @@
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
       <c r="M13" s="3" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="N13" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O13" s="3" t="s">
-        <v>114</v>
+        <v>71</v>
       </c>
       <c r="P13" s="3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="Q13" s="6">
         <v>3</v>
@@ -2816,16 +2436,16 @@
       <c r="AB13" s="3"/>
       <c r="AC13" s="3"/>
       <c r="AD13" s="3" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="AE13" s="3" t="s">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="AF13" s="3" t="s">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="AG13" s="3" t="s">
-        <v>88</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="2:33" x14ac:dyDescent="0.15">
@@ -2837,67 +2457,67 @@
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
       <c r="M14" s="3" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O14" s="3" t="s">
-        <v>113</v>
+        <v>70</v>
       </c>
       <c r="P14" s="3" t="s">
-        <v>119</v>
+        <v>76</v>
       </c>
       <c r="Q14" s="6" t="s">
-        <v>118</v>
+        <v>75</v>
       </c>
       <c r="R14" s="3" t="s">
-        <v>120</v>
+        <v>77</v>
       </c>
       <c r="S14" s="3" t="s">
-        <v>120</v>
+        <v>77</v>
       </c>
       <c r="T14" s="3" t="s">
-        <v>120</v>
+        <v>77</v>
       </c>
       <c r="U14" s="3" t="s">
-        <v>121</v>
+        <v>78</v>
       </c>
       <c r="V14" s="3" t="s">
-        <v>122</v>
+        <v>79</v>
       </c>
       <c r="W14" s="3" t="s">
-        <v>123</v>
+        <v>80</v>
       </c>
       <c r="X14" s="3" t="s">
-        <v>121</v>
+        <v>78</v>
       </c>
       <c r="Y14" s="3" t="s">
-        <v>120</v>
+        <v>77</v>
       </c>
       <c r="Z14" s="3" t="s">
-        <v>124</v>
+        <v>81</v>
       </c>
       <c r="AA14" s="3" t="s">
-        <v>124</v>
+        <v>81</v>
       </c>
       <c r="AB14" s="3" t="s">
-        <v>121</v>
+        <v>78</v>
       </c>
       <c r="AC14" s="3" t="s">
-        <v>121</v>
+        <v>78</v>
       </c>
       <c r="AD14" s="3" t="s">
-        <v>124</v>
+        <v>81</v>
       </c>
       <c r="AE14" s="3" t="s">
-        <v>121</v>
+        <v>78</v>
       </c>
       <c r="AF14" s="3" t="s">
-        <v>124</v>
+        <v>81</v>
       </c>
       <c r="AG14" s="3" t="s">
-        <v>120</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15" spans="2:33" x14ac:dyDescent="0.15">
@@ -2909,40 +2529,40 @@
       <c r="G15" s="8"/>
       <c r="H15" s="8"/>
       <c r="M15" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="P15" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="N15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O15" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="P15" s="3" t="s">
-        <v>40</v>
       </c>
       <c r="Q15" s="6">
         <v>0</v>
       </c>
       <c r="R15" s="3" t="s">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="S15" s="3"/>
       <c r="T15" s="3"/>
       <c r="U15" s="3"/>
       <c r="V15" s="3" t="s">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="W15" s="3"/>
       <c r="X15" s="3"/>
       <c r="Y15" s="3"/>
       <c r="Z15" s="3" t="s">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="AA15" s="3"/>
       <c r="AB15" s="3"/>
       <c r="AC15" s="3"/>
       <c r="AD15" s="3" t="s">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="AE15" s="3"/>
       <c r="AF15" s="3"/>
@@ -2957,16 +2577,16 @@
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
       <c r="M16" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="N16" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O16" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="P16" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="N16" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O16" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="P16" s="3" t="s">
-        <v>40</v>
       </c>
       <c r="Q16" s="6">
         <v>1</v>
@@ -3005,16 +2625,16 @@
       <c r="G17" s="8"/>
       <c r="H17" s="8"/>
       <c r="M17" s="3" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="N17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O17" s="3" t="s">
-        <v>93</v>
+        <v>61</v>
       </c>
       <c r="P17" s="3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="Q17" s="6">
         <v>2</v>
@@ -3053,16 +2673,16 @@
       <c r="G18" s="8"/>
       <c r="H18" s="8"/>
       <c r="M18" s="3" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O18" s="3" t="s">
-        <v>111</v>
+        <v>68</v>
       </c>
       <c r="P18" s="3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="Q18" s="6">
         <v>3</v>
@@ -3071,25 +2691,25 @@
       <c r="S18" s="3"/>
       <c r="T18" s="3"/>
       <c r="U18" s="3" t="s">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="V18" s="3"/>
       <c r="W18" s="3"/>
       <c r="X18" s="3"/>
       <c r="Y18" s="3" t="s">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="Z18" s="3"/>
       <c r="AA18" s="3"/>
       <c r="AB18" s="3"/>
       <c r="AC18" s="3" t="s">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="AD18" s="3"/>
       <c r="AE18" s="3"/>
       <c r="AF18" s="3"/>
       <c r="AG18" s="3" t="s">
-        <v>87</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="2:33" x14ac:dyDescent="0.15">
@@ -3101,67 +2721,67 @@
       <c r="G19" s="8"/>
       <c r="H19" s="8"/>
       <c r="M19" s="3" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="N19" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O19" s="3" t="s">
-        <v>115</v>
+        <v>72</v>
       </c>
       <c r="P19" s="3" t="s">
-        <v>119</v>
+        <v>76</v>
       </c>
       <c r="Q19" s="6" t="s">
-        <v>116</v>
+        <v>73</v>
       </c>
       <c r="R19" s="3" t="s">
-        <v>120</v>
+        <v>77</v>
       </c>
       <c r="S19" s="3" t="s">
-        <v>120</v>
+        <v>77</v>
       </c>
       <c r="T19" s="3" t="s">
-        <v>120</v>
+        <v>77</v>
       </c>
       <c r="U19" s="3" t="s">
-        <v>121</v>
+        <v>78</v>
       </c>
       <c r="V19" s="3" t="s">
-        <v>122</v>
+        <v>79</v>
       </c>
       <c r="W19" s="3" t="s">
-        <v>123</v>
+        <v>80</v>
       </c>
       <c r="X19" s="3" t="s">
-        <v>121</v>
+        <v>78</v>
       </c>
       <c r="Y19" s="3" t="s">
-        <v>120</v>
+        <v>77</v>
       </c>
       <c r="Z19" s="3" t="s">
-        <v>124</v>
+        <v>81</v>
       </c>
       <c r="AA19" s="3" t="s">
-        <v>124</v>
+        <v>81</v>
       </c>
       <c r="AB19" s="3" t="s">
-        <v>121</v>
+        <v>78</v>
       </c>
       <c r="AC19" s="3" t="s">
-        <v>121</v>
+        <v>78</v>
       </c>
       <c r="AD19" s="3" t="s">
-        <v>124</v>
+        <v>81</v>
       </c>
       <c r="AE19" s="3" t="s">
-        <v>121</v>
+        <v>78</v>
       </c>
       <c r="AF19" s="3" t="s">
-        <v>124</v>
+        <v>81</v>
       </c>
       <c r="AG19" s="3" t="s">
-        <v>120</v>
+        <v>77</v>
       </c>
     </row>
     <row r="20" spans="2:33" x14ac:dyDescent="0.15">
@@ -3173,13 +2793,13 @@
       <c r="G20" s="9"/>
       <c r="H20" s="8"/>
       <c r="M20" s="3" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="N20" s="3" t="s">
         <v>4</v>
       </c>
       <c r="O20" s="3" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="P20" s="3"/>
       <c r="Q20" s="6">
@@ -3219,13 +2839,13 @@
       <c r="G21" s="8"/>
       <c r="H21" s="8"/>
       <c r="M21" s="3" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="N21" s="3" t="s">
         <v>4</v>
       </c>
       <c r="O21" s="3" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="P21" s="3"/>
       <c r="Q21" s="6">
@@ -3262,13 +2882,13 @@
     </row>
     <row r="22" spans="2:33" x14ac:dyDescent="0.15">
       <c r="M22" s="3" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="N22" s="3" t="s">
         <v>4</v>
       </c>
       <c r="O22" s="3" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="P22" s="3"/>
       <c r="Q22" s="6">
@@ -3301,13 +2921,13 @@
     </row>
     <row r="23" spans="2:33" x14ac:dyDescent="0.15">
       <c r="M23" s="3" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="N23" s="3" t="s">
         <v>4</v>
       </c>
       <c r="O23" s="3" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="P23" s="3"/>
       <c r="Q23" s="6">
@@ -3336,9 +2956,9 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
-  <conditionalFormatting sqref="M10:P23">
-    <cfRule type="expression" dxfId="10" priority="3">
-      <formula>M10=M9</formula>
+  <conditionalFormatting sqref="C4:D6 M10:P23">
+    <cfRule type="expression" dxfId="0" priority="3">
+      <formula>C4=C3</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3381,111 +3001,111 @@
     </row>
     <row r="3" spans="2:33" x14ac:dyDescent="0.15">
       <c r="C3" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>14</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>13</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="2:33" x14ac:dyDescent="0.15">
       <c r="C4" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G4" s="6"/>
       <c r="H4" s="6" t="s">
-        <v>140</v>
+        <v>97</v>
       </c>
       <c r="I4" s="6"/>
       <c r="J4" s="6" t="s">
-        <v>135</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="2:33" x14ac:dyDescent="0.15">
       <c r="C5" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>3</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="H5" s="6" t="s">
         <v>9</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J5" s="6"/>
     </row>
     <row r="6" spans="2:33" x14ac:dyDescent="0.15">
       <c r="C6" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>3</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>125</v>
+        <v>82</v>
       </c>
       <c r="H6" s="6" t="s">
         <v>10</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J6" s="6"/>
     </row>
     <row r="8" spans="2:33" x14ac:dyDescent="0.15">
       <c r="L8" s="10" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="2:33" x14ac:dyDescent="0.15">
       <c r="M9" s="11" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="N9" s="4" t="s">
         <v>1</v>
       </c>
       <c r="O9" s="4" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="P9" s="4" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="Q9" s="4" t="s">
         <v>2</v>
@@ -3541,16 +3161,16 @@
     </row>
     <row r="10" spans="2:33" x14ac:dyDescent="0.15">
       <c r="M10" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="P10" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="N10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O10" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="P10" s="3" t="s">
-        <v>40</v>
       </c>
       <c r="Q10" s="6">
         <v>0</v>
@@ -3589,16 +3209,16 @@
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
       <c r="M11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O11" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="P11" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="N11" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O11" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="P11" s="3" t="s">
-        <v>40</v>
       </c>
       <c r="Q11" s="6">
         <v>1</v>
@@ -3637,16 +3257,16 @@
       <c r="G12" s="9"/>
       <c r="H12" s="8"/>
       <c r="M12" s="3" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="N12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O12" s="3" t="s">
-        <v>114</v>
+        <v>71</v>
       </c>
       <c r="P12" s="3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="Q12" s="6">
         <v>2</v>
@@ -3685,16 +3305,16 @@
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
       <c r="M13" s="3" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="N13" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O13" s="3" t="s">
-        <v>126</v>
+        <v>83</v>
       </c>
       <c r="P13" s="3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="Q13" s="6">
         <v>3</v>
@@ -3733,16 +3353,16 @@
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
       <c r="M14" s="3" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O14" s="3" t="s">
-        <v>127</v>
+        <v>84</v>
       </c>
       <c r="P14" s="3" t="s">
-        <v>129</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="6">
         <v>0</v>
@@ -3752,7 +3372,7 @@
         <v>12</v>
       </c>
       <c r="T14" s="3" t="s">
-        <v>137</v>
+        <v>94</v>
       </c>
       <c r="U14" s="3"/>
       <c r="V14" s="3"/>
@@ -3779,16 +3399,16 @@
       <c r="G15" s="8"/>
       <c r="H15" s="8"/>
       <c r="M15" s="3" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="N15" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O15" s="3" t="s">
-        <v>128</v>
+        <v>85</v>
       </c>
       <c r="P15" s="3" t="s">
-        <v>130</v>
+        <v>87</v>
       </c>
       <c r="Q15" s="6">
         <v>1</v>
@@ -3802,17 +3422,17 @@
         <v>12</v>
       </c>
       <c r="V15" s="3" t="s">
-        <v>137</v>
+        <v>94</v>
       </c>
       <c r="W15" s="3"/>
       <c r="X15" s="3" t="s">
-        <v>137</v>
+        <v>94</v>
       </c>
       <c r="Y15" s="3" t="s">
-        <v>138</v>
+        <v>95</v>
       </c>
       <c r="Z15" s="3" t="s">
-        <v>138</v>
+        <v>95</v>
       </c>
       <c r="AA15" s="3"/>
       <c r="AB15" s="3" t="s">
@@ -3827,7 +3447,7 @@
         <v>12</v>
       </c>
       <c r="AG15" s="3" t="s">
-        <v>137</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16" spans="2:33" x14ac:dyDescent="0.15">
@@ -3839,16 +3459,16 @@
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
       <c r="M16" s="3" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="N16" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O16" s="3" t="s">
-        <v>127</v>
+        <v>84</v>
       </c>
       <c r="P16" s="3" t="s">
-        <v>130</v>
+        <v>87</v>
       </c>
       <c r="Q16" s="6">
         <v>-1</v>
@@ -3859,19 +3479,19 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3" t="s">
-        <v>137</v>
+        <v>94</v>
       </c>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3" t="s">
-        <v>139</v>
+        <v>96</v>
       </c>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3" t="s">
-        <v>137</v>
+        <v>94</v>
       </c>
       <c r="AF16" s="3"/>
       <c r="AG16" s="3"/>
@@ -3885,7 +3505,7 @@
       <c r="G17" s="8"/>
       <c r="H17" s="8"/>
       <c r="M17" s="3" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="N17" s="3" t="s">
         <v>3</v>
@@ -3894,58 +3514,58 @@
         <v>9</v>
       </c>
       <c r="P17" s="3" t="s">
-        <v>96</v>
+        <v>62</v>
       </c>
       <c r="Q17" s="6" t="s">
-        <v>157</v>
+        <v>103</v>
       </c>
       <c r="R17" s="3" t="s">
-        <v>141</v>
+        <v>98</v>
       </c>
       <c r="S17" s="3" t="s">
-        <v>142</v>
+        <v>99</v>
       </c>
       <c r="T17" s="3" t="s">
-        <v>143</v>
+        <v>100</v>
       </c>
       <c r="U17" s="3" t="s">
-        <v>142</v>
+        <v>99</v>
       </c>
       <c r="V17" s="3" t="s">
-        <v>144</v>
+        <v>101</v>
       </c>
       <c r="W17" s="3" t="s">
-        <v>145</v>
+        <v>102</v>
       </c>
       <c r="X17" s="3" t="s">
-        <v>144</v>
+        <v>101</v>
       </c>
       <c r="Y17" s="3" t="s">
-        <v>145</v>
+        <v>102</v>
       </c>
       <c r="Z17" s="3" t="s">
-        <v>145</v>
+        <v>102</v>
       </c>
       <c r="AA17" s="3" t="s">
-        <v>145</v>
+        <v>102</v>
       </c>
       <c r="AB17" s="3" t="s">
-        <v>145</v>
+        <v>102</v>
       </c>
       <c r="AC17" s="3" t="s">
-        <v>142</v>
+        <v>99</v>
       </c>
       <c r="AD17" s="3" t="s">
-        <v>145</v>
+        <v>102</v>
       </c>
       <c r="AE17" s="3" t="s">
-        <v>145</v>
+        <v>102</v>
       </c>
       <c r="AF17" s="3" t="s">
-        <v>142</v>
+        <v>99</v>
       </c>
       <c r="AG17" s="3" t="s">
-        <v>145</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18" spans="2:33" x14ac:dyDescent="0.15">
@@ -3957,16 +3577,16 @@
       <c r="G18" s="8"/>
       <c r="H18" s="8"/>
       <c r="M18" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O18" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="P18" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="N18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O18" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="P18" s="3" t="s">
-        <v>40</v>
       </c>
       <c r="Q18" s="6">
         <v>0</v>
@@ -4005,16 +3625,16 @@
       <c r="G19" s="8"/>
       <c r="H19" s="8"/>
       <c r="M19" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="N19" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O19" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="P19" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="N19" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O19" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="P19" s="3" t="s">
-        <v>40</v>
       </c>
       <c r="Q19" s="6">
         <v>1</v>
@@ -4053,16 +3673,16 @@
       <c r="G20" s="8"/>
       <c r="H20" s="8"/>
       <c r="M20" s="3" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="N20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O20" s="3" t="s">
-        <v>111</v>
+        <v>68</v>
       </c>
       <c r="P20" s="3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="Q20" s="6">
         <v>2</v>
@@ -4101,16 +3721,16 @@
       <c r="G21" s="8"/>
       <c r="H21" s="8"/>
       <c r="M21" s="3" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O21" s="3" t="s">
-        <v>93</v>
+        <v>61</v>
       </c>
       <c r="P21" s="3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="Q21" s="6">
         <v>3</v>
@@ -4149,16 +3769,16 @@
       <c r="G22" s="8"/>
       <c r="H22" s="8"/>
       <c r="M22" s="3" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="N22" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O22" s="3" t="s">
-        <v>133</v>
+        <v>90</v>
       </c>
       <c r="P22" s="3" t="s">
-        <v>129</v>
+        <v>86</v>
       </c>
       <c r="Q22" s="6">
         <v>0</v>
@@ -4169,16 +3789,16 @@
       <c r="S22" s="3"/>
       <c r="T22" s="3"/>
       <c r="U22" s="3" t="s">
-        <v>137</v>
+        <v>94</v>
       </c>
       <c r="V22" s="3" t="s">
-        <v>137</v>
+        <v>94</v>
       </c>
       <c r="W22" s="3" t="s">
-        <v>138</v>
+        <v>95</v>
       </c>
       <c r="X22" s="3" t="s">
-        <v>137</v>
+        <v>94</v>
       </c>
       <c r="Y22" s="3" t="s">
         <v>12</v>
@@ -4197,7 +3817,7 @@
         <v>12</v>
       </c>
       <c r="AE22" s="3" t="s">
-        <v>137</v>
+        <v>94</v>
       </c>
       <c r="AF22" s="3" t="s">
         <v>12</v>
@@ -4215,23 +3835,23 @@
       <c r="G23" s="8"/>
       <c r="H23" s="8"/>
       <c r="M23" s="3" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="N23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O23" s="3" t="s">
-        <v>132</v>
+        <v>89</v>
       </c>
       <c r="P23" s="3" t="s">
-        <v>130</v>
+        <v>87</v>
       </c>
       <c r="Q23" s="6">
         <v>1</v>
       </c>
       <c r="R23" s="3"/>
       <c r="S23" s="3" t="s">
-        <v>136</v>
+        <v>93</v>
       </c>
       <c r="T23" s="3"/>
       <c r="U23" s="3"/>
@@ -4243,7 +3863,7 @@
       <c r="AA23" s="3"/>
       <c r="AB23" s="3"/>
       <c r="AC23" s="3" t="s">
-        <v>137</v>
+        <v>94</v>
       </c>
       <c r="AD23" s="3"/>
       <c r="AE23" s="3"/>
@@ -4259,16 +3879,16 @@
       <c r="G24" s="8"/>
       <c r="H24" s="8"/>
       <c r="M24" s="3" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="N24" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O24" s="3" t="s">
-        <v>134</v>
+        <v>91</v>
       </c>
       <c r="P24" s="3" t="s">
-        <v>130</v>
+        <v>87</v>
       </c>
       <c r="Q24" s="6">
         <v>-1</v>
@@ -4301,67 +3921,67 @@
       <c r="G25" s="8"/>
       <c r="H25" s="8"/>
       <c r="M25" s="3" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="N25" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O25" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P25" s="3" t="s">
-        <v>96</v>
+        <v>62</v>
       </c>
       <c r="Q25" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="R25" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="S25" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="T25" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="R25" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="S25" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="T25" s="3" t="s">
-        <v>143</v>
-      </c>
       <c r="U25" s="3" t="s">
-        <v>142</v>
+        <v>99</v>
       </c>
       <c r="V25" s="3" t="s">
-        <v>144</v>
+        <v>101</v>
       </c>
       <c r="W25" s="3" t="s">
-        <v>145</v>
+        <v>102</v>
       </c>
       <c r="X25" s="3" t="s">
-        <v>144</v>
+        <v>101</v>
       </c>
       <c r="Y25" s="3" t="s">
-        <v>145</v>
+        <v>102</v>
       </c>
       <c r="Z25" s="3" t="s">
-        <v>145</v>
+        <v>102</v>
       </c>
       <c r="AA25" s="3" t="s">
-        <v>145</v>
+        <v>102</v>
       </c>
       <c r="AB25" s="3" t="s">
-        <v>145</v>
+        <v>102</v>
       </c>
       <c r="AC25" s="3" t="s">
-        <v>142</v>
+        <v>99</v>
       </c>
       <c r="AD25" s="3" t="s">
-        <v>145</v>
+        <v>102</v>
       </c>
       <c r="AE25" s="3" t="s">
-        <v>145</v>
+        <v>102</v>
       </c>
       <c r="AF25" s="3" t="s">
-        <v>142</v>
+        <v>99</v>
       </c>
       <c r="AG25" s="3" t="s">
-        <v>145</v>
+        <v>102</v>
       </c>
     </row>
     <row r="26" spans="2:33" x14ac:dyDescent="0.15">
@@ -4373,13 +3993,13 @@
       <c r="G26" s="9"/>
       <c r="H26" s="8"/>
       <c r="M26" s="3" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="N26" s="3" t="s">
         <v>4</v>
       </c>
       <c r="O26" s="3" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="P26" s="3"/>
       <c r="Q26" s="6">
@@ -4389,15 +4009,15 @@
       <c r="S26" s="3"/>
       <c r="T26" s="3"/>
       <c r="U26" s="3" t="s">
-        <v>137</v>
+        <v>94</v>
       </c>
       <c r="V26" s="3"/>
       <c r="W26" s="3"/>
       <c r="X26" s="3" t="s">
-        <v>158</v>
+        <v>104</v>
       </c>
       <c r="Y26" s="3" t="s">
-        <v>158</v>
+        <v>104</v>
       </c>
       <c r="Z26" s="3"/>
       <c r="AA26" s="3"/>
@@ -4417,65 +4037,65 @@
       <c r="G27" s="8"/>
       <c r="H27" s="8"/>
       <c r="M27" s="3" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="N27" s="3" t="s">
         <v>4</v>
       </c>
       <c r="O27" s="3" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="P27" s="3"/>
       <c r="Q27" s="6">
         <v>1</v>
       </c>
       <c r="R27" s="3" t="s">
-        <v>137</v>
+        <v>94</v>
       </c>
       <c r="S27" s="3" t="s">
-        <v>136</v>
+        <v>93</v>
       </c>
       <c r="T27" s="3" t="s">
-        <v>137</v>
+        <v>94</v>
       </c>
       <c r="U27" s="3"/>
       <c r="V27" s="3" t="s">
-        <v>137</v>
+        <v>94</v>
       </c>
       <c r="W27" s="3" t="s">
-        <v>137</v>
+        <v>94</v>
       </c>
       <c r="X27" s="3"/>
       <c r="Y27" s="3"/>
       <c r="Z27" s="3" t="s">
-        <v>138</v>
+        <v>95</v>
       </c>
       <c r="AA27" s="3" t="s">
-        <v>137</v>
+        <v>94</v>
       </c>
       <c r="AB27" s="3" t="s">
-        <v>137</v>
+        <v>94</v>
       </c>
       <c r="AC27" s="3" t="s">
         <v>12</v>
       </c>
       <c r="AD27" s="3" t="s">
-        <v>138</v>
+        <v>95</v>
       </c>
       <c r="AE27" s="3" t="s">
         <v>12</v>
       </c>
       <c r="AF27" s="3" t="s">
-        <v>137</v>
+        <v>94</v>
       </c>
       <c r="AG27" s="3" t="s">
-        <v>137</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="C4:D6 M10:P27">
-    <cfRule type="expression" dxfId="9" priority="3">
+    <cfRule type="expression" dxfId="3" priority="3">
       <formula>C4=C3</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4517,91 +4137,91 @@
     </row>
     <row r="3" spans="2:42" x14ac:dyDescent="0.15">
       <c r="C3" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>14</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>13</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="2:42" x14ac:dyDescent="0.15">
       <c r="C4" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G4" s="6"/>
       <c r="H4" s="6" t="s">
-        <v>179</v>
+        <v>112</v>
       </c>
       <c r="I4" s="6"/>
       <c r="J4" s="6" t="s">
-        <v>135</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="2:42" x14ac:dyDescent="0.15">
       <c r="C5" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>3</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>202</v>
+        <v>135</v>
       </c>
       <c r="H5" s="6" t="s">
         <v>9</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J5" s="6"/>
     </row>
     <row r="6" spans="2:42" x14ac:dyDescent="0.15">
       <c r="C6" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>3</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>108</v>
+        <v>65</v>
       </c>
       <c r="H6" s="6" t="s">
         <v>10</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>180</v>
+        <v>113</v>
       </c>
       <c r="J6" s="6"/>
     </row>
@@ -4617,21 +4237,21 @@
     </row>
     <row r="8" spans="2:42" x14ac:dyDescent="0.15">
       <c r="L8" s="10" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="2:42" x14ac:dyDescent="0.15">
       <c r="M9" s="11" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="N9" s="4" t="s">
         <v>1</v>
       </c>
       <c r="O9" s="4" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="P9" s="4" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="Q9" s="4" t="s">
         <v>2</v>
@@ -4714,13 +4334,13 @@
     </row>
     <row r="10" spans="2:42" x14ac:dyDescent="0.15">
       <c r="M10" s="3" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="N10" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O10" s="3" t="s">
-        <v>182</v>
+        <v>115</v>
       </c>
       <c r="P10" s="3">
         <v>0</v>
@@ -4729,19 +4349,19 @@
         <v>0</v>
       </c>
       <c r="R10" s="3" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="S10" s="3" t="s">
-        <v>162</v>
+        <v>107</v>
       </c>
       <c r="T10" s="3" t="s">
-        <v>162</v>
+        <v>107</v>
       </c>
       <c r="U10" s="3" t="s">
-        <v>161</v>
+        <v>106</v>
       </c>
       <c r="V10" s="3" t="s">
-        <v>161</v>
+        <v>106</v>
       </c>
       <c r="W10" s="3"/>
       <c r="X10" s="3"/>
@@ -4773,16 +4393,16 @@
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
       <c r="M11" s="3" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="N11" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O11" s="3" t="s">
-        <v>182</v>
+        <v>115</v>
       </c>
       <c r="P11" s="3" t="s">
-        <v>181</v>
+        <v>114</v>
       </c>
       <c r="Q11" s="6">
         <v>1</v>
@@ -4793,19 +4413,19 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3" t="s">
-        <v>198</v>
+        <v>131</v>
       </c>
       <c r="X11" s="3" t="s">
-        <v>199</v>
+        <v>132</v>
       </c>
       <c r="Y11" s="3" t="s">
-        <v>160</v>
+        <v>105</v>
       </c>
       <c r="Z11" s="3" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="AA11" s="3" t="s">
-        <v>160</v>
+        <v>105</v>
       </c>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
@@ -4832,16 +4452,16 @@
       <c r="G12" s="9"/>
       <c r="H12" s="8"/>
       <c r="M12" s="3" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="N12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O12" s="3" t="s">
-        <v>182</v>
+        <v>115</v>
       </c>
       <c r="P12" s="3" t="s">
-        <v>181</v>
+        <v>114</v>
       </c>
       <c r="Q12" s="6">
         <v>-1</v>
@@ -4857,19 +4477,19 @@
       <c r="Z12" s="3"/>
       <c r="AA12" s="3"/>
       <c r="AB12" s="3" t="s">
-        <v>198</v>
+        <v>131</v>
       </c>
       <c r="AC12" s="3" t="s">
-        <v>199</v>
+        <v>132</v>
       </c>
       <c r="AD12" s="3" t="s">
-        <v>160</v>
+        <v>105</v>
       </c>
       <c r="AE12" s="3" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="AF12" s="3" t="s">
-        <v>160</v>
+        <v>105</v>
       </c>
       <c r="AG12" s="3"/>
       <c r="AH12" s="3"/>
@@ -4891,16 +4511,16 @@
       <c r="G13" s="9"/>
       <c r="H13" s="8"/>
       <c r="M13" s="3" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="N13" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O13" s="3" t="s">
-        <v>112</v>
+        <v>69</v>
       </c>
       <c r="P13" s="3" t="s">
-        <v>181</v>
+        <v>114</v>
       </c>
       <c r="Q13" s="6">
         <v>2</v>
@@ -4921,19 +4541,19 @@
       <c r="AE13" s="3"/>
       <c r="AF13" s="3"/>
       <c r="AG13" s="3" t="s">
-        <v>198</v>
+        <v>131</v>
       </c>
       <c r="AH13" s="3" t="s">
-        <v>199</v>
+        <v>132</v>
       </c>
       <c r="AI13" s="3" t="s">
-        <v>160</v>
+        <v>105</v>
       </c>
       <c r="AJ13" s="3" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="AK13" s="3" t="s">
-        <v>160</v>
+        <v>105</v>
       </c>
       <c r="AL13" s="3"/>
       <c r="AM13" s="3"/>
@@ -4950,16 +4570,16 @@
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
       <c r="M14" s="3" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O14" s="3" t="s">
-        <v>182</v>
+        <v>115</v>
       </c>
       <c r="P14" s="3" t="s">
-        <v>181</v>
+        <v>114</v>
       </c>
       <c r="Q14" s="6">
         <v>-2</v>
@@ -4985,19 +4605,19 @@
       <c r="AJ14" s="3"/>
       <c r="AK14" s="3"/>
       <c r="AL14" s="3" t="s">
-        <v>198</v>
+        <v>131</v>
       </c>
       <c r="AM14" s="3" t="s">
-        <v>199</v>
+        <v>132</v>
       </c>
       <c r="AN14" s="3" t="s">
-        <v>160</v>
+        <v>105</v>
       </c>
       <c r="AO14" s="3" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="AP14" s="3" t="s">
-        <v>160</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15" spans="2:42" x14ac:dyDescent="0.15">
@@ -5009,13 +4629,13 @@
       <c r="G15" s="8"/>
       <c r="H15" s="8"/>
       <c r="M15" s="3" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="N15" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O15" s="3" t="s">
-        <v>183</v>
+        <v>116</v>
       </c>
       <c r="P15" s="3">
         <v>0</v>
@@ -5024,35 +4644,35 @@
         <v>0</v>
       </c>
       <c r="R15" s="3" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="S15" s="3"/>
       <c r="T15" s="3"/>
       <c r="U15" s="3"/>
       <c r="V15" s="3"/>
       <c r="W15" s="3" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="X15" s="3"/>
       <c r="Y15" s="3"/>
       <c r="Z15" s="3"/>
       <c r="AA15" s="3"/>
       <c r="AB15" s="3" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="AC15" s="3"/>
       <c r="AD15" s="3"/>
       <c r="AE15" s="3"/>
       <c r="AF15" s="3"/>
       <c r="AG15" s="3" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="AH15" s="3"/>
       <c r="AI15" s="3"/>
       <c r="AJ15" s="3"/>
       <c r="AK15" s="3"/>
       <c r="AL15" s="3" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="AM15" s="3"/>
       <c r="AN15" s="3"/>
@@ -5068,51 +4688,51 @@
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
       <c r="M16" s="3" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="N16" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O16" s="3" t="s">
-        <v>184</v>
+        <v>117</v>
       </c>
       <c r="P16" s="3" t="s">
-        <v>181</v>
+        <v>114</v>
       </c>
       <c r="Q16" s="6">
         <v>1</v>
       </c>
       <c r="R16" s="3"/>
       <c r="S16" s="3" t="s">
-        <v>195</v>
+        <v>128</v>
       </c>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3" t="s">
-        <v>195</v>
+        <v>128</v>
       </c>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3" t="s">
-        <v>195</v>
+        <v>128</v>
       </c>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
       <c r="AF16" s="3"/>
       <c r="AG16" s="3"/>
       <c r="AH16" s="3" t="s">
-        <v>195</v>
+        <v>128</v>
       </c>
       <c r="AI16" s="3"/>
       <c r="AJ16" s="3"/>
       <c r="AK16" s="3"/>
       <c r="AL16" s="3"/>
       <c r="AM16" s="3" t="s">
-        <v>195</v>
+        <v>128</v>
       </c>
       <c r="AN16" s="3"/>
       <c r="AO16" s="3"/>
@@ -5127,16 +4747,16 @@
       <c r="G17" s="8"/>
       <c r="H17" s="8"/>
       <c r="M17" s="3" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="N17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O17" s="3" t="s">
-        <v>185</v>
+        <v>118</v>
       </c>
       <c r="P17" s="3" t="s">
-        <v>181</v>
+        <v>114</v>
       </c>
       <c r="Q17" s="6">
         <v>-1</v>
@@ -5144,35 +4764,35 @@
       <c r="R17" s="3"/>
       <c r="S17" s="3"/>
       <c r="T17" s="3" t="s">
-        <v>196</v>
+        <v>129</v>
       </c>
       <c r="U17" s="3"/>
       <c r="V17" s="3"/>
       <c r="W17" s="3"/>
       <c r="X17" s="3"/>
       <c r="Y17" s="3" t="s">
-        <v>196</v>
+        <v>129</v>
       </c>
       <c r="Z17" s="3"/>
       <c r="AA17" s="3"/>
       <c r="AB17" s="3"/>
       <c r="AC17" s="3"/>
       <c r="AD17" s="3" t="s">
-        <v>196</v>
+        <v>129</v>
       </c>
       <c r="AE17" s="3"/>
       <c r="AF17" s="3"/>
       <c r="AG17" s="3"/>
       <c r="AH17" s="3"/>
       <c r="AI17" s="3" t="s">
-        <v>196</v>
+        <v>129</v>
       </c>
       <c r="AJ17" s="3"/>
       <c r="AK17" s="3"/>
       <c r="AL17" s="3"/>
       <c r="AM17" s="3"/>
       <c r="AN17" s="3" t="s">
-        <v>196</v>
+        <v>129</v>
       </c>
       <c r="AO17" s="3"/>
       <c r="AP17" s="3"/>
@@ -5186,16 +4806,16 @@
       <c r="G18" s="8"/>
       <c r="H18" s="8"/>
       <c r="M18" s="3" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O18" s="3" t="s">
-        <v>185</v>
+        <v>118</v>
       </c>
       <c r="P18" s="3" t="s">
-        <v>181</v>
+        <v>114</v>
       </c>
       <c r="Q18" s="6">
         <v>2</v>
@@ -5204,35 +4824,35 @@
       <c r="S18" s="3"/>
       <c r="T18" s="3"/>
       <c r="U18" s="3" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="V18" s="3"/>
       <c r="W18" s="3"/>
       <c r="X18" s="3"/>
       <c r="Y18" s="3"/>
       <c r="Z18" s="3" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="AA18" s="3"/>
       <c r="AB18" s="3"/>
       <c r="AC18" s="3"/>
       <c r="AD18" s="3"/>
       <c r="AE18" s="3" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="AF18" s="3"/>
       <c r="AG18" s="3"/>
       <c r="AH18" s="3"/>
       <c r="AI18" s="3"/>
       <c r="AJ18" s="3" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="AK18" s="3"/>
       <c r="AL18" s="3"/>
       <c r="AM18" s="3"/>
       <c r="AN18" s="3"/>
       <c r="AO18" s="3" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="AP18" s="3"/>
     </row>
@@ -5245,16 +4865,16 @@
       <c r="G19" s="8"/>
       <c r="H19" s="8"/>
       <c r="M19" s="3" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="N19" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O19" s="3" t="s">
-        <v>185</v>
+        <v>118</v>
       </c>
       <c r="P19" s="3" t="s">
-        <v>181</v>
+        <v>114</v>
       </c>
       <c r="Q19" s="6">
         <v>-2</v>
@@ -5264,35 +4884,35 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3" t="s">
-        <v>160</v>
+        <v>105</v>
       </c>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3" t="s">
-        <v>160</v>
+        <v>105</v>
       </c>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
       <c r="AF19" s="3" t="s">
-        <v>160</v>
+        <v>105</v>
       </c>
       <c r="AG19" s="3"/>
       <c r="AH19" s="3"/>
       <c r="AI19" s="3"/>
       <c r="AJ19" s="3"/>
       <c r="AK19" s="3" t="s">
-        <v>160</v>
+        <v>105</v>
       </c>
       <c r="AL19" s="3"/>
       <c r="AM19" s="3"/>
       <c r="AN19" s="3"/>
       <c r="AO19" s="3"/>
       <c r="AP19" s="3" t="s">
-        <v>160</v>
+        <v>105</v>
       </c>
     </row>
     <row r="20" spans="2:42" x14ac:dyDescent="0.15">
@@ -5304,94 +4924,94 @@
       <c r="G20" s="8"/>
       <c r="H20" s="8"/>
       <c r="M20" s="3" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="N20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O20" s="3" t="s">
-        <v>113</v>
+        <v>70</v>
       </c>
       <c r="P20" s="3" t="s">
-        <v>96</v>
+        <v>62</v>
       </c>
       <c r="Q20" s="6" t="s">
-        <v>186</v>
+        <v>119</v>
       </c>
       <c r="R20" s="3" t="s">
-        <v>160</v>
+        <v>105</v>
       </c>
       <c r="S20" s="3" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="T20" s="3" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="U20" s="3" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="V20" s="3" t="s">
-        <v>161</v>
+        <v>106</v>
       </c>
       <c r="W20" s="3" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="X20" s="3" t="s">
-        <v>160</v>
+        <v>105</v>
       </c>
       <c r="Y20" s="3" t="s">
-        <v>160</v>
+        <v>105</v>
       </c>
       <c r="Z20" s="3" t="s">
-        <v>160</v>
+        <v>105</v>
       </c>
       <c r="AA20" s="3" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="AB20" s="3" t="s">
-        <v>160</v>
+        <v>105</v>
       </c>
       <c r="AC20" s="3" t="s">
-        <v>160</v>
+        <v>105</v>
       </c>
       <c r="AD20" s="3" t="s">
-        <v>161</v>
+        <v>106</v>
       </c>
       <c r="AE20" s="3" t="s">
-        <v>160</v>
+        <v>105</v>
       </c>
       <c r="AF20" s="3" t="s">
-        <v>161</v>
+        <v>106</v>
       </c>
       <c r="AG20" s="3" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="AH20" s="3" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="AI20" s="3" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="AJ20" s="3" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="AK20" s="3" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="AL20" s="3" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="AM20" s="3" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="AN20" s="3" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="AO20" s="3" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="AP20" s="3" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="2:42" x14ac:dyDescent="0.15">
@@ -5403,94 +5023,94 @@
       <c r="G21" s="8"/>
       <c r="H21" s="8"/>
       <c r="M21" s="3" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O21" s="3" t="s">
-        <v>187</v>
+        <v>120</v>
       </c>
       <c r="P21" s="3" t="s">
-        <v>96</v>
+        <v>62</v>
       </c>
       <c r="Q21" s="6" t="s">
-        <v>188</v>
+        <v>121</v>
       </c>
       <c r="R21" s="3" t="s">
-        <v>160</v>
+        <v>105</v>
       </c>
       <c r="S21" s="3" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="T21" s="3" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="U21" s="3" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="V21" s="3" t="s">
-        <v>161</v>
+        <v>106</v>
       </c>
       <c r="W21" s="3" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="X21" s="3" t="s">
-        <v>160</v>
+        <v>105</v>
       </c>
       <c r="Y21" s="3" t="s">
-        <v>160</v>
+        <v>105</v>
       </c>
       <c r="Z21" s="3" t="s">
-        <v>160</v>
+        <v>105</v>
       </c>
       <c r="AA21" s="3" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="AB21" s="3" t="s">
-        <v>160</v>
+        <v>105</v>
       </c>
       <c r="AC21" s="3" t="s">
-        <v>160</v>
+        <v>105</v>
       </c>
       <c r="AD21" s="3" t="s">
-        <v>161</v>
+        <v>106</v>
       </c>
       <c r="AE21" s="3" t="s">
-        <v>160</v>
+        <v>105</v>
       </c>
       <c r="AF21" s="3" t="s">
-        <v>161</v>
+        <v>106</v>
       </c>
       <c r="AG21" s="3" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="AH21" s="3" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="AI21" s="3" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="AJ21" s="3" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="AK21" s="3" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="AL21" s="3" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="AM21" s="3" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="AN21" s="3" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="AO21" s="3" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="AP21" s="3" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="2:42" x14ac:dyDescent="0.15">
@@ -5502,20 +5122,20 @@
       <c r="G22" s="8"/>
       <c r="H22" s="8"/>
       <c r="M22" s="3" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="N22" s="3" t="s">
         <v>4</v>
       </c>
       <c r="O22" s="3" t="s">
-        <v>189</v>
+        <v>122</v>
       </c>
       <c r="P22" s="3"/>
       <c r="Q22" s="6">
         <v>0</v>
       </c>
       <c r="R22" s="3" t="s">
-        <v>197</v>
+        <v>130</v>
       </c>
       <c r="S22" s="3"/>
       <c r="T22" s="3"/>
@@ -5524,13 +5144,13 @@
       <c r="W22" s="3"/>
       <c r="X22" s="3"/>
       <c r="Y22" s="3" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="Z22" s="3"/>
       <c r="AA22" s="3"/>
       <c r="AB22" s="3"/>
       <c r="AC22" s="3" t="s">
-        <v>160</v>
+        <v>105</v>
       </c>
       <c r="AD22" s="3"/>
       <c r="AE22" s="3"/>
@@ -5540,13 +5160,13 @@
       <c r="AI22" s="3"/>
       <c r="AJ22" s="3"/>
       <c r="AK22" s="3" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="AL22" s="3"/>
       <c r="AM22" s="3"/>
       <c r="AN22" s="3"/>
       <c r="AO22" s="3" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="AP22" s="3"/>
     </row>
@@ -5559,13 +5179,13 @@
       <c r="G23" s="8"/>
       <c r="H23" s="8"/>
       <c r="M23" s="3" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="N23" s="3" t="s">
         <v>4</v>
       </c>
       <c r="O23" s="3" t="s">
-        <v>190</v>
+        <v>123</v>
       </c>
       <c r="P23" s="3"/>
       <c r="Q23" s="6">
@@ -5573,13 +5193,13 @@
       </c>
       <c r="R23" s="3"/>
       <c r="S23" s="3" t="s">
-        <v>196</v>
+        <v>129</v>
       </c>
       <c r="T23" s="3"/>
       <c r="U23" s="3"/>
       <c r="V23" s="3"/>
       <c r="W23" s="3" t="s">
-        <v>160</v>
+        <v>105</v>
       </c>
       <c r="X23" s="3"/>
       <c r="Y23" s="3"/>
@@ -5589,13 +5209,13 @@
       <c r="AC23" s="3"/>
       <c r="AD23" s="3"/>
       <c r="AE23" s="3" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="AF23" s="3"/>
       <c r="AG23" s="3"/>
       <c r="AH23" s="3"/>
       <c r="AI23" s="3" t="s">
-        <v>160</v>
+        <v>105</v>
       </c>
       <c r="AJ23" s="3"/>
       <c r="AK23" s="3"/>
@@ -5614,13 +5234,13 @@
       <c r="G24" s="8"/>
       <c r="H24" s="8"/>
       <c r="M24" s="3" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="N24" s="3" t="s">
         <v>4</v>
       </c>
       <c r="O24" s="3" t="s">
-        <v>189</v>
+        <v>122</v>
       </c>
       <c r="P24" s="3"/>
       <c r="Q24" s="6">
@@ -5629,7 +5249,7 @@
       <c r="R24" s="3"/>
       <c r="S24" s="3"/>
       <c r="T24" s="3" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="U24" s="3"/>
       <c r="V24" s="3"/>
@@ -5638,10 +5258,10 @@
       <c r="Y24" s="3"/>
       <c r="Z24" s="3"/>
       <c r="AA24" s="3" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="AB24" s="3" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="AC24" s="3"/>
       <c r="AD24" s="3"/>
@@ -5654,7 +5274,7 @@
       <c r="AK24" s="3"/>
       <c r="AL24" s="3"/>
       <c r="AM24" s="3" t="s">
-        <v>160</v>
+        <v>105</v>
       </c>
       <c r="AN24" s="3"/>
       <c r="AO24" s="3"/>
@@ -5662,13 +5282,13 @@
     </row>
     <row r="25" spans="2:42" x14ac:dyDescent="0.15">
       <c r="M25" s="3" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="N25" s="3" t="s">
         <v>4</v>
       </c>
       <c r="O25" s="3" t="s">
-        <v>189</v>
+        <v>122</v>
       </c>
       <c r="P25" s="3"/>
       <c r="Q25" s="7">
@@ -5678,12 +5298,12 @@
       <c r="S25" s="3"/>
       <c r="T25" s="3"/>
       <c r="U25" s="3" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="V25" s="3"/>
       <c r="W25" s="3"/>
       <c r="X25" s="3" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="Y25" s="3"/>
       <c r="Z25" s="3"/>
@@ -5694,7 +5314,7 @@
       <c r="AE25" s="3"/>
       <c r="AF25" s="3"/>
       <c r="AG25" s="3" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="AH25" s="3"/>
       <c r="AI25" s="3"/>
@@ -5708,13 +5328,13 @@
     </row>
     <row r="26" spans="2:42" x14ac:dyDescent="0.15">
       <c r="M26" s="3" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="N26" s="3" t="s">
         <v>4</v>
       </c>
       <c r="O26" s="3" t="s">
-        <v>189</v>
+        <v>122</v>
       </c>
       <c r="P26" s="3"/>
       <c r="Q26" s="7">
@@ -5725,7 +5345,7 @@
       <c r="T26" s="3"/>
       <c r="U26" s="3"/>
       <c r="V26" s="3" t="s">
-        <v>195</v>
+        <v>128</v>
       </c>
       <c r="W26" s="3"/>
       <c r="X26" s="3"/>
@@ -5735,7 +5355,7 @@
       <c r="AB26" s="3"/>
       <c r="AC26" s="3"/>
       <c r="AD26" s="3" t="s">
-        <v>198</v>
+        <v>131</v>
       </c>
       <c r="AE26" s="3"/>
       <c r="AF26" s="3"/>
@@ -5745,7 +5365,7 @@
       <c r="AJ26" s="3"/>
       <c r="AK26" s="3"/>
       <c r="AL26" s="3" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="AM26" s="3"/>
       <c r="AN26" s="3"/>
@@ -5754,13 +5374,13 @@
     </row>
     <row r="27" spans="2:42" x14ac:dyDescent="0.15">
       <c r="M27" s="3" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="N27" s="3" t="s">
         <v>4</v>
       </c>
       <c r="O27" s="3" t="s">
-        <v>190</v>
+        <v>123</v>
       </c>
       <c r="P27" s="3"/>
       <c r="Q27" s="7">
@@ -5775,7 +5395,7 @@
       <c r="X27" s="3"/>
       <c r="Y27" s="3"/>
       <c r="Z27" s="3" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="AA27" s="3"/>
       <c r="AB27" s="3"/>
@@ -5785,7 +5405,7 @@
       <c r="AF27" s="3"/>
       <c r="AG27" s="3"/>
       <c r="AH27" s="3" t="s">
-        <v>160</v>
+        <v>105</v>
       </c>
       <c r="AI27" s="3"/>
       <c r="AJ27" s="3"/>
@@ -5798,13 +5418,13 @@
     </row>
     <row r="28" spans="2:42" x14ac:dyDescent="0.15">
       <c r="M28" s="3" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="N28" s="3" t="s">
         <v>4</v>
       </c>
       <c r="O28" s="3" t="s">
-        <v>189</v>
+        <v>122</v>
       </c>
       <c r="P28" s="6"/>
       <c r="Q28" s="6">
@@ -5825,7 +5445,7 @@
       <c r="AD28" s="6"/>
       <c r="AE28" s="6"/>
       <c r="AF28" s="6" t="s">
-        <v>160</v>
+        <v>105</v>
       </c>
       <c r="AG28" s="6"/>
       <c r="AH28" s="6"/>
@@ -5835,20 +5455,20 @@
       <c r="AL28" s="6"/>
       <c r="AM28" s="6"/>
       <c r="AN28" s="6" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="AO28" s="6"/>
       <c r="AP28" s="6"/>
     </row>
     <row r="29" spans="2:42" x14ac:dyDescent="0.15">
       <c r="M29" s="3" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>4</v>
       </c>
       <c r="O29" s="3" t="s">
-        <v>200</v>
+        <v>133</v>
       </c>
       <c r="P29" s="6"/>
       <c r="Q29" s="6">
@@ -5873,7 +5493,7 @@
       <c r="AH29" s="6"/>
       <c r="AI29" s="6"/>
       <c r="AJ29" s="6" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="AK29" s="6"/>
       <c r="AL29" s="6"/>
@@ -5884,13 +5504,13 @@
     </row>
     <row r="30" spans="2:42" x14ac:dyDescent="0.15">
       <c r="M30" s="3" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="N30" s="3" t="s">
         <v>4</v>
       </c>
       <c r="O30" s="3" t="s">
-        <v>190</v>
+        <v>123</v>
       </c>
       <c r="P30" s="6"/>
       <c r="Q30" s="6">
@@ -5921,37 +5541,37 @@
       <c r="AN30" s="6"/>
       <c r="AO30" s="6"/>
       <c r="AP30" s="6" t="s">
-        <v>201</v>
+        <v>134</v>
       </c>
     </row>
     <row r="31" spans="2:42" x14ac:dyDescent="0.15">
       <c r="M31" s="3" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="N31" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O31" s="3" t="s">
-        <v>191</v>
+        <v>124</v>
       </c>
       <c r="P31" s="6"/>
       <c r="Q31" s="6">
         <v>0</v>
       </c>
       <c r="R31" s="3" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="S31" s="3" t="s">
-        <v>162</v>
+        <v>107</v>
       </c>
       <c r="T31" s="3" t="s">
-        <v>162</v>
+        <v>107</v>
       </c>
       <c r="U31" s="3" t="s">
-        <v>161</v>
+        <v>106</v>
       </c>
       <c r="V31" s="3" t="s">
-        <v>161</v>
+        <v>106</v>
       </c>
       <c r="W31" s="3"/>
       <c r="X31" s="3"/>
@@ -5976,13 +5596,13 @@
     </row>
     <row r="32" spans="2:42" x14ac:dyDescent="0.15">
       <c r="M32" s="3" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="N32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O32" s="3" t="s">
-        <v>93</v>
+        <v>61</v>
       </c>
       <c r="P32" s="6"/>
       <c r="Q32" s="6">
@@ -5994,19 +5614,19 @@
       <c r="U32" s="3"/>
       <c r="V32" s="3"/>
       <c r="W32" s="3" t="s">
-        <v>198</v>
+        <v>131</v>
       </c>
       <c r="X32" s="3" t="s">
-        <v>199</v>
+        <v>132</v>
       </c>
       <c r="Y32" s="3" t="s">
-        <v>160</v>
+        <v>105</v>
       </c>
       <c r="Z32" s="3" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="AA32" s="3" t="s">
-        <v>160</v>
+        <v>105</v>
       </c>
       <c r="AB32" s="3"/>
       <c r="AC32" s="3"/>
@@ -6026,13 +5646,13 @@
     </row>
     <row r="33" spans="13:42" x14ac:dyDescent="0.15">
       <c r="M33" s="3" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="N33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O33" s="3" t="s">
-        <v>93</v>
+        <v>61</v>
       </c>
       <c r="P33" s="6"/>
       <c r="Q33" s="6">
@@ -6049,19 +5669,19 @@
       <c r="Z33" s="3"/>
       <c r="AA33" s="3"/>
       <c r="AB33" s="3" t="s">
-        <v>198</v>
+        <v>131</v>
       </c>
       <c r="AC33" s="3" t="s">
-        <v>199</v>
+        <v>132</v>
       </c>
       <c r="AD33" s="3" t="s">
-        <v>160</v>
+        <v>105</v>
       </c>
       <c r="AE33" s="3" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="AF33" s="3" t="s">
-        <v>160</v>
+        <v>105</v>
       </c>
       <c r="AG33" s="3"/>
       <c r="AH33" s="3"/>
@@ -6076,13 +5696,13 @@
     </row>
     <row r="34" spans="13:42" x14ac:dyDescent="0.15">
       <c r="M34" s="3" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="N34" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O34" s="3" t="s">
-        <v>93</v>
+        <v>61</v>
       </c>
       <c r="P34" s="6"/>
       <c r="Q34" s="6">
@@ -6104,19 +5724,19 @@
       <c r="AE34" s="3"/>
       <c r="AF34" s="3"/>
       <c r="AG34" s="3" t="s">
-        <v>198</v>
+        <v>131</v>
       </c>
       <c r="AH34" s="3" t="s">
-        <v>199</v>
+        <v>132</v>
       </c>
       <c r="AI34" s="3" t="s">
-        <v>160</v>
+        <v>105</v>
       </c>
       <c r="AJ34" s="3" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="AK34" s="3" t="s">
-        <v>160</v>
+        <v>105</v>
       </c>
       <c r="AL34" s="3"/>
       <c r="AM34" s="3"/>
@@ -6126,13 +5746,13 @@
     </row>
     <row r="35" spans="13:42" x14ac:dyDescent="0.15">
       <c r="M35" s="3" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="N35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O35" s="3" t="s">
-        <v>192</v>
+        <v>125</v>
       </c>
       <c r="P35" s="6"/>
       <c r="Q35" s="6">
@@ -6159,65 +5779,65 @@
       <c r="AJ35" s="3"/>
       <c r="AK35" s="3"/>
       <c r="AL35" s="3" t="s">
-        <v>198</v>
+        <v>131</v>
       </c>
       <c r="AM35" s="3" t="s">
-        <v>199</v>
+        <v>132</v>
       </c>
       <c r="AN35" s="3" t="s">
-        <v>160</v>
+        <v>105</v>
       </c>
       <c r="AO35" s="3" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="AP35" s="3" t="s">
-        <v>160</v>
+        <v>105</v>
       </c>
     </row>
     <row r="36" spans="13:42" x14ac:dyDescent="0.15">
       <c r="M36" s="3" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="N36" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O36" s="3" t="s">
-        <v>193</v>
+        <v>126</v>
       </c>
       <c r="P36" s="6"/>
       <c r="Q36" s="6">
         <v>0</v>
       </c>
       <c r="R36" s="3" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="S36" s="3"/>
       <c r="T36" s="3"/>
       <c r="U36" s="3"/>
       <c r="V36" s="3"/>
       <c r="W36" s="3" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="X36" s="3"/>
       <c r="Y36" s="3"/>
       <c r="Z36" s="3"/>
       <c r="AA36" s="3"/>
       <c r="AB36" s="3" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="AC36" s="3"/>
       <c r="AD36" s="3"/>
       <c r="AE36" s="3"/>
       <c r="AF36" s="3"/>
       <c r="AG36" s="3" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="AH36" s="3"/>
       <c r="AI36" s="3"/>
       <c r="AJ36" s="3"/>
       <c r="AK36" s="3"/>
       <c r="AL36" s="3" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="AM36" s="3"/>
       <c r="AN36" s="3"/>
@@ -6226,13 +5846,13 @@
     </row>
     <row r="37" spans="13:42" x14ac:dyDescent="0.15">
       <c r="M37" s="3" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="N37" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O37" s="3" t="s">
-        <v>193</v>
+        <v>126</v>
       </c>
       <c r="P37" s="6"/>
       <c r="Q37" s="6">
@@ -6240,35 +5860,35 @@
       </c>
       <c r="R37" s="3"/>
       <c r="S37" s="3" t="s">
-        <v>195</v>
+        <v>128</v>
       </c>
       <c r="T37" s="3"/>
       <c r="U37" s="3"/>
       <c r="V37" s="3"/>
       <c r="W37" s="3"/>
       <c r="X37" s="3" t="s">
-        <v>195</v>
+        <v>128</v>
       </c>
       <c r="Y37" s="3"/>
       <c r="Z37" s="3"/>
       <c r="AA37" s="3"/>
       <c r="AB37" s="3"/>
       <c r="AC37" s="3" t="s">
-        <v>195</v>
+        <v>128</v>
       </c>
       <c r="AD37" s="3"/>
       <c r="AE37" s="3"/>
       <c r="AF37" s="3"/>
       <c r="AG37" s="3"/>
       <c r="AH37" s="3" t="s">
-        <v>195</v>
+        <v>128</v>
       </c>
       <c r="AI37" s="3"/>
       <c r="AJ37" s="3"/>
       <c r="AK37" s="3"/>
       <c r="AL37" s="3"/>
       <c r="AM37" s="3" t="s">
-        <v>195</v>
+        <v>128</v>
       </c>
       <c r="AN37" s="3"/>
       <c r="AO37" s="3"/>
@@ -6276,13 +5896,13 @@
     </row>
     <row r="38" spans="13:42" x14ac:dyDescent="0.15">
       <c r="M38" s="3" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="N38" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O38" s="3" t="s">
-        <v>193</v>
+        <v>126</v>
       </c>
       <c r="P38" s="6"/>
       <c r="Q38" s="6">
@@ -6291,48 +5911,48 @@
       <c r="R38" s="3"/>
       <c r="S38" s="3"/>
       <c r="T38" s="3" t="s">
-        <v>196</v>
+        <v>129</v>
       </c>
       <c r="U38" s="3"/>
       <c r="V38" s="3"/>
       <c r="W38" s="3"/>
       <c r="X38" s="3"/>
       <c r="Y38" s="3" t="s">
-        <v>196</v>
+        <v>129</v>
       </c>
       <c r="Z38" s="3"/>
       <c r="AA38" s="3"/>
       <c r="AB38" s="3"/>
       <c r="AC38" s="3"/>
       <c r="AD38" s="3" t="s">
-        <v>196</v>
+        <v>129</v>
       </c>
       <c r="AE38" s="3"/>
       <c r="AF38" s="3"/>
       <c r="AG38" s="3"/>
       <c r="AH38" s="3"/>
       <c r="AI38" s="3" t="s">
-        <v>196</v>
+        <v>129</v>
       </c>
       <c r="AJ38" s="3"/>
       <c r="AK38" s="3"/>
       <c r="AL38" s="3"/>
       <c r="AM38" s="3"/>
       <c r="AN38" s="3" t="s">
-        <v>196</v>
+        <v>129</v>
       </c>
       <c r="AO38" s="3"/>
       <c r="AP38" s="3"/>
     </row>
     <row r="39" spans="13:42" x14ac:dyDescent="0.15">
       <c r="M39" s="3" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="N39" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O39" s="3" t="s">
-        <v>194</v>
+        <v>127</v>
       </c>
       <c r="P39" s="6"/>
       <c r="Q39" s="6">
@@ -6342,47 +5962,47 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="AF39" s="3"/>
       <c r="AG39" s="3"/>
       <c r="AH39" s="3"/>
       <c r="AI39" s="3"/>
       <c r="AJ39" s="3" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="AK39" s="3"/>
       <c r="AL39" s="3"/>
       <c r="AM39" s="3"/>
       <c r="AN39" s="3"/>
       <c r="AO39" s="3" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="AP39" s="3"/>
     </row>
     <row r="40" spans="13:42" x14ac:dyDescent="0.15">
       <c r="M40" s="3" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="N40" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O40" s="3" t="s">
-        <v>193</v>
+        <v>126</v>
       </c>
       <c r="P40" s="6"/>
       <c r="Q40" s="6">
@@ -6393,2790 +6013,45 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3" t="s">
-        <v>160</v>
+        <v>105</v>
       </c>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3" t="s">
-        <v>160</v>
+        <v>105</v>
       </c>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
       <c r="AF40" s="3" t="s">
-        <v>160</v>
+        <v>105</v>
       </c>
       <c r="AG40" s="3"/>
       <c r="AH40" s="3"/>
       <c r="AI40" s="3"/>
       <c r="AJ40" s="3"/>
       <c r="AK40" s="3" t="s">
-        <v>160</v>
+        <v>105</v>
       </c>
       <c r="AL40" s="3"/>
       <c r="AM40" s="3"/>
       <c r="AN40" s="3"/>
       <c r="AO40" s="3"/>
       <c r="AP40" s="3" t="s">
-        <v>160</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="C4:D6 M10:P40">
-    <cfRule type="expression" dxfId="8" priority="1">
+    <cfRule type="expression" dxfId="2" priority="1">
       <formula>C4=C3</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:AG26"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="2.125" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="2" width="2.125" style="5"/>
-    <col min="3" max="3" width="10.875" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.125" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.875" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.125" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.625" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.375" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="2.125" style="5"/>
-    <col min="12" max="12" width="2.375" style="5" customWidth="1"/>
-    <col min="13" max="14" width="9.875" style="5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="24.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7" style="5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.375" style="5" bestFit="1" customWidth="1"/>
-    <col min="18" max="33" width="3" style="5" customWidth="1"/>
-    <col min="34" max="16384" width="2.125" style="5"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:33" x14ac:dyDescent="0.15">
-      <c r="B2" s="10" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="2:33" x14ac:dyDescent="0.15">
-      <c r="C3" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="2:33" x14ac:dyDescent="0.15">
-      <c r="C4" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="6"/>
-      <c r="F4" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="5" spans="2:33" x14ac:dyDescent="0.15">
-      <c r="C5" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="6"/>
-      <c r="F5" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="J5" s="6"/>
-    </row>
-    <row r="6" spans="2:33" x14ac:dyDescent="0.15">
-      <c r="C6" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" s="6"/>
-      <c r="F6" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="J6" s="6"/>
-    </row>
-    <row r="7" spans="2:33" x14ac:dyDescent="0.15">
-      <c r="C7" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="6"/>
-      <c r="F7" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-    </row>
-    <row r="8" spans="2:33" x14ac:dyDescent="0.15">
-      <c r="C8" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" s="6"/>
-      <c r="F8" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="J8" s="6"/>
-    </row>
-    <row r="9" spans="2:33" x14ac:dyDescent="0.15">
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-    </row>
-    <row r="10" spans="2:33" x14ac:dyDescent="0.15">
-      <c r="L10" s="10" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="11" spans="2:33" x14ac:dyDescent="0.15">
-      <c r="M11" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="N11" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="O11" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="P11" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q11" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="R11" s="4">
-        <v>1</v>
-      </c>
-      <c r="S11" s="4">
-        <v>2</v>
-      </c>
-      <c r="T11" s="4">
-        <v>3</v>
-      </c>
-      <c r="U11" s="4">
-        <v>4</v>
-      </c>
-      <c r="V11" s="4">
-        <v>5</v>
-      </c>
-      <c r="W11" s="4">
-        <v>6</v>
-      </c>
-      <c r="X11" s="4">
-        <v>7</v>
-      </c>
-      <c r="Y11" s="4">
-        <v>8</v>
-      </c>
-      <c r="Z11" s="4">
-        <v>9</v>
-      </c>
-      <c r="AA11" s="4">
-        <v>10</v>
-      </c>
-      <c r="AB11" s="4">
-        <v>11</v>
-      </c>
-      <c r="AC11" s="4">
-        <v>12</v>
-      </c>
-      <c r="AD11" s="4">
-        <v>13</v>
-      </c>
-      <c r="AE11" s="4">
-        <v>14</v>
-      </c>
-      <c r="AF11" s="4">
-        <v>15</v>
-      </c>
-      <c r="AG11" s="4">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="2:33" x14ac:dyDescent="0.15">
-      <c r="M12" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="N12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O12" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="P12" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q12" s="6">
-        <v>0</v>
-      </c>
-      <c r="R12" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="S12" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="T12" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="U12" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="V12" s="3"/>
-      <c r="W12" s="3"/>
-      <c r="X12" s="3"/>
-      <c r="Y12" s="3"/>
-      <c r="Z12" s="3"/>
-      <c r="AA12" s="3"/>
-      <c r="AB12" s="3"/>
-      <c r="AC12" s="3"/>
-      <c r="AD12" s="3"/>
-      <c r="AE12" s="3"/>
-      <c r="AF12" s="3"/>
-      <c r="AG12" s="3"/>
-    </row>
-    <row r="13" spans="2:33" x14ac:dyDescent="0.15">
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="M13" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="N13" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O13" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="P13" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q13" s="6">
-        <v>1</v>
-      </c>
-      <c r="R13" s="3"/>
-      <c r="S13" s="3"/>
-      <c r="T13" s="3"/>
-      <c r="U13" s="3"/>
-      <c r="V13" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="W13" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="X13" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="Y13" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="Z13" s="3"/>
-      <c r="AA13" s="3"/>
-      <c r="AB13" s="3"/>
-      <c r="AC13" s="3"/>
-      <c r="AD13" s="3"/>
-      <c r="AE13" s="3"/>
-      <c r="AF13" s="3"/>
-      <c r="AG13" s="3"/>
-    </row>
-    <row r="14" spans="2:33" x14ac:dyDescent="0.15">
-      <c r="B14" s="8"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="8"/>
-      <c r="M14" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q14" s="6">
-        <v>2</v>
-      </c>
-      <c r="R14" s="3"/>
-      <c r="S14" s="3"/>
-      <c r="T14" s="3"/>
-      <c r="U14" s="3"/>
-      <c r="V14" s="3"/>
-      <c r="W14" s="3"/>
-      <c r="X14" s="3"/>
-      <c r="Y14" s="3"/>
-      <c r="Z14" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="AA14" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="AB14" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="AC14" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="AD14" s="3"/>
-      <c r="AE14" s="3"/>
-      <c r="AF14" s="3"/>
-      <c r="AG14" s="3"/>
-    </row>
-    <row r="15" spans="2:33" x14ac:dyDescent="0.15">
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="M15" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="N15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O15" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="P15" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q15" s="6">
-        <v>3</v>
-      </c>
-      <c r="R15" s="3"/>
-      <c r="S15" s="3"/>
-      <c r="T15" s="3"/>
-      <c r="U15" s="3"/>
-      <c r="V15" s="3"/>
-      <c r="W15" s="3"/>
-      <c r="X15" s="3"/>
-      <c r="Y15" s="3"/>
-      <c r="Z15" s="3"/>
-      <c r="AA15" s="3"/>
-      <c r="AB15" s="3"/>
-      <c r="AC15" s="3"/>
-      <c r="AD15" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="AE15" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="AF15" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="AG15" s="3" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="16" spans="2:33" x14ac:dyDescent="0.15">
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="M16" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="N16" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O16" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="P16" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q16" s="6">
-        <v>0</v>
-      </c>
-      <c r="R16" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="S16" s="3"/>
-      <c r="T16" s="3"/>
-      <c r="U16" s="3"/>
-      <c r="V16" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="W16" s="3"/>
-      <c r="X16" s="3"/>
-      <c r="Y16" s="3"/>
-      <c r="Z16" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="AA16" s="3"/>
-      <c r="AB16" s="3"/>
-      <c r="AC16" s="3"/>
-      <c r="AD16" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="AE16" s="3"/>
-      <c r="AF16" s="3"/>
-      <c r="AG16" s="3"/>
-    </row>
-    <row r="17" spans="2:33" x14ac:dyDescent="0.15">
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="M17" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="N17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O17" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="P17" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q17" s="6">
-        <v>1</v>
-      </c>
-      <c r="R17" s="3"/>
-      <c r="S17" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="T17" s="3"/>
-      <c r="U17" s="3"/>
-      <c r="V17" s="3"/>
-      <c r="W17" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="X17" s="3"/>
-      <c r="Y17" s="3"/>
-      <c r="Z17" s="3"/>
-      <c r="AA17" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="AB17" s="3"/>
-      <c r="AC17" s="3"/>
-      <c r="AD17" s="3"/>
-      <c r="AE17" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="AF17" s="3"/>
-      <c r="AG17" s="3"/>
-    </row>
-    <row r="18" spans="2:33" x14ac:dyDescent="0.15">
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="M18" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="N18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O18" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="P18" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q18" s="6">
-        <v>2</v>
-      </c>
-      <c r="R18" s="3"/>
-      <c r="S18" s="3"/>
-      <c r="T18" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="U18" s="3"/>
-      <c r="V18" s="3"/>
-      <c r="W18" s="3"/>
-      <c r="X18" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="Y18" s="3"/>
-      <c r="Z18" s="3"/>
-      <c r="AA18" s="3"/>
-      <c r="AB18" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="AC18" s="3"/>
-      <c r="AD18" s="3"/>
-      <c r="AE18" s="3"/>
-      <c r="AF18" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="AG18" s="3"/>
-    </row>
-    <row r="19" spans="2:33" x14ac:dyDescent="0.15">
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="M19" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="N19" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O19" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="P19" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q19" s="6">
-        <v>3</v>
-      </c>
-      <c r="R19" s="3"/>
-      <c r="S19" s="3"/>
-      <c r="T19" s="3"/>
-      <c r="U19" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="V19" s="3"/>
-      <c r="W19" s="3"/>
-      <c r="X19" s="3"/>
-      <c r="Y19" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="Z19" s="3"/>
-      <c r="AA19" s="3"/>
-      <c r="AB19" s="3"/>
-      <c r="AC19" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="AD19" s="3"/>
-      <c r="AE19" s="3"/>
-      <c r="AF19" s="3"/>
-      <c r="AG19" s="3" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="20" spans="2:33" x14ac:dyDescent="0.15">
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="M20" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="N20" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="O20" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="P20" s="3"/>
-      <c r="Q20" s="6">
-        <v>1</v>
-      </c>
-      <c r="R20" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="S20" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="T20" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="U20" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="V20" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="W20" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="X20" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="Y20" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="Z20" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="AA20" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="AB20" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="AC20" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="AD20" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="AE20" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="AF20" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="AG20" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="21" spans="2:33" x14ac:dyDescent="0.15">
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="M21" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="N21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O21" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="P21" s="3"/>
-      <c r="Q21" s="6">
-        <v>1</v>
-      </c>
-      <c r="R21" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="S21" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="T21" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="U21" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="V21" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="W21" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="X21" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="Y21" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="Z21" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="AA21" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="AB21" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="AC21" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="AD21" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="AE21" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="AF21" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="AG21" s="3" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="22" spans="2:33" x14ac:dyDescent="0.15">
-      <c r="B22" s="8"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="M22" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="N22" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="O22" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="P22" s="3"/>
-      <c r="Q22" s="6">
-        <v>1</v>
-      </c>
-      <c r="R22" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="S22" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="T22" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="U22" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="V22" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="W22" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="X22" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="Y22" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="Z22" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="AA22" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="AB22" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="AC22" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="AD22" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="AE22" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="AF22" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="AG22" s="3" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="23" spans="2:33" x14ac:dyDescent="0.15">
-      <c r="B23" s="8"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="M23" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="N23" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="O23" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="P23" s="3"/>
-      <c r="Q23" s="6">
-        <v>0</v>
-      </c>
-      <c r="R23" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="S23" s="3"/>
-      <c r="T23" s="3"/>
-      <c r="U23" s="3"/>
-      <c r="V23" s="3"/>
-      <c r="W23" s="3"/>
-      <c r="X23" s="3"/>
-      <c r="Y23" s="3"/>
-      <c r="Z23" s="3"/>
-      <c r="AA23" s="3"/>
-      <c r="AB23" s="3"/>
-      <c r="AC23" s="3"/>
-      <c r="AD23" s="3"/>
-      <c r="AE23" s="3"/>
-      <c r="AF23" s="3"/>
-      <c r="AG23" s="3"/>
-    </row>
-    <row r="24" spans="2:33" x14ac:dyDescent="0.15">
-      <c r="M24" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="N24" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="O24" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="P24" s="3"/>
-      <c r="Q24" s="7">
-        <v>1</v>
-      </c>
-      <c r="R24" s="3"/>
-      <c r="S24" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="T24" s="3"/>
-      <c r="U24" s="3"/>
-      <c r="V24" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="W24" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="X24" s="3"/>
-      <c r="Y24" s="3"/>
-      <c r="Z24" s="3"/>
-      <c r="AA24" s="3"/>
-      <c r="AB24" s="3"/>
-      <c r="AC24" s="3"/>
-      <c r="AD24" s="3"/>
-      <c r="AE24" s="3"/>
-      <c r="AF24" s="3"/>
-      <c r="AG24" s="3"/>
-    </row>
-    <row r="25" spans="2:33" x14ac:dyDescent="0.15">
-      <c r="M25" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="N25" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="O25" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="P25" s="3"/>
-      <c r="Q25" s="7">
-        <v>2</v>
-      </c>
-      <c r="R25" s="3"/>
-      <c r="S25" s="3"/>
-      <c r="T25" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="U25" s="3"/>
-      <c r="V25" s="3"/>
-      <c r="W25" s="3"/>
-      <c r="X25" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="Y25" s="3"/>
-      <c r="Z25" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="AA25" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="AB25" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="AC25" s="3"/>
-      <c r="AD25" s="3"/>
-      <c r="AE25" s="3"/>
-      <c r="AF25" s="3"/>
-      <c r="AG25" s="3"/>
-    </row>
-    <row r="26" spans="2:33" x14ac:dyDescent="0.15">
-      <c r="M26" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="N26" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="O26" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="P26" s="3"/>
-      <c r="Q26" s="7">
-        <v>3</v>
-      </c>
-      <c r="R26" s="3"/>
-      <c r="S26" s="3"/>
-      <c r="T26" s="3"/>
-      <c r="U26" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="V26" s="3"/>
-      <c r="W26" s="3"/>
-      <c r="X26" s="3"/>
-      <c r="Y26" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="Z26" s="3"/>
-      <c r="AA26" s="3"/>
-      <c r="AB26" s="3"/>
-      <c r="AC26" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="AD26" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="AE26" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="AF26" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="AG26" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2"/>
-  <conditionalFormatting sqref="C4:D8 M12:P26">
-    <cfRule type="expression" dxfId="7" priority="1">
-      <formula>C4=C3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:AC28"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="2.125" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="2" width="2.125" style="5"/>
-    <col min="3" max="3" width="10.875" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.125" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.875" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.125" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.625" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.375" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="2.125" style="5"/>
-    <col min="12" max="12" width="2.375" style="5" customWidth="1"/>
-    <col min="13" max="13" width="9.625" style="5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9" style="5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7" style="5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.125" style="5" bestFit="1" customWidth="1"/>
-    <col min="18" max="45" width="3" style="5" customWidth="1"/>
-    <col min="46" max="16384" width="2.125" style="5"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:29" x14ac:dyDescent="0.15">
-      <c r="B2" s="10" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="2:29" x14ac:dyDescent="0.15">
-      <c r="C3" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="2:29" x14ac:dyDescent="0.15">
-      <c r="C4" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="6"/>
-      <c r="F4" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="2:29" x14ac:dyDescent="0.15">
-      <c r="C5" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="6"/>
-      <c r="F5" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="J5" s="6"/>
-    </row>
-    <row r="6" spans="2:29" x14ac:dyDescent="0.15">
-      <c r="C6" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" s="6"/>
-      <c r="F6" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="J6" s="6"/>
-    </row>
-    <row r="7" spans="2:29" x14ac:dyDescent="0.15">
-      <c r="C7" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" s="6"/>
-      <c r="F7" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-    </row>
-    <row r="9" spans="2:29" x14ac:dyDescent="0.15">
-      <c r="L9" s="10" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="10" spans="2:29" x14ac:dyDescent="0.15">
-      <c r="M10" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="N10" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="O10" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="P10" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q10" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="R10" s="4">
-        <v>1</v>
-      </c>
-      <c r="S10" s="4">
-        <v>2</v>
-      </c>
-      <c r="T10" s="4">
-        <v>3</v>
-      </c>
-      <c r="U10" s="4">
-        <v>4</v>
-      </c>
-      <c r="V10" s="4">
-        <v>5</v>
-      </c>
-      <c r="W10" s="4">
-        <v>6</v>
-      </c>
-      <c r="X10" s="4">
-        <v>7</v>
-      </c>
-      <c r="Y10" s="4">
-        <v>8</v>
-      </c>
-      <c r="Z10" s="4">
-        <v>9</v>
-      </c>
-      <c r="AA10" s="4">
-        <v>10</v>
-      </c>
-      <c r="AB10" s="4">
-        <v>11</v>
-      </c>
-      <c r="AC10" s="4">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="2:29" x14ac:dyDescent="0.15">
-      <c r="M11" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="N11" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O11" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="P11" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q11" s="6">
-        <v>0</v>
-      </c>
-      <c r="R11" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="S11" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="T11" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="U11" s="3"/>
-      <c r="V11" s="3"/>
-      <c r="W11" s="3"/>
-      <c r="X11" s="3"/>
-      <c r="Y11" s="3"/>
-      <c r="Z11" s="3"/>
-      <c r="AA11" s="3"/>
-      <c r="AB11" s="3"/>
-      <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="2:29" x14ac:dyDescent="0.15">
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="M12" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="N12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O12" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="P12" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q12" s="6">
-        <v>1</v>
-      </c>
-      <c r="R12" s="3"/>
-      <c r="S12" s="3"/>
-      <c r="T12" s="3"/>
-      <c r="U12" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="V12" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="W12" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="X12" s="3"/>
-      <c r="Y12" s="3"/>
-      <c r="Z12" s="3"/>
-      <c r="AA12" s="3"/>
-      <c r="AB12" s="3"/>
-      <c r="AC12" s="3"/>
-    </row>
-    <row r="13" spans="2:29" x14ac:dyDescent="0.15">
-      <c r="B13" s="8"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="8"/>
-      <c r="M13" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="N13" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O13" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="P13" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q13" s="6">
-        <v>2</v>
-      </c>
-      <c r="R13" s="3"/>
-      <c r="S13" s="3"/>
-      <c r="T13" s="3"/>
-      <c r="U13" s="3"/>
-      <c r="V13" s="3"/>
-      <c r="W13" s="3"/>
-      <c r="X13" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y13" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z13" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="AA13" s="3"/>
-      <c r="AB13" s="3"/>
-      <c r="AC13" s="3"/>
-    </row>
-    <row r="14" spans="2:29" x14ac:dyDescent="0.15">
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="M14" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q14" s="6">
-        <v>3</v>
-      </c>
-      <c r="R14" s="3"/>
-      <c r="S14" s="3"/>
-      <c r="T14" s="3"/>
-      <c r="U14" s="3"/>
-      <c r="V14" s="3"/>
-      <c r="W14" s="3"/>
-      <c r="X14" s="3"/>
-      <c r="Y14" s="3"/>
-      <c r="Z14" s="3"/>
-      <c r="AA14" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="AB14" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="AC14" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="15" spans="2:29" x14ac:dyDescent="0.15">
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="M15" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="N15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O15" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="P15" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="6">
-        <v>0</v>
-      </c>
-      <c r="R15" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="S15" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="T15" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="U15" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="V15" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="W15" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="X15" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y15" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z15" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="AA15" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="AB15" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="AC15" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="16" spans="2:29" x14ac:dyDescent="0.15">
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="M16" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="N16" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O16" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="P16" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q16" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="R16" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="S16" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="T16" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="U16" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="V16" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="W16" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="X16" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y16" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z16" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA16" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="AB16" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="AC16" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="2:29" x14ac:dyDescent="0.15">
-      <c r="B17" s="8"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="M17" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="N17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O17" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="P17" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q17" s="6">
-        <v>0</v>
-      </c>
-      <c r="R17" s="3"/>
-      <c r="S17" s="3"/>
-      <c r="T17" s="3"/>
-      <c r="U17" s="3"/>
-      <c r="V17" s="3"/>
-      <c r="W17" s="3"/>
-      <c r="X17" s="3"/>
-      <c r="Y17" s="3"/>
-      <c r="Z17" s="3"/>
-      <c r="AA17" s="3"/>
-      <c r="AB17" s="3"/>
-      <c r="AC17" s="3"/>
-    </row>
-    <row r="18" spans="2:29" x14ac:dyDescent="0.15">
-      <c r="B18" s="8"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="M18" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="N18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O18" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="P18" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q18" s="6">
-        <v>1</v>
-      </c>
-      <c r="R18" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="S18" s="3"/>
-      <c r="T18" s="3"/>
-      <c r="U18" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="V18" s="3"/>
-      <c r="W18" s="3"/>
-      <c r="X18" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y18" s="3"/>
-      <c r="Z18" s="3"/>
-      <c r="AA18" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="AB18" s="3"/>
-      <c r="AC18" s="3"/>
-    </row>
-    <row r="19" spans="2:29" x14ac:dyDescent="0.15">
-      <c r="B19" s="8"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="M19" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="N19" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O19" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="P19" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q19" s="6">
-        <v>2</v>
-      </c>
-      <c r="R19" s="3"/>
-      <c r="S19" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="T19" s="3"/>
-      <c r="U19" s="3"/>
-      <c r="V19" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="W19" s="3"/>
-      <c r="X19" s="3"/>
-      <c r="Y19" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="Z19" s="3"/>
-      <c r="AA19" s="3"/>
-      <c r="AB19" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="2:29" x14ac:dyDescent="0.15">
-      <c r="B20" s="8"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="M20" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="N20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O20" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="P20" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q20" s="6">
-        <v>3</v>
-      </c>
-      <c r="R20" s="3"/>
-      <c r="S20" s="3"/>
-      <c r="T20" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="U20" s="3"/>
-      <c r="V20" s="3"/>
-      <c r="W20" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="X20" s="3"/>
-      <c r="Y20" s="3"/>
-      <c r="Z20" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="AA20" s="3"/>
-      <c r="AB20" s="3"/>
-      <c r="AC20" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="21" spans="2:29" x14ac:dyDescent="0.15">
-      <c r="B21" s="8"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="8"/>
-      <c r="M21" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="N21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O21" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="P21" s="3"/>
-      <c r="Q21" s="6">
-        <v>0</v>
-      </c>
-      <c r="R21" s="3"/>
-      <c r="S21" s="3"/>
-      <c r="T21" s="3"/>
-      <c r="U21" s="3"/>
-      <c r="V21" s="3"/>
-      <c r="W21" s="3"/>
-      <c r="X21" s="3"/>
-      <c r="Y21" s="3"/>
-      <c r="Z21" s="3"/>
-      <c r="AA21" s="3"/>
-      <c r="AB21" s="3"/>
-      <c r="AC21" s="3"/>
-    </row>
-    <row r="22" spans="2:29" x14ac:dyDescent="0.15">
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="M22" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="N22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O22" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="P22" s="3"/>
-      <c r="Q22" s="6">
-        <v>1</v>
-      </c>
-      <c r="R22" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="S22" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="T22" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="U22" s="3"/>
-      <c r="V22" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="W22" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="X22" s="3"/>
-      <c r="Y22" s="3"/>
-      <c r="Z22" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="AA22" s="3"/>
-      <c r="AB22" s="3"/>
-      <c r="AC22" s="3"/>
-    </row>
-    <row r="23" spans="2:29" x14ac:dyDescent="0.15">
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="M23" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="N23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O23" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="P23" s="3"/>
-      <c r="Q23" s="6">
-        <v>2</v>
-      </c>
-      <c r="R23" s="3"/>
-      <c r="S23" s="3"/>
-      <c r="T23" s="3"/>
-      <c r="U23" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="V23" s="3"/>
-      <c r="W23" s="3"/>
-      <c r="X23" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="Y23" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="Z23" s="3"/>
-      <c r="AA23" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="AB23" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="AC23" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="24" spans="2:29" x14ac:dyDescent="0.15">
-      <c r="B24" s="8"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="M24" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="N24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O24" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="P24" s="3"/>
-      <c r="Q24" s="6">
-        <v>3</v>
-      </c>
-      <c r="R24" s="3"/>
-      <c r="S24" s="3"/>
-      <c r="T24" s="3"/>
-      <c r="U24" s="3"/>
-      <c r="V24" s="3"/>
-      <c r="W24" s="3"/>
-      <c r="X24" s="3"/>
-      <c r="Y24" s="3"/>
-      <c r="Z24" s="3"/>
-      <c r="AA24" s="3"/>
-      <c r="AB24" s="3"/>
-      <c r="AC24" s="3"/>
-    </row>
-    <row r="25" spans="2:29" x14ac:dyDescent="0.15">
-      <c r="B25" s="8"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="M25" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="N25" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="O25" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="P25" s="3"/>
-      <c r="Q25" s="6">
-        <v>0</v>
-      </c>
-      <c r="R25" s="3"/>
-      <c r="S25" s="3"/>
-      <c r="T25" s="3"/>
-      <c r="U25" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="V25" s="3"/>
-      <c r="W25" s="3"/>
-      <c r="X25" s="3"/>
-      <c r="Y25" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="Z25" s="3"/>
-      <c r="AA25" s="3"/>
-      <c r="AB25" s="3"/>
-      <c r="AC25" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="26" spans="2:29" x14ac:dyDescent="0.15">
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-      <c r="M26" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="N26" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="O26" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="P26" s="3"/>
-      <c r="Q26" s="6">
-        <v>10</v>
-      </c>
-      <c r="R26" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="S26" s="3"/>
-      <c r="T26" s="3"/>
-      <c r="U26" s="3"/>
-      <c r="V26" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="W26" s="3"/>
-      <c r="X26" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y26" s="3"/>
-      <c r="Z26" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="AA26" s="3"/>
-      <c r="AB26" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="AC26" s="3"/>
-    </row>
-    <row r="27" spans="2:29" x14ac:dyDescent="0.15">
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
-      <c r="M27" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="N27" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="O27" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="P27" s="3"/>
-      <c r="Q27" s="6">
-        <v>20</v>
-      </c>
-      <c r="R27" s="3"/>
-      <c r="S27" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="T27" s="3"/>
-      <c r="U27" s="3"/>
-      <c r="V27" s="3"/>
-      <c r="W27" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="X27" s="3"/>
-      <c r="Y27" s="3"/>
-      <c r="Z27" s="3"/>
-      <c r="AA27" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="AB27" s="3"/>
-      <c r="AC27" s="3"/>
-    </row>
-    <row r="28" spans="2:29" x14ac:dyDescent="0.15">
-      <c r="M28" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="N28" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="O28" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="P28" s="3"/>
-      <c r="Q28" s="6">
-        <v>30</v>
-      </c>
-      <c r="R28" s="3"/>
-      <c r="S28" s="3"/>
-      <c r="T28" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="U28" s="3"/>
-      <c r="V28" s="3"/>
-      <c r="W28" s="3"/>
-      <c r="X28" s="3"/>
-      <c r="Y28" s="3"/>
-      <c r="Z28" s="3"/>
-      <c r="AA28" s="3"/>
-      <c r="AB28" s="3"/>
-      <c r="AC28" s="3"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2"/>
-  <conditionalFormatting sqref="C4:D7 M22:P24 M11:P16 M18:P20">
-    <cfRule type="expression" dxfId="6" priority="4">
-      <formula>C4=C3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M25:P28">
-    <cfRule type="expression" dxfId="5" priority="2">
-      <formula>M25=M24</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M21:P21">
-    <cfRule type="expression" dxfId="4" priority="6">
-      <formula>M21=#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M17:O17">
-    <cfRule type="expression" dxfId="3" priority="8">
-      <formula>M17=#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P17">
-    <cfRule type="expression" dxfId="2" priority="15">
-      <formula>P17=P15</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:Y29"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="M40" sqref="M40"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="2.125" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="2" width="2.125" style="5"/>
-    <col min="3" max="3" width="10.875" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.125" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.875" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.125" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.625" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.375" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="2.125" style="5"/>
-    <col min="12" max="12" width="2.375" style="5" customWidth="1"/>
-    <col min="13" max="13" width="9.875" style="5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9" style="5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7" style="5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.25" style="5" bestFit="1" customWidth="1"/>
-    <col min="18" max="24" width="2.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="2.125" style="5"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:25" x14ac:dyDescent="0.15">
-      <c r="B2" s="10" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="2:25" x14ac:dyDescent="0.15">
-      <c r="C3" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="2:25" x14ac:dyDescent="0.15">
-      <c r="C4" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="6"/>
-      <c r="F4" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="2:25" x14ac:dyDescent="0.15">
-      <c r="C5" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="6"/>
-      <c r="F5" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="J5" s="6"/>
-    </row>
-    <row r="6" spans="2:25" x14ac:dyDescent="0.15">
-      <c r="C6" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" s="6"/>
-      <c r="F6" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="J6" s="6"/>
-    </row>
-    <row r="7" spans="2:25" x14ac:dyDescent="0.15">
-      <c r="C7" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="6"/>
-      <c r="F7" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-    </row>
-    <row r="8" spans="2:25" x14ac:dyDescent="0.15">
-      <c r="C8" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" s="6"/>
-      <c r="F8" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="J8" s="6"/>
-    </row>
-    <row r="9" spans="2:25" x14ac:dyDescent="0.15">
-      <c r="C9" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="E9" s="6"/>
-      <c r="F9" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-    </row>
-    <row r="10" spans="2:25" x14ac:dyDescent="0.15">
-      <c r="C10" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="E10" s="6"/>
-      <c r="F10" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-    </row>
-    <row r="12" spans="2:25" x14ac:dyDescent="0.15">
-      <c r="L12" s="10" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="13" spans="2:25" x14ac:dyDescent="0.15">
-      <c r="M13" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="N13" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="O13" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="P13" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q13" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="R13" s="4">
-        <v>1</v>
-      </c>
-      <c r="S13" s="4">
-        <v>2</v>
-      </c>
-      <c r="T13" s="4">
-        <v>3</v>
-      </c>
-      <c r="U13" s="4">
-        <v>4</v>
-      </c>
-      <c r="V13" s="4">
-        <v>5</v>
-      </c>
-      <c r="W13" s="4">
-        <v>6</v>
-      </c>
-      <c r="X13" s="4">
-        <v>7</v>
-      </c>
-      <c r="Y13" s="4">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="2:25" x14ac:dyDescent="0.15">
-      <c r="M14" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q14" s="6">
-        <v>0</v>
-      </c>
-      <c r="R14" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="S14" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="T14" s="3"/>
-      <c r="U14" s="3"/>
-      <c r="V14" s="3"/>
-      <c r="W14" s="3"/>
-      <c r="X14" s="3"/>
-      <c r="Y14" s="3"/>
-    </row>
-    <row r="15" spans="2:25" x14ac:dyDescent="0.15">
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="M15" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="N15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O15" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="P15" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q15" s="6">
-        <v>1</v>
-      </c>
-      <c r="R15" s="3"/>
-      <c r="S15" s="3"/>
-      <c r="T15" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="U15" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="V15" s="3"/>
-      <c r="W15" s="3"/>
-      <c r="X15" s="3"/>
-      <c r="Y15" s="3"/>
-    </row>
-    <row r="16" spans="2:25" x14ac:dyDescent="0.15">
-      <c r="B16" s="8"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="8"/>
-      <c r="M16" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="N16" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O16" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="P16" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q16" s="6">
-        <v>2</v>
-      </c>
-      <c r="R16" s="3"/>
-      <c r="S16" s="3"/>
-      <c r="T16" s="3"/>
-      <c r="U16" s="3"/>
-      <c r="V16" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="W16" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="X16" s="3"/>
-      <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="2:25" x14ac:dyDescent="0.15">
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="M17" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="N17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O17" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="P17" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q17" s="6">
-        <v>3</v>
-      </c>
-      <c r="R17" s="3"/>
-      <c r="S17" s="3"/>
-      <c r="T17" s="3"/>
-      <c r="U17" s="3"/>
-      <c r="V17" s="3"/>
-      <c r="W17" s="3"/>
-      <c r="X17" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="Y17" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="18" spans="2:25" x14ac:dyDescent="0.15">
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="M18" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="N18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O18" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="P18" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q18" s="6">
-        <v>0</v>
-      </c>
-      <c r="R18" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="S18" s="3"/>
-      <c r="T18" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="U18" s="3"/>
-      <c r="V18" s="3"/>
-      <c r="W18" s="3"/>
-      <c r="X18" s="3"/>
-      <c r="Y18" s="3"/>
-    </row>
-    <row r="19" spans="2:25" x14ac:dyDescent="0.15">
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="M19" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="N19" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O19" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="P19" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q19" s="6">
-        <v>1</v>
-      </c>
-      <c r="R19" s="3"/>
-      <c r="S19" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="T19" s="3"/>
-      <c r="U19" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="V19" s="3"/>
-      <c r="W19" s="3"/>
-      <c r="X19" s="3"/>
-      <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="2:25" x14ac:dyDescent="0.15">
-      <c r="B20" s="8"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="M20" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="N20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O20" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="P20" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q20" s="6">
-        <v>2</v>
-      </c>
-      <c r="R20" s="3"/>
-      <c r="S20" s="3"/>
-      <c r="T20" s="3"/>
-      <c r="U20" s="3"/>
-      <c r="V20" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="W20" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="X20" s="3"/>
-      <c r="Y20" s="3"/>
-    </row>
-    <row r="21" spans="2:25" x14ac:dyDescent="0.15">
-      <c r="B21" s="8"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="M21" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="N21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O21" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="P21" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q21" s="6">
-        <v>3</v>
-      </c>
-      <c r="R21" s="3"/>
-      <c r="S21" s="3"/>
-      <c r="T21" s="3"/>
-      <c r="U21" s="3"/>
-      <c r="V21" s="3"/>
-      <c r="W21" s="3"/>
-      <c r="X21" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="Y21" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="22" spans="2:25" x14ac:dyDescent="0.15">
-      <c r="B22" s="8"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="M22" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="N22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O22" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="P22" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q22" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="R22" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="S22" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="T22" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="U22" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="V22" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="W22" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="X22" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="Y22" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="23" spans="2:25" x14ac:dyDescent="0.15">
-      <c r="B23" s="8"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="8"/>
-      <c r="M23" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="N23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O23" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="P23" s="3"/>
-      <c r="Q23" s="6">
-        <v>0</v>
-      </c>
-      <c r="R23" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="S23" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="T23" s="3"/>
-      <c r="U23" s="3"/>
-      <c r="V23" s="3"/>
-      <c r="W23" s="3"/>
-      <c r="X23" s="3"/>
-      <c r="Y23" s="3"/>
-    </row>
-    <row r="24" spans="2:25" x14ac:dyDescent="0.15">
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="M24" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="N24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O24" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="P24" s="3"/>
-      <c r="Q24" s="6">
-        <v>1</v>
-      </c>
-      <c r="R24" s="3"/>
-      <c r="S24" s="3"/>
-      <c r="T24" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="U24" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="V24" s="3"/>
-      <c r="W24" s="3"/>
-      <c r="X24" s="3"/>
-      <c r="Y24" s="3"/>
-    </row>
-    <row r="25" spans="2:25" x14ac:dyDescent="0.15">
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="M25" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="N25" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O25" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="P25" s="3"/>
-      <c r="Q25" s="6">
-        <v>2</v>
-      </c>
-      <c r="R25" s="3"/>
-      <c r="S25" s="3"/>
-      <c r="T25" s="3"/>
-      <c r="U25" s="3"/>
-      <c r="V25" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="W25" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="X25" s="3"/>
-      <c r="Y25" s="3"/>
-    </row>
-    <row r="26" spans="2:25" x14ac:dyDescent="0.15">
-      <c r="B26" s="8"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-      <c r="M26" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="N26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O26" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="P26" s="3"/>
-      <c r="Q26" s="6">
-        <v>3</v>
-      </c>
-      <c r="R26" s="3"/>
-      <c r="S26" s="3"/>
-      <c r="T26" s="3"/>
-      <c r="U26" s="3"/>
-      <c r="V26" s="3"/>
-      <c r="W26" s="3"/>
-      <c r="X26" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="Y26" s="3" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="27" spans="2:25" x14ac:dyDescent="0.15">
-      <c r="B27" s="8"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
-    </row>
-    <row r="28" spans="2:25" x14ac:dyDescent="0.15">
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-    </row>
-    <row r="29" spans="2:25" x14ac:dyDescent="0.15">
-      <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2"/>
-  <conditionalFormatting sqref="C4:D10 M24:P26 M14:P22">
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>C4=C3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M23:P23">
-    <cfRule type="expression" dxfId="0" priority="14">
-      <formula>M23=M21</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/doc/sample/test_sample_input/google_test_sample_data.xlsx
+++ b/doc/sample/test_sample_input/google_test_sample_data.xlsx
@@ -12,13 +12,14 @@
     <sheet name="sample_function_002" sheetId="3" r:id="rId3"/>
     <sheet name="sample_function_003" sheetId="6" r:id="rId4"/>
     <sheet name="sample_function_004" sheetId="7" r:id="rId5"/>
+    <sheet name="sample_function_005" sheetId="8" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1002" uniqueCount="139">
   <si>
     <t>○対象関数情報</t>
     <rPh sb="1" eb="7">
@@ -687,6 +688,18 @@
   </si>
   <si>
     <t>*</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>sample_function_005</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>VOID</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>sample_function_005</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1174,9 +1187,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F7"/>
+  <dimension ref="B2:F8"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1267,6 +1282,20 @@
       </c>
       <c r="F7" s="2" t="s">
         <v>111</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C8" s="2">
+        <v>5</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -2957,7 +2986,7 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="C4:D6 M10:P23">
-    <cfRule type="expression" dxfId="0" priority="3">
+    <cfRule type="expression" dxfId="3" priority="3">
       <formula>C4=C3</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4095,7 +4124,7 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="C4:D6 M10:P27">
-    <cfRule type="expression" dxfId="3" priority="3">
+    <cfRule type="expression" dxfId="2" priority="3">
       <formula>C4=C3</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6047,7 +6076,905 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="C4:D6 M10:P40">
-    <cfRule type="expression" dxfId="2" priority="1">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>C4=C3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:AG23"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.125" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="2" width="2.125" style="5"/>
+    <col min="3" max="3" width="10.875" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.875" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="2.125" style="5"/>
+    <col min="12" max="12" width="2.375" style="5" customWidth="1"/>
+    <col min="13" max="13" width="9.875" style="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9" style="5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7" style="5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="18" max="33" width="3" style="5" customWidth="1"/>
+    <col min="34" max="16384" width="2.125" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:33" x14ac:dyDescent="0.15">
+      <c r="B2" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="2:33" x14ac:dyDescent="0.15">
+      <c r="C3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="2:33" x14ac:dyDescent="0.15">
+      <c r="C4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="6"/>
+      <c r="F4" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="2:33" x14ac:dyDescent="0.15">
+      <c r="C5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="6"/>
+      <c r="F5" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="J5" s="6"/>
+    </row>
+    <row r="6" spans="2:33" x14ac:dyDescent="0.15">
+      <c r="C6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="6"/>
+      <c r="F6" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="J6" s="6"/>
+    </row>
+    <row r="8" spans="2:33" x14ac:dyDescent="0.15">
+      <c r="L8" s="10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="2:33" x14ac:dyDescent="0.15">
+      <c r="M9" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="N9" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="O9" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="P9" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q9" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="R9" s="4">
+        <v>1</v>
+      </c>
+      <c r="S9" s="4">
+        <v>2</v>
+      </c>
+      <c r="T9" s="4">
+        <v>3</v>
+      </c>
+      <c r="U9" s="4">
+        <v>4</v>
+      </c>
+      <c r="V9" s="4">
+        <v>5</v>
+      </c>
+      <c r="W9" s="4">
+        <v>6</v>
+      </c>
+      <c r="X9" s="4">
+        <v>7</v>
+      </c>
+      <c r="Y9" s="4">
+        <v>8</v>
+      </c>
+      <c r="Z9" s="4">
+        <v>9</v>
+      </c>
+      <c r="AA9" s="4">
+        <v>10</v>
+      </c>
+      <c r="AB9" s="4">
+        <v>11</v>
+      </c>
+      <c r="AC9" s="4">
+        <v>12</v>
+      </c>
+      <c r="AD9" s="4">
+        <v>13</v>
+      </c>
+      <c r="AE9" s="4">
+        <v>14</v>
+      </c>
+      <c r="AF9" s="4">
+        <v>15</v>
+      </c>
+      <c r="AG9" s="4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="2:33" x14ac:dyDescent="0.15">
+      <c r="M10" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q10" s="6">
+        <v>0</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="T10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="U10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="V10" s="3"/>
+      <c r="W10" s="3"/>
+      <c r="X10" s="3"/>
+      <c r="Y10" s="3"/>
+      <c r="Z10" s="3"/>
+      <c r="AA10" s="3"/>
+      <c r="AB10" s="3"/>
+      <c r="AC10" s="3"/>
+      <c r="AD10" s="3"/>
+      <c r="AE10" s="3"/>
+      <c r="AF10" s="3"/>
+      <c r="AG10" s="3"/>
+    </row>
+    <row r="11" spans="2:33" x14ac:dyDescent="0.15">
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="M11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O11" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="P11" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q11" s="6">
+        <v>1</v>
+      </c>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+      <c r="V11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="W11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="X11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+      <c r="AB11" s="3"/>
+      <c r="AC11" s="3"/>
+      <c r="AD11" s="3"/>
+      <c r="AE11" s="3"/>
+      <c r="AF11" s="3"/>
+      <c r="AG11" s="3"/>
+    </row>
+    <row r="12" spans="2:33" x14ac:dyDescent="0.15">
+      <c r="B12" s="8"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="8"/>
+      <c r="M12" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q12" s="6">
+        <v>2</v>
+      </c>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="3"/>
+      <c r="U12" s="3"/>
+      <c r="V12" s="3"/>
+      <c r="W12" s="3"/>
+      <c r="X12" s="3"/>
+      <c r="Y12" s="3"/>
+      <c r="Z12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD12" s="3"/>
+      <c r="AE12" s="3"/>
+      <c r="AF12" s="3"/>
+      <c r="AG12" s="3"/>
+    </row>
+    <row r="13" spans="2:33" x14ac:dyDescent="0.15">
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="M13" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O13" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="P13" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q13" s="6">
+        <v>3</v>
+      </c>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
+      <c r="U13" s="3"/>
+      <c r="V13" s="3"/>
+      <c r="W13" s="3"/>
+      <c r="X13" s="3"/>
+      <c r="Y13" s="3"/>
+      <c r="Z13" s="3"/>
+      <c r="AA13" s="3"/>
+      <c r="AB13" s="3"/>
+      <c r="AC13" s="3"/>
+      <c r="AD13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG13" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="2:33" x14ac:dyDescent="0.15">
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="M14" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q14" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="S14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="T14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="U14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="V14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="W14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="X14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG14" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="2:33" x14ac:dyDescent="0.15">
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="M15" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="P15" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q15" s="6">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3"/>
+      <c r="U15" s="3"/>
+      <c r="V15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="W15" s="3"/>
+      <c r="X15" s="3"/>
+      <c r="Y15" s="3"/>
+      <c r="Z15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA15" s="3"/>
+      <c r="AB15" s="3"/>
+      <c r="AC15" s="3"/>
+      <c r="AD15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE15" s="3"/>
+      <c r="AF15" s="3"/>
+      <c r="AG15" s="3"/>
+    </row>
+    <row r="16" spans="2:33" x14ac:dyDescent="0.15">
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="M16" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="N16" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O16" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="P16" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q16" s="6">
+        <v>1</v>
+      </c>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+      <c r="W16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB16" s="3"/>
+      <c r="AC16" s="3"/>
+      <c r="AD16" s="3"/>
+      <c r="AE16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF16" s="3"/>
+      <c r="AG16" s="3"/>
+    </row>
+    <row r="17" spans="2:33" x14ac:dyDescent="0.15">
+      <c r="B17" s="8"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="M17" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O17" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="P17" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q17" s="6">
+        <v>2</v>
+      </c>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="U17" s="3"/>
+      <c r="V17" s="3"/>
+      <c r="W17" s="3"/>
+      <c r="X17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y17" s="3"/>
+      <c r="Z17" s="3"/>
+      <c r="AA17" s="3"/>
+      <c r="AB17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC17" s="3"/>
+      <c r="AD17" s="3"/>
+      <c r="AE17" s="3"/>
+      <c r="AF17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG17" s="3"/>
+    </row>
+    <row r="18" spans="2:33" x14ac:dyDescent="0.15">
+      <c r="B18" s="8"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="M18" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O18" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="P18" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q18" s="6">
+        <v>3</v>
+      </c>
+      <c r="R18" s="3"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="3"/>
+      <c r="U18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="V18" s="3"/>
+      <c r="W18" s="3"/>
+      <c r="X18" s="3"/>
+      <c r="Y18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z18" s="3"/>
+      <c r="AA18" s="3"/>
+      <c r="AB18" s="3"/>
+      <c r="AC18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD18" s="3"/>
+      <c r="AE18" s="3"/>
+      <c r="AF18" s="3"/>
+      <c r="AG18" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="2:33" x14ac:dyDescent="0.15">
+      <c r="B19" s="8"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="M19" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="N19" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O19" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P19" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q19" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="R19" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="S19" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="T19" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="U19" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="V19" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="W19" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="X19" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y19" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z19" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA19" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB19" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC19" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD19" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE19" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF19" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG19" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="2:33" x14ac:dyDescent="0.15">
+      <c r="B20" s="8"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="8"/>
+      <c r="M20" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="6">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="S20" s="3"/>
+      <c r="T20" s="3"/>
+      <c r="U20" s="3"/>
+      <c r="V20" s="3"/>
+      <c r="W20" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="X20" s="3"/>
+      <c r="Y20" s="3"/>
+      <c r="Z20" s="3"/>
+      <c r="AA20" s="3"/>
+      <c r="AB20" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC20" s="3"/>
+      <c r="AD20" s="3"/>
+      <c r="AE20" s="3"/>
+      <c r="AF20" s="3"/>
+      <c r="AG20" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="2:33" x14ac:dyDescent="0.15">
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="M21" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O21" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="6">
+        <v>1</v>
+      </c>
+      <c r="R21" s="3"/>
+      <c r="S21" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="T21" s="3"/>
+      <c r="U21" s="3"/>
+      <c r="V21" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="W21" s="3"/>
+      <c r="X21" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y21" s="3"/>
+      <c r="Z21" s="3"/>
+      <c r="AA21" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB21" s="3"/>
+      <c r="AC21" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD21" s="3"/>
+      <c r="AE21" s="3"/>
+      <c r="AF21" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG21" s="3"/>
+    </row>
+    <row r="22" spans="2:33" x14ac:dyDescent="0.15">
+      <c r="M22" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O22" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="6">
+        <v>2</v>
+      </c>
+      <c r="R22" s="3"/>
+      <c r="S22" s="3"/>
+      <c r="T22" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="U22" s="3"/>
+      <c r="V22" s="3"/>
+      <c r="W22" s="3"/>
+      <c r="X22" s="3"/>
+      <c r="Y22" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z22" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA22" s="3"/>
+      <c r="AB22" s="3"/>
+      <c r="AC22" s="3"/>
+      <c r="AD22" s="3"/>
+      <c r="AE22" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF22" s="3"/>
+      <c r="AG22" s="3"/>
+    </row>
+    <row r="23" spans="2:33" x14ac:dyDescent="0.15">
+      <c r="M23" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O23" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="6">
+        <v>3</v>
+      </c>
+      <c r="R23" s="3"/>
+      <c r="S23" s="3"/>
+      <c r="T23" s="3"/>
+      <c r="U23" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="V23" s="3"/>
+      <c r="W23" s="3"/>
+      <c r="X23" s="3"/>
+      <c r="Y23" s="3"/>
+      <c r="Z23" s="3"/>
+      <c r="AA23" s="3"/>
+      <c r="AB23" s="3"/>
+      <c r="AC23" s="3"/>
+      <c r="AD23" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE23" s="3"/>
+      <c r="AF23" s="3"/>
+      <c r="AG23" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <conditionalFormatting sqref="C4:D6 M10:P23">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>C4=C3</formula>
     </cfRule>
   </conditionalFormatting>

--- a/doc/sample/test_sample_input/google_test_sample_data.xlsx
+++ b/doc/sample/test_sample_input/google_test_sample_data.xlsx
@@ -76,13 +76,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ソースコードファイル名</t>
-    <rPh sb="10" eb="11">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>No.</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -700,6 +693,13 @@
   </si>
   <si>
     <t>sample_function_005</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ソースファイル名</t>
+    <rPh sb="7" eb="8">
+      <t>メイ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1190,7 +1190,7 @@
   <dimension ref="B2:F8"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="C3" sqref="C3:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -1205,7 +1205,7 @@
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B2" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C2" s="13"/>
       <c r="D2" s="13"/>
@@ -1215,7 +1215,7 @@
     <row r="3" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B3" s="13"/>
       <c r="C3" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>5</v>
@@ -1224,7 +1224,7 @@
         <v>6</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>7</v>
+        <v>138</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.2">
@@ -1233,13 +1233,13 @@
         <v>1</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E4" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" s="14" t="s">
         <v>47</v>
-      </c>
-      <c r="F4" s="14" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.2">
@@ -1247,13 +1247,13 @@
         <v>2</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.2">
@@ -1261,13 +1261,13 @@
         <v>3</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E6" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.2">
@@ -1275,13 +1275,13 @@
         <v>4</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.2">
@@ -1289,13 +1289,13 @@
         <v>5</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -1340,107 +1340,107 @@
     </row>
     <row r="3" spans="2:33" x14ac:dyDescent="0.15">
       <c r="C3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="F3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>29</v>
-      </c>
       <c r="H3" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="2:33" x14ac:dyDescent="0.15">
       <c r="C4" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G4" s="6"/>
       <c r="H4" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I4" s="6"/>
       <c r="J4" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="2:33" x14ac:dyDescent="0.15">
       <c r="C5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>16</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>17</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G5" s="6"/>
       <c r="H5" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J5" s="6"/>
     </row>
     <row r="6" spans="2:33" x14ac:dyDescent="0.15">
       <c r="C6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>16</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>17</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G6" s="6"/>
       <c r="H6" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J6" s="6"/>
     </row>
     <row r="8" spans="2:33" x14ac:dyDescent="0.15">
       <c r="L8" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="2:33" x14ac:dyDescent="0.15">
       <c r="M9" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N9" s="4" t="s">
         <v>1</v>
       </c>
       <c r="O9" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="P9" s="4" t="s">
         <v>33</v>
-      </c>
-      <c r="P9" s="4" t="s">
-        <v>34</v>
       </c>
       <c r="Q9" s="4" t="s">
         <v>2</v>
@@ -1496,31 +1496,31 @@
     </row>
     <row r="10" spans="2:33" x14ac:dyDescent="0.15">
       <c r="M10" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N10" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O10" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="P10" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q10" s="6">
         <v>0</v>
       </c>
       <c r="R10" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="S10" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="T10" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="U10" s="3" t="s">
         <v>54</v>
-      </c>
-      <c r="U10" s="3" t="s">
-        <v>55</v>
       </c>
       <c r="V10" s="3"/>
       <c r="W10" s="3"/>
@@ -1544,16 +1544,16 @@
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
       <c r="M11" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N11" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O11" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="P11" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q11" s="6">
         <v>1</v>
@@ -1563,16 +1563,16 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="W11" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="X11" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y11" s="3" t="s">
         <v>54</v>
-      </c>
-      <c r="Y11" s="3" t="s">
-        <v>55</v>
       </c>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
@@ -1592,16 +1592,16 @@
       <c r="G12" s="9"/>
       <c r="H12" s="8"/>
       <c r="M12" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O12" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="P12" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Q12" s="6">
         <v>2</v>
@@ -1615,16 +1615,16 @@
       <c r="X12" s="3"/>
       <c r="Y12" s="3"/>
       <c r="Z12" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AA12" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AB12" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AC12" s="3" t="s">
         <v>54</v>
-      </c>
-      <c r="AC12" s="3" t="s">
-        <v>55</v>
       </c>
       <c r="AD12" s="3"/>
       <c r="AE12" s="3"/>
@@ -1640,16 +1640,16 @@
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
       <c r="M13" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N13" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O13" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="P13" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q13" s="6">
         <v>3</v>
@@ -1667,16 +1667,16 @@
       <c r="AB13" s="3"/>
       <c r="AC13" s="3"/>
       <c r="AD13" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AE13" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AF13" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG13" s="3" t="s">
         <v>54</v>
-      </c>
-      <c r="AG13" s="3" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="14" spans="2:33" x14ac:dyDescent="0.15">
@@ -1688,40 +1688,40 @@
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
       <c r="M14" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O14" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="P14" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q14" s="6">
         <v>0</v>
       </c>
       <c r="R14" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="S14" s="3"/>
       <c r="T14" s="3"/>
       <c r="U14" s="3"/>
       <c r="V14" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="W14" s="3"/>
       <c r="X14" s="3"/>
       <c r="Y14" s="3"/>
       <c r="Z14" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AA14" s="3"/>
       <c r="AB14" s="3"/>
       <c r="AC14" s="3"/>
       <c r="AD14" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AE14" s="3"/>
       <c r="AF14" s="3"/>
@@ -1736,41 +1736,41 @@
       <c r="G15" s="8"/>
       <c r="H15" s="8"/>
       <c r="M15" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N15" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O15" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="P15" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q15" s="6">
         <v>1</v>
       </c>
       <c r="R15" s="3"/>
       <c r="S15" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="T15" s="3"/>
       <c r="U15" s="3"/>
       <c r="V15" s="3"/>
       <c r="W15" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="X15" s="3"/>
       <c r="Y15" s="3"/>
       <c r="Z15" s="3"/>
       <c r="AA15" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AB15" s="3"/>
       <c r="AC15" s="3"/>
       <c r="AD15" s="3"/>
       <c r="AE15" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AF15" s="3"/>
       <c r="AG15" s="3"/>
@@ -1784,16 +1784,16 @@
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
       <c r="M16" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N16" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O16" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="P16" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Q16" s="6">
         <v>2</v>
@@ -1801,25 +1801,25 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
       <c r="AF16" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AG16" s="3"/>
     </row>
@@ -1832,16 +1832,16 @@
       <c r="G17" s="8"/>
       <c r="H17" s="8"/>
       <c r="M17" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O17" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="P17" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q17" s="6">
         <v>3</v>
@@ -1850,25 +1850,25 @@
       <c r="S17" s="3"/>
       <c r="T17" s="3"/>
       <c r="U17" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="V17" s="3"/>
       <c r="W17" s="3"/>
       <c r="X17" s="3"/>
       <c r="Y17" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Z17" s="3"/>
       <c r="AA17" s="3"/>
       <c r="AB17" s="3"/>
       <c r="AC17" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AD17" s="3"/>
       <c r="AE17" s="3"/>
       <c r="AF17" s="3"/>
       <c r="AG17" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="2:33" x14ac:dyDescent="0.15">
@@ -1880,41 +1880,41 @@
       <c r="G18" s="9"/>
       <c r="H18" s="8"/>
       <c r="M18" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N18" s="3" t="s">
         <v>4</v>
       </c>
       <c r="O18" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P18" s="3"/>
       <c r="Q18" s="6">
         <v>0</v>
       </c>
       <c r="R18" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="S18" s="3"/>
       <c r="T18" s="3"/>
       <c r="U18" s="3"/>
       <c r="V18" s="3"/>
       <c r="W18" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="X18" s="3"/>
       <c r="Y18" s="3"/>
       <c r="Z18" s="3"/>
       <c r="AA18" s="3"/>
       <c r="AB18" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AC18" s="3"/>
       <c r="AD18" s="3"/>
       <c r="AE18" s="3"/>
       <c r="AF18" s="3"/>
       <c r="AG18" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="2:33" x14ac:dyDescent="0.15">
@@ -1926,13 +1926,13 @@
       <c r="G19" s="8"/>
       <c r="H19" s="8"/>
       <c r="M19" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N19" s="3" t="s">
         <v>4</v>
       </c>
       <c r="O19" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P19" s="3"/>
       <c r="Q19" s="6">
@@ -1940,30 +1940,30 @@
       </c>
       <c r="R19" s="3"/>
       <c r="S19" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="W19" s="3"/>
       <c r="X19" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
       <c r="AF19" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AG19" s="3"/>
     </row>
@@ -1976,13 +1976,13 @@
       <c r="G20" s="8"/>
       <c r="H20" s="8"/>
       <c r="M20" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N20" s="3" t="s">
         <v>4</v>
       </c>
       <c r="O20" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P20" s="3"/>
       <c r="Q20" s="6">
@@ -1991,24 +1991,24 @@
       <c r="R20" s="3"/>
       <c r="S20" s="3"/>
       <c r="T20" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="U20" s="3"/>
       <c r="V20" s="3"/>
       <c r="W20" s="3"/>
       <c r="X20" s="3"/>
       <c r="Y20" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="Z20" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AA20" s="3"/>
       <c r="AB20" s="3"/>
       <c r="AC20" s="3"/>
       <c r="AD20" s="3"/>
       <c r="AE20" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AF20" s="3"/>
       <c r="AG20" s="3"/>
@@ -2022,13 +2022,13 @@
       <c r="G21" s="8"/>
       <c r="H21" s="8"/>
       <c r="M21" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N21" s="3" t="s">
         <v>4</v>
       </c>
       <c r="O21" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P21" s="3"/>
       <c r="Q21" s="6">
@@ -2038,7 +2038,7 @@
       <c r="S21" s="3"/>
       <c r="T21" s="3"/>
       <c r="U21" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="V21" s="3"/>
       <c r="W21" s="3"/>
@@ -2049,7 +2049,7 @@
       <c r="AB21" s="3"/>
       <c r="AC21" s="3"/>
       <c r="AD21" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AE21" s="3"/>
       <c r="AF21" s="3"/>
@@ -2134,111 +2134,111 @@
     </row>
     <row r="3" spans="2:33" x14ac:dyDescent="0.15">
       <c r="C3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="F3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>29</v>
-      </c>
       <c r="H3" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="2:33" x14ac:dyDescent="0.15">
       <c r="C4" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G4" s="6"/>
       <c r="H4" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I4" s="6"/>
       <c r="J4" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="2:33" x14ac:dyDescent="0.15">
       <c r="C5" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>3</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J5" s="6"/>
     </row>
     <row r="6" spans="2:33" x14ac:dyDescent="0.15">
       <c r="C6" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>3</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J6" s="6"/>
     </row>
     <row r="8" spans="2:33" x14ac:dyDescent="0.15">
       <c r="L8" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="2:33" x14ac:dyDescent="0.15">
       <c r="M9" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N9" s="4" t="s">
         <v>1</v>
       </c>
       <c r="O9" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="P9" s="4" t="s">
         <v>33</v>
-      </c>
-      <c r="P9" s="4" t="s">
-        <v>34</v>
       </c>
       <c r="Q9" s="4" t="s">
         <v>2</v>
@@ -2294,31 +2294,31 @@
     </row>
     <row r="10" spans="2:33" x14ac:dyDescent="0.15">
       <c r="M10" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N10" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O10" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P10" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q10" s="6">
         <v>0</v>
       </c>
       <c r="R10" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="S10" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="T10" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="U10" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V10" s="3"/>
       <c r="W10" s="3"/>
@@ -2342,16 +2342,16 @@
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
       <c r="M11" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N11" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O11" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="P11" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q11" s="6">
         <v>1</v>
@@ -2361,16 +2361,16 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="W11" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="X11" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y11" s="3" t="s">
         <v>57</v>
-      </c>
-      <c r="X11" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="Y11" s="3" t="s">
-        <v>58</v>
       </c>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
@@ -2390,16 +2390,16 @@
       <c r="G12" s="9"/>
       <c r="H12" s="8"/>
       <c r="M12" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O12" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P12" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q12" s="6">
         <v>2</v>
@@ -2413,16 +2413,16 @@
       <c r="X12" s="3"/>
       <c r="Y12" s="3"/>
       <c r="Z12" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AA12" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB12" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC12" s="3" t="s">
         <v>57</v>
-      </c>
-      <c r="AB12" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="AC12" s="3" t="s">
-        <v>58</v>
       </c>
       <c r="AD12" s="3"/>
       <c r="AE12" s="3"/>
@@ -2438,16 +2438,16 @@
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
       <c r="M13" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N13" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O13" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="P13" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q13" s="6">
         <v>3</v>
@@ -2465,16 +2465,16 @@
       <c r="AB13" s="3"/>
       <c r="AC13" s="3"/>
       <c r="AD13" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AE13" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF13" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG13" s="3" t="s">
         <v>57</v>
-      </c>
-      <c r="AF13" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG13" s="3" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="14" spans="2:33" x14ac:dyDescent="0.15">
@@ -2486,67 +2486,67 @@
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
       <c r="M14" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O14" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="P14" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q14" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="R14" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="Q14" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="R14" s="3" t="s">
+      <c r="S14" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="T14" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="U14" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="S14" s="3" t="s">
+      <c r="V14" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="W14" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="X14" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="T14" s="3" t="s">
+      <c r="Y14" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z14" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA14" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB14" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="U14" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="V14" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="W14" s="3" t="s">
+      <c r="AC14" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="AD14" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="X14" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="Y14" s="3" t="s">
+      <c r="AE14" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="Z14" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="AA14" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="AB14" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="AC14" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="AD14" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="AE14" s="3" t="s">
-        <v>78</v>
-      </c>
       <c r="AF14" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AG14" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="2:33" x14ac:dyDescent="0.15">
@@ -2558,40 +2558,40 @@
       <c r="G15" s="8"/>
       <c r="H15" s="8"/>
       <c r="M15" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N15" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O15" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P15" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q15" s="6">
         <v>0</v>
       </c>
       <c r="R15" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="S15" s="3"/>
       <c r="T15" s="3"/>
       <c r="U15" s="3"/>
       <c r="V15" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W15" s="3"/>
       <c r="X15" s="3"/>
       <c r="Y15" s="3"/>
       <c r="Z15" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AA15" s="3"/>
       <c r="AB15" s="3"/>
       <c r="AC15" s="3"/>
       <c r="AD15" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AE15" s="3"/>
       <c r="AF15" s="3"/>
@@ -2606,41 +2606,41 @@
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
       <c r="M16" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N16" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O16" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P16" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q16" s="6">
         <v>1</v>
       </c>
       <c r="R16" s="3"/>
       <c r="S16" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF16" s="3"/>
       <c r="AG16" s="3"/>
@@ -2654,16 +2654,16 @@
       <c r="G17" s="8"/>
       <c r="H17" s="8"/>
       <c r="M17" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O17" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P17" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q17" s="6">
         <v>2</v>
@@ -2671,25 +2671,25 @@
       <c r="R17" s="3"/>
       <c r="S17" s="3"/>
       <c r="T17" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="U17" s="3"/>
       <c r="V17" s="3"/>
       <c r="W17" s="3"/>
       <c r="X17" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y17" s="3"/>
       <c r="Z17" s="3"/>
       <c r="AA17" s="3"/>
       <c r="AB17" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AC17" s="3"/>
       <c r="AD17" s="3"/>
       <c r="AE17" s="3"/>
       <c r="AF17" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AG17" s="3"/>
     </row>
@@ -2702,16 +2702,16 @@
       <c r="G18" s="8"/>
       <c r="H18" s="8"/>
       <c r="M18" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O18" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="P18" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q18" s="6">
         <v>3</v>
@@ -2720,25 +2720,25 @@
       <c r="S18" s="3"/>
       <c r="T18" s="3"/>
       <c r="U18" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V18" s="3"/>
       <c r="W18" s="3"/>
       <c r="X18" s="3"/>
       <c r="Y18" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z18" s="3"/>
       <c r="AA18" s="3"/>
       <c r="AB18" s="3"/>
       <c r="AC18" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AD18" s="3"/>
       <c r="AE18" s="3"/>
       <c r="AF18" s="3"/>
       <c r="AG18" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="2:33" x14ac:dyDescent="0.15">
@@ -2750,67 +2750,67 @@
       <c r="G19" s="8"/>
       <c r="H19" s="8"/>
       <c r="M19" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N19" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O19" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="P19" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q19" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="P19" s="3" t="s">
+      <c r="R19" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="Q19" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="R19" s="3" t="s">
+      <c r="S19" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="T19" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="U19" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="S19" s="3" t="s">
+      <c r="V19" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="W19" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="X19" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="T19" s="3" t="s">
+      <c r="Y19" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z19" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA19" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB19" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="U19" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="V19" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="W19" s="3" t="s">
+      <c r="AC19" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="AD19" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="X19" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="Y19" s="3" t="s">
+      <c r="AE19" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="Z19" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="AA19" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="AB19" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="AC19" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="AD19" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="AE19" s="3" t="s">
-        <v>78</v>
-      </c>
       <c r="AF19" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AG19" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20" spans="2:33" x14ac:dyDescent="0.15">
@@ -2822,41 +2822,41 @@
       <c r="G20" s="9"/>
       <c r="H20" s="8"/>
       <c r="M20" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N20" s="3" t="s">
         <v>4</v>
       </c>
       <c r="O20" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P20" s="3"/>
       <c r="Q20" s="6">
         <v>0</v>
       </c>
       <c r="R20" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="S20" s="3"/>
       <c r="T20" s="3"/>
       <c r="U20" s="3"/>
       <c r="V20" s="3"/>
       <c r="W20" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="X20" s="3"/>
       <c r="Y20" s="3"/>
       <c r="Z20" s="3"/>
       <c r="AA20" s="3"/>
       <c r="AB20" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AC20" s="3"/>
       <c r="AD20" s="3"/>
       <c r="AE20" s="3"/>
       <c r="AF20" s="3"/>
       <c r="AG20" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="2:33" x14ac:dyDescent="0.15">
@@ -2868,13 +2868,13 @@
       <c r="G21" s="8"/>
       <c r="H21" s="8"/>
       <c r="M21" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N21" s="3" t="s">
         <v>4</v>
       </c>
       <c r="O21" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P21" s="3"/>
       <c r="Q21" s="6">
@@ -2882,42 +2882,42 @@
       </c>
       <c r="R21" s="3"/>
       <c r="S21" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="T21" s="3"/>
       <c r="U21" s="3"/>
       <c r="V21" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="W21" s="3"/>
       <c r="X21" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y21" s="3"/>
       <c r="Z21" s="3"/>
       <c r="AA21" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AB21" s="3"/>
       <c r="AC21" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AD21" s="3"/>
       <c r="AE21" s="3"/>
       <c r="AF21" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AG21" s="3"/>
     </row>
     <row r="22" spans="2:33" x14ac:dyDescent="0.15">
       <c r="M22" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N22" s="3" t="s">
         <v>4</v>
       </c>
       <c r="O22" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P22" s="3"/>
       <c r="Q22" s="6">
@@ -2926,37 +2926,37 @@
       <c r="R22" s="3"/>
       <c r="S22" s="3"/>
       <c r="T22" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="U22" s="3"/>
       <c r="V22" s="3"/>
       <c r="W22" s="3"/>
       <c r="X22" s="3"/>
       <c r="Y22" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Z22" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA22" s="3"/>
       <c r="AB22" s="3"/>
       <c r="AC22" s="3"/>
       <c r="AD22" s="3"/>
       <c r="AE22" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF22" s="3"/>
       <c r="AG22" s="3"/>
     </row>
     <row r="23" spans="2:33" x14ac:dyDescent="0.15">
       <c r="M23" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N23" s="3" t="s">
         <v>4</v>
       </c>
       <c r="O23" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P23" s="3"/>
       <c r="Q23" s="6">
@@ -2966,7 +2966,7 @@
       <c r="S23" s="3"/>
       <c r="T23" s="3"/>
       <c r="U23" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="V23" s="3"/>
       <c r="W23" s="3"/>
@@ -2977,7 +2977,7 @@
       <c r="AB23" s="3"/>
       <c r="AC23" s="3"/>
       <c r="AD23" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AE23" s="3"/>
       <c r="AF23" s="3"/>
@@ -3030,111 +3030,111 @@
     </row>
     <row r="3" spans="2:33" x14ac:dyDescent="0.15">
       <c r="C3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="F3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>29</v>
-      </c>
       <c r="H3" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="2:33" x14ac:dyDescent="0.15">
       <c r="C4" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G4" s="6"/>
       <c r="H4" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I4" s="6"/>
       <c r="J4" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="2:33" x14ac:dyDescent="0.15">
       <c r="C5" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>3</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J5" s="6"/>
     </row>
     <row r="6" spans="2:33" x14ac:dyDescent="0.15">
       <c r="C6" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>3</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J6" s="6"/>
     </row>
     <row r="8" spans="2:33" x14ac:dyDescent="0.15">
       <c r="L8" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="2:33" x14ac:dyDescent="0.15">
       <c r="M9" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N9" s="4" t="s">
         <v>1</v>
       </c>
       <c r="O9" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="P9" s="4" t="s">
         <v>33</v>
-      </c>
-      <c r="P9" s="4" t="s">
-        <v>34</v>
       </c>
       <c r="Q9" s="4" t="s">
         <v>2</v>
@@ -3190,31 +3190,31 @@
     </row>
     <row r="10" spans="2:33" x14ac:dyDescent="0.15">
       <c r="M10" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N10" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O10" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P10" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q10" s="6">
         <v>0</v>
       </c>
       <c r="R10" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="S10" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="T10" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="U10" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="V10" s="3"/>
       <c r="W10" s="3"/>
@@ -3238,16 +3238,16 @@
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
       <c r="M11" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N11" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O11" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="P11" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q11" s="6">
         <v>1</v>
@@ -3257,16 +3257,16 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="W11" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="X11" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y11" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
@@ -3286,16 +3286,16 @@
       <c r="G12" s="9"/>
       <c r="H12" s="8"/>
       <c r="M12" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O12" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="P12" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q12" s="6">
         <v>2</v>
@@ -3309,16 +3309,16 @@
       <c r="X12" s="3"/>
       <c r="Y12" s="3"/>
       <c r="Z12" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA12" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AB12" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AC12" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AD12" s="3"/>
       <c r="AE12" s="3"/>
@@ -3334,16 +3334,16 @@
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
       <c r="M13" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N13" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O13" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="P13" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q13" s="6">
         <v>3</v>
@@ -3361,16 +3361,16 @@
       <c r="AB13" s="3"/>
       <c r="AC13" s="3"/>
       <c r="AD13" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AE13" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF13" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AG13" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="2:33" x14ac:dyDescent="0.15">
@@ -3382,26 +3382,26 @@
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
       <c r="M14" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O14" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="P14" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Q14" s="6">
         <v>0</v>
       </c>
       <c r="R14" s="3"/>
       <c r="S14" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="T14" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="U14" s="3"/>
       <c r="V14" s="3"/>
@@ -3412,7 +3412,7 @@
       <c r="AA14" s="3"/>
       <c r="AB14" s="3"/>
       <c r="AC14" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AD14" s="3"/>
       <c r="AE14" s="3"/>
@@ -3428,55 +3428,55 @@
       <c r="G15" s="8"/>
       <c r="H15" s="8"/>
       <c r="M15" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N15" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O15" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P15" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Q15" s="6">
         <v>1</v>
       </c>
       <c r="R15" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="S15" s="3"/>
       <c r="T15" s="3"/>
       <c r="U15" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="V15" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="W15" s="3"/>
       <c r="X15" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="Y15" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="Y15" s="3" t="s">
-        <v>95</v>
-      </c>
       <c r="Z15" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AA15" s="3"/>
       <c r="AB15" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AC15" s="3"/>
       <c r="AD15" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AE15" s="3"/>
       <c r="AF15" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AG15" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="16" spans="2:33" x14ac:dyDescent="0.15">
@@ -3488,16 +3488,16 @@
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
       <c r="M16" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N16" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O16" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="P16" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Q16" s="6">
         <v>-1</v>
@@ -3508,19 +3508,19 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AF16" s="3"/>
       <c r="AG16" s="3"/>
@@ -3534,67 +3534,67 @@
       <c r="G17" s="8"/>
       <c r="H17" s="8"/>
       <c r="M17" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O17" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="P17" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Q17" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="R17" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="S17" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="S17" s="3" t="s">
+      <c r="T17" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="T17" s="3" t="s">
+      <c r="U17" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="V17" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="U17" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="V17" s="3" t="s">
+      <c r="W17" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="W17" s="3" t="s">
-        <v>102</v>
-      </c>
       <c r="X17" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="Y17" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="Y17" s="3" t="s">
-        <v>102</v>
-      </c>
       <c r="Z17" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AA17" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AB17" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AC17" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AD17" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AE17" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AF17" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AG17" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="18" spans="2:33" x14ac:dyDescent="0.15">
@@ -3606,40 +3606,40 @@
       <c r="G18" s="8"/>
       <c r="H18" s="8"/>
       <c r="M18" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O18" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="P18" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q18" s="6">
         <v>0</v>
       </c>
       <c r="R18" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="S18" s="3"/>
       <c r="T18" s="3"/>
       <c r="U18" s="3"/>
       <c r="V18" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="W18" s="3"/>
       <c r="X18" s="3"/>
       <c r="Y18" s="3"/>
       <c r="Z18" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA18" s="3"/>
       <c r="AB18" s="3"/>
       <c r="AC18" s="3"/>
       <c r="AD18" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AE18" s="3"/>
       <c r="AF18" s="3"/>
@@ -3654,41 +3654,41 @@
       <c r="G19" s="8"/>
       <c r="H19" s="8"/>
       <c r="M19" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N19" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O19" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="P19" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q19" s="6">
         <v>1</v>
       </c>
       <c r="R19" s="3"/>
       <c r="S19" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF19" s="3"/>
       <c r="AG19" s="3"/>
@@ -3702,16 +3702,16 @@
       <c r="G20" s="8"/>
       <c r="H20" s="8"/>
       <c r="M20" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O20" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="P20" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q20" s="6">
         <v>2</v>
@@ -3719,25 +3719,25 @@
       <c r="R20" s="3"/>
       <c r="S20" s="3"/>
       <c r="T20" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="U20" s="3"/>
       <c r="V20" s="3"/>
       <c r="W20" s="3"/>
       <c r="X20" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y20" s="3"/>
       <c r="Z20" s="3"/>
       <c r="AA20" s="3"/>
       <c r="AB20" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AC20" s="3"/>
       <c r="AD20" s="3"/>
       <c r="AE20" s="3"/>
       <c r="AF20" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AG20" s="3"/>
     </row>
@@ -3750,16 +3750,16 @@
       <c r="G21" s="8"/>
       <c r="H21" s="8"/>
       <c r="M21" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O21" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P21" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q21" s="6">
         <v>3</v>
@@ -3768,25 +3768,25 @@
       <c r="S21" s="3"/>
       <c r="T21" s="3"/>
       <c r="U21" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="V21" s="3"/>
       <c r="W21" s="3"/>
       <c r="X21" s="3"/>
       <c r="Y21" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Z21" s="3"/>
       <c r="AA21" s="3"/>
       <c r="AB21" s="3"/>
       <c r="AC21" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AD21" s="3"/>
       <c r="AE21" s="3"/>
       <c r="AF21" s="3"/>
       <c r="AG21" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="2:33" x14ac:dyDescent="0.15">
@@ -3798,61 +3798,61 @@
       <c r="G22" s="8"/>
       <c r="H22" s="8"/>
       <c r="M22" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N22" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O22" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="P22" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Q22" s="6">
         <v>0</v>
       </c>
       <c r="R22" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="S22" s="3"/>
       <c r="T22" s="3"/>
       <c r="U22" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="V22" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="W22" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="V22" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="W22" s="3" t="s">
-        <v>95</v>
-      </c>
       <c r="X22" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Y22" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Z22" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA22" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AB22" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AC22" s="3"/>
       <c r="AD22" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AE22" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AF22" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AG22" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="2:33" x14ac:dyDescent="0.15">
@@ -3864,23 +3864,23 @@
       <c r="G23" s="8"/>
       <c r="H23" s="8"/>
       <c r="M23" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O23" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="P23" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Q23" s="6">
         <v>1</v>
       </c>
       <c r="R23" s="3"/>
       <c r="S23" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="T23" s="3"/>
       <c r="U23" s="3"/>
@@ -3892,7 +3892,7 @@
       <c r="AA23" s="3"/>
       <c r="AB23" s="3"/>
       <c r="AC23" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AD23" s="3"/>
       <c r="AE23" s="3"/>
@@ -3908,16 +3908,16 @@
       <c r="G24" s="8"/>
       <c r="H24" s="8"/>
       <c r="M24" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N24" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O24" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P24" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Q24" s="6">
         <v>-1</v>
@@ -3925,7 +3925,7 @@
       <c r="R24" s="3"/>
       <c r="S24" s="3"/>
       <c r="T24" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="U24" s="3"/>
       <c r="V24" s="3"/>
@@ -3950,67 +3950,67 @@
       <c r="G25" s="8"/>
       <c r="H25" s="8"/>
       <c r="M25" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N25" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O25" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P25" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q25" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="Q25" s="6" t="s">
-        <v>63</v>
-      </c>
       <c r="R25" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="S25" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="S25" s="3" t="s">
+      <c r="T25" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="T25" s="3" t="s">
+      <c r="U25" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="V25" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="U25" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="V25" s="3" t="s">
+      <c r="W25" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="W25" s="3" t="s">
-        <v>102</v>
-      </c>
       <c r="X25" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="Y25" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="Y25" s="3" t="s">
-        <v>102</v>
-      </c>
       <c r="Z25" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AA25" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AB25" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AC25" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AD25" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AE25" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AF25" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AG25" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="26" spans="2:33" x14ac:dyDescent="0.15">
@@ -4022,13 +4022,13 @@
       <c r="G26" s="9"/>
       <c r="H26" s="8"/>
       <c r="M26" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N26" s="3" t="s">
         <v>4</v>
       </c>
       <c r="O26" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P26" s="3"/>
       <c r="Q26" s="6">
@@ -4038,15 +4038,15 @@
       <c r="S26" s="3"/>
       <c r="T26" s="3"/>
       <c r="U26" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="V26" s="3"/>
       <c r="W26" s="3"/>
       <c r="X26" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="Y26" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="Z26" s="3"/>
       <c r="AA26" s="3"/>
@@ -4066,59 +4066,59 @@
       <c r="G27" s="8"/>
       <c r="H27" s="8"/>
       <c r="M27" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N27" s="3" t="s">
         <v>4</v>
       </c>
       <c r="O27" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P27" s="3"/>
       <c r="Q27" s="6">
         <v>1</v>
       </c>
       <c r="R27" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="S27" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="T27" s="3" t="s">
         <v>93</v>
-      </c>
-      <c r="T27" s="3" t="s">
-        <v>94</v>
       </c>
       <c r="U27" s="3"/>
       <c r="V27" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="W27" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="X27" s="3"/>
       <c r="Y27" s="3"/>
       <c r="Z27" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AA27" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="AB27" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="AC27" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AD27" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="AB27" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="AC27" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="AD27" s="3" t="s">
-        <v>95</v>
-      </c>
       <c r="AE27" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF27" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AG27" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -4166,91 +4166,91 @@
     </row>
     <row r="3" spans="2:42" x14ac:dyDescent="0.15">
       <c r="C3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="F3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>29</v>
-      </c>
       <c r="H3" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="2:42" x14ac:dyDescent="0.15">
       <c r="C4" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G4" s="6"/>
       <c r="H4" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I4" s="6"/>
       <c r="J4" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="2:42" x14ac:dyDescent="0.15">
       <c r="C5" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>3</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J5" s="6"/>
     </row>
     <row r="6" spans="2:42" x14ac:dyDescent="0.15">
       <c r="C6" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>3</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J6" s="6"/>
     </row>
@@ -4266,21 +4266,21 @@
     </row>
     <row r="8" spans="2:42" x14ac:dyDescent="0.15">
       <c r="L8" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="2:42" x14ac:dyDescent="0.15">
       <c r="M9" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N9" s="4" t="s">
         <v>1</v>
       </c>
       <c r="O9" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="P9" s="4" t="s">
         <v>33</v>
-      </c>
-      <c r="P9" s="4" t="s">
-        <v>34</v>
       </c>
       <c r="Q9" s="4" t="s">
         <v>2</v>
@@ -4363,13 +4363,13 @@
     </row>
     <row r="10" spans="2:42" x14ac:dyDescent="0.15">
       <c r="M10" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N10" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O10" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="P10" s="3">
         <v>0</v>
@@ -4378,19 +4378,19 @@
         <v>0</v>
       </c>
       <c r="R10" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="S10" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="T10" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="U10" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="V10" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="W10" s="3"/>
       <c r="X10" s="3"/>
@@ -4422,16 +4422,16 @@
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
       <c r="M11" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N11" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O11" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="P11" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="Q11" s="6">
         <v>1</v>
@@ -4442,19 +4442,19 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="X11" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="X11" s="3" t="s">
-        <v>132</v>
-      </c>
       <c r="Y11" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="Z11" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AA11" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
@@ -4481,16 +4481,16 @@
       <c r="G12" s="9"/>
       <c r="H12" s="8"/>
       <c r="M12" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O12" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="P12" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="Q12" s="6">
         <v>-1</v>
@@ -4506,19 +4506,19 @@
       <c r="Z12" s="3"/>
       <c r="AA12" s="3"/>
       <c r="AB12" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="AC12" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="AC12" s="3" t="s">
-        <v>132</v>
-      </c>
       <c r="AD12" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AE12" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AF12" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AG12" s="3"/>
       <c r="AH12" s="3"/>
@@ -4540,16 +4540,16 @@
       <c r="G13" s="9"/>
       <c r="H13" s="8"/>
       <c r="M13" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N13" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O13" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P13" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="Q13" s="6">
         <v>2</v>
@@ -4570,19 +4570,19 @@
       <c r="AE13" s="3"/>
       <c r="AF13" s="3"/>
       <c r="AG13" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="AH13" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="AH13" s="3" t="s">
-        <v>132</v>
-      </c>
       <c r="AI13" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AJ13" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AK13" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AL13" s="3"/>
       <c r="AM13" s="3"/>
@@ -4599,16 +4599,16 @@
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
       <c r="M14" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O14" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="P14" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="Q14" s="6">
         <v>-2</v>
@@ -4634,19 +4634,19 @@
       <c r="AJ14" s="3"/>
       <c r="AK14" s="3"/>
       <c r="AL14" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="AM14" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="AM14" s="3" t="s">
-        <v>132</v>
-      </c>
       <c r="AN14" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AO14" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AP14" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15" spans="2:42" x14ac:dyDescent="0.15">
@@ -4658,13 +4658,13 @@
       <c r="G15" s="8"/>
       <c r="H15" s="8"/>
       <c r="M15" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N15" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O15" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="P15" s="3">
         <v>0</v>
@@ -4673,35 +4673,35 @@
         <v>0</v>
       </c>
       <c r="R15" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="S15" s="3"/>
       <c r="T15" s="3"/>
       <c r="U15" s="3"/>
       <c r="V15" s="3"/>
       <c r="W15" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="X15" s="3"/>
       <c r="Y15" s="3"/>
       <c r="Z15" s="3"/>
       <c r="AA15" s="3"/>
       <c r="AB15" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AC15" s="3"/>
       <c r="AD15" s="3"/>
       <c r="AE15" s="3"/>
       <c r="AF15" s="3"/>
       <c r="AG15" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AH15" s="3"/>
       <c r="AI15" s="3"/>
       <c r="AJ15" s="3"/>
       <c r="AK15" s="3"/>
       <c r="AL15" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AM15" s="3"/>
       <c r="AN15" s="3"/>
@@ -4717,51 +4717,51 @@
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
       <c r="M16" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N16" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O16" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="P16" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="Q16" s="6">
         <v>1</v>
       </c>
       <c r="R16" s="3"/>
       <c r="S16" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
       <c r="AF16" s="3"/>
       <c r="AG16" s="3"/>
       <c r="AH16" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AI16" s="3"/>
       <c r="AJ16" s="3"/>
       <c r="AK16" s="3"/>
       <c r="AL16" s="3"/>
       <c r="AM16" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AN16" s="3"/>
       <c r="AO16" s="3"/>
@@ -4776,16 +4776,16 @@
       <c r="G17" s="8"/>
       <c r="H17" s="8"/>
       <c r="M17" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O17" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="P17" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="Q17" s="6">
         <v>-1</v>
@@ -4793,35 +4793,35 @@
       <c r="R17" s="3"/>
       <c r="S17" s="3"/>
       <c r="T17" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="U17" s="3"/>
       <c r="V17" s="3"/>
       <c r="W17" s="3"/>
       <c r="X17" s="3"/>
       <c r="Y17" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="Z17" s="3"/>
       <c r="AA17" s="3"/>
       <c r="AB17" s="3"/>
       <c r="AC17" s="3"/>
       <c r="AD17" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AE17" s="3"/>
       <c r="AF17" s="3"/>
       <c r="AG17" s="3"/>
       <c r="AH17" s="3"/>
       <c r="AI17" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AJ17" s="3"/>
       <c r="AK17" s="3"/>
       <c r="AL17" s="3"/>
       <c r="AM17" s="3"/>
       <c r="AN17" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AO17" s="3"/>
       <c r="AP17" s="3"/>
@@ -4835,16 +4835,16 @@
       <c r="G18" s="8"/>
       <c r="H18" s="8"/>
       <c r="M18" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O18" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="P18" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="Q18" s="6">
         <v>2</v>
@@ -4853,35 +4853,35 @@
       <c r="S18" s="3"/>
       <c r="T18" s="3"/>
       <c r="U18" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="V18" s="3"/>
       <c r="W18" s="3"/>
       <c r="X18" s="3"/>
       <c r="Y18" s="3"/>
       <c r="Z18" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AA18" s="3"/>
       <c r="AB18" s="3"/>
       <c r="AC18" s="3"/>
       <c r="AD18" s="3"/>
       <c r="AE18" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AF18" s="3"/>
       <c r="AG18" s="3"/>
       <c r="AH18" s="3"/>
       <c r="AI18" s="3"/>
       <c r="AJ18" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AK18" s="3"/>
       <c r="AL18" s="3"/>
       <c r="AM18" s="3"/>
       <c r="AN18" s="3"/>
       <c r="AO18" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AP18" s="3"/>
     </row>
@@ -4894,16 +4894,16 @@
       <c r="G19" s="8"/>
       <c r="H19" s="8"/>
       <c r="M19" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N19" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O19" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="P19" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="Q19" s="6">
         <v>-2</v>
@@ -4913,35 +4913,35 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
       <c r="AF19" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AG19" s="3"/>
       <c r="AH19" s="3"/>
       <c r="AI19" s="3"/>
       <c r="AJ19" s="3"/>
       <c r="AK19" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AL19" s="3"/>
       <c r="AM19" s="3"/>
       <c r="AN19" s="3"/>
       <c r="AO19" s="3"/>
       <c r="AP19" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="20" spans="2:42" x14ac:dyDescent="0.15">
@@ -4953,94 +4953,94 @@
       <c r="G20" s="8"/>
       <c r="H20" s="8"/>
       <c r="M20" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O20" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="P20" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Q20" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="R20" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="S20" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="T20" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="U20" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="V20" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="S20" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="T20" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="U20" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="V20" s="3" t="s">
-        <v>106</v>
-      </c>
       <c r="W20" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="X20" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="Y20" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z20" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA20" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB20" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC20" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="AD20" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="Y20" s="3" t="s">
+      <c r="AE20" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="AF20" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="Z20" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="AA20" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="AB20" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="AC20" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="AD20" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="AE20" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="AF20" s="3" t="s">
-        <v>106</v>
-      </c>
       <c r="AG20" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AH20" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AI20" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AJ20" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AK20" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AL20" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AM20" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AN20" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AO20" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AP20" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="2:42" x14ac:dyDescent="0.15">
@@ -5052,94 +5052,94 @@
       <c r="G21" s="8"/>
       <c r="H21" s="8"/>
       <c r="M21" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O21" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="P21" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q21" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q21" s="6" t="s">
-        <v>121</v>
-      </c>
       <c r="R21" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="S21" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="T21" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="U21" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="V21" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="S21" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="T21" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="U21" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="V21" s="3" t="s">
-        <v>106</v>
-      </c>
       <c r="W21" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="X21" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="Y21" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z21" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA21" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB21" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC21" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="AD21" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="Y21" s="3" t="s">
+      <c r="AE21" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="AF21" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="Z21" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="AA21" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="AB21" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="AC21" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="AD21" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="AE21" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="AF21" s="3" t="s">
-        <v>106</v>
-      </c>
       <c r="AG21" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AH21" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AI21" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AJ21" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AK21" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AL21" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AM21" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AN21" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AO21" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AP21" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="2:42" x14ac:dyDescent="0.15">
@@ -5151,20 +5151,20 @@
       <c r="G22" s="8"/>
       <c r="H22" s="8"/>
       <c r="M22" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N22" s="3" t="s">
         <v>4</v>
       </c>
       <c r="O22" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="P22" s="3"/>
       <c r="Q22" s="6">
         <v>0</v>
       </c>
       <c r="R22" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="S22" s="3"/>
       <c r="T22" s="3"/>
@@ -5173,13 +5173,13 @@
       <c r="W22" s="3"/>
       <c r="X22" s="3"/>
       <c r="Y22" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Z22" s="3"/>
       <c r="AA22" s="3"/>
       <c r="AB22" s="3"/>
       <c r="AC22" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AD22" s="3"/>
       <c r="AE22" s="3"/>
@@ -5189,13 +5189,13 @@
       <c r="AI22" s="3"/>
       <c r="AJ22" s="3"/>
       <c r="AK22" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AL22" s="3"/>
       <c r="AM22" s="3"/>
       <c r="AN22" s="3"/>
       <c r="AO22" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AP22" s="3"/>
     </row>
@@ -5208,13 +5208,13 @@
       <c r="G23" s="8"/>
       <c r="H23" s="8"/>
       <c r="M23" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N23" s="3" t="s">
         <v>4</v>
       </c>
       <c r="O23" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="P23" s="3"/>
       <c r="Q23" s="6">
@@ -5222,13 +5222,13 @@
       </c>
       <c r="R23" s="3"/>
       <c r="S23" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="T23" s="3"/>
       <c r="U23" s="3"/>
       <c r="V23" s="3"/>
       <c r="W23" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="X23" s="3"/>
       <c r="Y23" s="3"/>
@@ -5238,13 +5238,13 @@
       <c r="AC23" s="3"/>
       <c r="AD23" s="3"/>
       <c r="AE23" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AF23" s="3"/>
       <c r="AG23" s="3"/>
       <c r="AH23" s="3"/>
       <c r="AI23" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AJ23" s="3"/>
       <c r="AK23" s="3"/>
@@ -5263,13 +5263,13 @@
       <c r="G24" s="8"/>
       <c r="H24" s="8"/>
       <c r="M24" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N24" s="3" t="s">
         <v>4</v>
       </c>
       <c r="O24" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="P24" s="3"/>
       <c r="Q24" s="6">
@@ -5278,7 +5278,7 @@
       <c r="R24" s="3"/>
       <c r="S24" s="3"/>
       <c r="T24" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="U24" s="3"/>
       <c r="V24" s="3"/>
@@ -5287,10 +5287,10 @@
       <c r="Y24" s="3"/>
       <c r="Z24" s="3"/>
       <c r="AA24" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AB24" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AC24" s="3"/>
       <c r="AD24" s="3"/>
@@ -5303,7 +5303,7 @@
       <c r="AK24" s="3"/>
       <c r="AL24" s="3"/>
       <c r="AM24" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AN24" s="3"/>
       <c r="AO24" s="3"/>
@@ -5311,13 +5311,13 @@
     </row>
     <row r="25" spans="2:42" x14ac:dyDescent="0.15">
       <c r="M25" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N25" s="3" t="s">
         <v>4</v>
       </c>
       <c r="O25" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="P25" s="3"/>
       <c r="Q25" s="7">
@@ -5327,12 +5327,12 @@
       <c r="S25" s="3"/>
       <c r="T25" s="3"/>
       <c r="U25" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="V25" s="3"/>
       <c r="W25" s="3"/>
       <c r="X25" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Y25" s="3"/>
       <c r="Z25" s="3"/>
@@ -5343,7 +5343,7 @@
       <c r="AE25" s="3"/>
       <c r="AF25" s="3"/>
       <c r="AG25" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AH25" s="3"/>
       <c r="AI25" s="3"/>
@@ -5357,13 +5357,13 @@
     </row>
     <row r="26" spans="2:42" x14ac:dyDescent="0.15">
       <c r="M26" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N26" s="3" t="s">
         <v>4</v>
       </c>
       <c r="O26" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="P26" s="3"/>
       <c r="Q26" s="7">
@@ -5374,7 +5374,7 @@
       <c r="T26" s="3"/>
       <c r="U26" s="3"/>
       <c r="V26" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="W26" s="3"/>
       <c r="X26" s="3"/>
@@ -5384,7 +5384,7 @@
       <c r="AB26" s="3"/>
       <c r="AC26" s="3"/>
       <c r="AD26" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AE26" s="3"/>
       <c r="AF26" s="3"/>
@@ -5394,7 +5394,7 @@
       <c r="AJ26" s="3"/>
       <c r="AK26" s="3"/>
       <c r="AL26" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AM26" s="3"/>
       <c r="AN26" s="3"/>
@@ -5403,13 +5403,13 @@
     </row>
     <row r="27" spans="2:42" x14ac:dyDescent="0.15">
       <c r="M27" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N27" s="3" t="s">
         <v>4</v>
       </c>
       <c r="O27" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="P27" s="3"/>
       <c r="Q27" s="7">
@@ -5424,7 +5424,7 @@
       <c r="X27" s="3"/>
       <c r="Y27" s="3"/>
       <c r="Z27" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AA27" s="3"/>
       <c r="AB27" s="3"/>
@@ -5434,7 +5434,7 @@
       <c r="AF27" s="3"/>
       <c r="AG27" s="3"/>
       <c r="AH27" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AI27" s="3"/>
       <c r="AJ27" s="3"/>
@@ -5447,13 +5447,13 @@
     </row>
     <row r="28" spans="2:42" x14ac:dyDescent="0.15">
       <c r="M28" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N28" s="3" t="s">
         <v>4</v>
       </c>
       <c r="O28" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="P28" s="6"/>
       <c r="Q28" s="6">
@@ -5474,7 +5474,7 @@
       <c r="AD28" s="6"/>
       <c r="AE28" s="6"/>
       <c r="AF28" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AG28" s="6"/>
       <c r="AH28" s="6"/>
@@ -5484,20 +5484,20 @@
       <c r="AL28" s="6"/>
       <c r="AM28" s="6"/>
       <c r="AN28" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AO28" s="6"/>
       <c r="AP28" s="6"/>
     </row>
     <row r="29" spans="2:42" x14ac:dyDescent="0.15">
       <c r="M29" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>4</v>
       </c>
       <c r="O29" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="P29" s="6"/>
       <c r="Q29" s="6">
@@ -5522,7 +5522,7 @@
       <c r="AH29" s="6"/>
       <c r="AI29" s="6"/>
       <c r="AJ29" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AK29" s="6"/>
       <c r="AL29" s="6"/>
@@ -5533,13 +5533,13 @@
     </row>
     <row r="30" spans="2:42" x14ac:dyDescent="0.15">
       <c r="M30" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N30" s="3" t="s">
         <v>4</v>
       </c>
       <c r="O30" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="P30" s="6"/>
       <c r="Q30" s="6">
@@ -5570,37 +5570,37 @@
       <c r="AN30" s="6"/>
       <c r="AO30" s="6"/>
       <c r="AP30" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="31" spans="2:42" x14ac:dyDescent="0.15">
       <c r="M31" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N31" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O31" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="P31" s="6"/>
       <c r="Q31" s="6">
         <v>0</v>
       </c>
       <c r="R31" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="S31" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="T31" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="U31" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="V31" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="W31" s="3"/>
       <c r="X31" s="3"/>
@@ -5625,13 +5625,13 @@
     </row>
     <row r="32" spans="2:42" x14ac:dyDescent="0.15">
       <c r="M32" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O32" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P32" s="6"/>
       <c r="Q32" s="6">
@@ -5643,19 +5643,19 @@
       <c r="U32" s="3"/>
       <c r="V32" s="3"/>
       <c r="W32" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="X32" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="X32" s="3" t="s">
-        <v>132</v>
-      </c>
       <c r="Y32" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="Z32" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AA32" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AB32" s="3"/>
       <c r="AC32" s="3"/>
@@ -5675,13 +5675,13 @@
     </row>
     <row r="33" spans="13:42" x14ac:dyDescent="0.15">
       <c r="M33" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O33" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P33" s="6"/>
       <c r="Q33" s="6">
@@ -5698,19 +5698,19 @@
       <c r="Z33" s="3"/>
       <c r="AA33" s="3"/>
       <c r="AB33" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="AC33" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="AC33" s="3" t="s">
-        <v>132</v>
-      </c>
       <c r="AD33" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AE33" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AF33" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AG33" s="3"/>
       <c r="AH33" s="3"/>
@@ -5725,13 +5725,13 @@
     </row>
     <row r="34" spans="13:42" x14ac:dyDescent="0.15">
       <c r="M34" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N34" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O34" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P34" s="6"/>
       <c r="Q34" s="6">
@@ -5753,19 +5753,19 @@
       <c r="AE34" s="3"/>
       <c r="AF34" s="3"/>
       <c r="AG34" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="AH34" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="AH34" s="3" t="s">
-        <v>132</v>
-      </c>
       <c r="AI34" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AJ34" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AK34" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AL34" s="3"/>
       <c r="AM34" s="3"/>
@@ -5775,13 +5775,13 @@
     </row>
     <row r="35" spans="13:42" x14ac:dyDescent="0.15">
       <c r="M35" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O35" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="P35" s="6"/>
       <c r="Q35" s="6">
@@ -5808,65 +5808,65 @@
       <c r="AJ35" s="3"/>
       <c r="AK35" s="3"/>
       <c r="AL35" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="AM35" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="AM35" s="3" t="s">
-        <v>132</v>
-      </c>
       <c r="AN35" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AO35" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AP35" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="36" spans="13:42" x14ac:dyDescent="0.15">
       <c r="M36" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N36" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O36" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="P36" s="6"/>
       <c r="Q36" s="6">
         <v>0</v>
       </c>
       <c r="R36" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="S36" s="3"/>
       <c r="T36" s="3"/>
       <c r="U36" s="3"/>
       <c r="V36" s="3"/>
       <c r="W36" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="X36" s="3"/>
       <c r="Y36" s="3"/>
       <c r="Z36" s="3"/>
       <c r="AA36" s="3"/>
       <c r="AB36" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AC36" s="3"/>
       <c r="AD36" s="3"/>
       <c r="AE36" s="3"/>
       <c r="AF36" s="3"/>
       <c r="AG36" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AH36" s="3"/>
       <c r="AI36" s="3"/>
       <c r="AJ36" s="3"/>
       <c r="AK36" s="3"/>
       <c r="AL36" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AM36" s="3"/>
       <c r="AN36" s="3"/>
@@ -5875,13 +5875,13 @@
     </row>
     <row r="37" spans="13:42" x14ac:dyDescent="0.15">
       <c r="M37" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N37" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O37" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="P37" s="6"/>
       <c r="Q37" s="6">
@@ -5889,35 +5889,35 @@
       </c>
       <c r="R37" s="3"/>
       <c r="S37" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="T37" s="3"/>
       <c r="U37" s="3"/>
       <c r="V37" s="3"/>
       <c r="W37" s="3"/>
       <c r="X37" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="Y37" s="3"/>
       <c r="Z37" s="3"/>
       <c r="AA37" s="3"/>
       <c r="AB37" s="3"/>
       <c r="AC37" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AD37" s="3"/>
       <c r="AE37" s="3"/>
       <c r="AF37" s="3"/>
       <c r="AG37" s="3"/>
       <c r="AH37" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AI37" s="3"/>
       <c r="AJ37" s="3"/>
       <c r="AK37" s="3"/>
       <c r="AL37" s="3"/>
       <c r="AM37" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AN37" s="3"/>
       <c r="AO37" s="3"/>
@@ -5925,13 +5925,13 @@
     </row>
     <row r="38" spans="13:42" x14ac:dyDescent="0.15">
       <c r="M38" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N38" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O38" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="P38" s="6"/>
       <c r="Q38" s="6">
@@ -5940,48 +5940,48 @@
       <c r="R38" s="3"/>
       <c r="S38" s="3"/>
       <c r="T38" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="U38" s="3"/>
       <c r="V38" s="3"/>
       <c r="W38" s="3"/>
       <c r="X38" s="3"/>
       <c r="Y38" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="Z38" s="3"/>
       <c r="AA38" s="3"/>
       <c r="AB38" s="3"/>
       <c r="AC38" s="3"/>
       <c r="AD38" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AE38" s="3"/>
       <c r="AF38" s="3"/>
       <c r="AG38" s="3"/>
       <c r="AH38" s="3"/>
       <c r="AI38" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AJ38" s="3"/>
       <c r="AK38" s="3"/>
       <c r="AL38" s="3"/>
       <c r="AM38" s="3"/>
       <c r="AN38" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AO38" s="3"/>
       <c r="AP38" s="3"/>
     </row>
     <row r="39" spans="13:42" x14ac:dyDescent="0.15">
       <c r="M39" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N39" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O39" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="P39" s="6"/>
       <c r="Q39" s="6">
@@ -5991,47 +5991,47 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AF39" s="3"/>
       <c r="AG39" s="3"/>
       <c r="AH39" s="3"/>
       <c r="AI39" s="3"/>
       <c r="AJ39" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AK39" s="3"/>
       <c r="AL39" s="3"/>
       <c r="AM39" s="3"/>
       <c r="AN39" s="3"/>
       <c r="AO39" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AP39" s="3"/>
     </row>
     <row r="40" spans="13:42" x14ac:dyDescent="0.15">
       <c r="M40" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N40" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O40" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="P40" s="6"/>
       <c r="Q40" s="6">
@@ -6042,35 +6042,35 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
       <c r="AF40" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AG40" s="3"/>
       <c r="AH40" s="3"/>
       <c r="AI40" s="3"/>
       <c r="AJ40" s="3"/>
       <c r="AK40" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AL40" s="3"/>
       <c r="AM40" s="3"/>
       <c r="AN40" s="3"/>
       <c r="AO40" s="3"/>
       <c r="AP40" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -6122,111 +6122,111 @@
     </row>
     <row r="3" spans="2:33" x14ac:dyDescent="0.15">
       <c r="C3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="F3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>29</v>
-      </c>
       <c r="H3" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="2:33" x14ac:dyDescent="0.15">
       <c r="C4" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G4" s="6"/>
       <c r="H4" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I4" s="6"/>
       <c r="J4" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="2:33" x14ac:dyDescent="0.15">
       <c r="C5" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>3</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J5" s="6"/>
     </row>
     <row r="6" spans="2:33" x14ac:dyDescent="0.15">
       <c r="C6" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>3</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J6" s="6"/>
     </row>
     <row r="8" spans="2:33" x14ac:dyDescent="0.15">
       <c r="L8" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="2:33" x14ac:dyDescent="0.15">
       <c r="M9" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N9" s="4" t="s">
         <v>1</v>
       </c>
       <c r="O9" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="P9" s="4" t="s">
         <v>33</v>
-      </c>
-      <c r="P9" s="4" t="s">
-        <v>34</v>
       </c>
       <c r="Q9" s="4" t="s">
         <v>2</v>
@@ -6282,31 +6282,31 @@
     </row>
     <row r="10" spans="2:33" x14ac:dyDescent="0.15">
       <c r="M10" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N10" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O10" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P10" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q10" s="6">
         <v>0</v>
       </c>
       <c r="R10" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="S10" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="T10" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="U10" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="V10" s="3"/>
       <c r="W10" s="3"/>
@@ -6330,16 +6330,16 @@
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
       <c r="M11" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N11" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O11" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P11" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q11" s="6">
         <v>1</v>
@@ -6349,16 +6349,16 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="W11" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="X11" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y11" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
@@ -6378,16 +6378,16 @@
       <c r="G12" s="9"/>
       <c r="H12" s="8"/>
       <c r="M12" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O12" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P12" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q12" s="6">
         <v>2</v>
@@ -6401,16 +6401,16 @@
       <c r="X12" s="3"/>
       <c r="Y12" s="3"/>
       <c r="Z12" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA12" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AB12" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AC12" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AD12" s="3"/>
       <c r="AE12" s="3"/>
@@ -6426,16 +6426,16 @@
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
       <c r="M13" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N13" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O13" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P13" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q13" s="6">
         <v>3</v>
@@ -6453,16 +6453,16 @@
       <c r="AB13" s="3"/>
       <c r="AC13" s="3"/>
       <c r="AD13" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AE13" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF13" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AG13" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="2:33" x14ac:dyDescent="0.15">
@@ -6474,67 +6474,67 @@
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
       <c r="M14" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O14" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="P14" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Q14" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="R14" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="S14" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="T14" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="U14" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="V14" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="W14" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="X14" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y14" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Z14" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA14" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AB14" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AC14" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AD14" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AE14" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF14" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AG14" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="2:33" x14ac:dyDescent="0.15">
@@ -6546,40 +6546,40 @@
       <c r="G15" s="8"/>
       <c r="H15" s="8"/>
       <c r="M15" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N15" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O15" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P15" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q15" s="6">
         <v>0</v>
       </c>
       <c r="R15" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="S15" s="3"/>
       <c r="T15" s="3"/>
       <c r="U15" s="3"/>
       <c r="V15" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="W15" s="3"/>
       <c r="X15" s="3"/>
       <c r="Y15" s="3"/>
       <c r="Z15" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA15" s="3"/>
       <c r="AB15" s="3"/>
       <c r="AC15" s="3"/>
       <c r="AD15" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AE15" s="3"/>
       <c r="AF15" s="3"/>
@@ -6594,41 +6594,41 @@
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
       <c r="M16" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N16" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O16" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P16" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q16" s="6">
         <v>1</v>
       </c>
       <c r="R16" s="3"/>
       <c r="S16" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF16" s="3"/>
       <c r="AG16" s="3"/>
@@ -6642,16 +6642,16 @@
       <c r="G17" s="8"/>
       <c r="H17" s="8"/>
       <c r="M17" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O17" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P17" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q17" s="6">
         <v>2</v>
@@ -6659,25 +6659,25 @@
       <c r="R17" s="3"/>
       <c r="S17" s="3"/>
       <c r="T17" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="U17" s="3"/>
       <c r="V17" s="3"/>
       <c r="W17" s="3"/>
       <c r="X17" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y17" s="3"/>
       <c r="Z17" s="3"/>
       <c r="AA17" s="3"/>
       <c r="AB17" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AC17" s="3"/>
       <c r="AD17" s="3"/>
       <c r="AE17" s="3"/>
       <c r="AF17" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AG17" s="3"/>
     </row>
@@ -6690,16 +6690,16 @@
       <c r="G18" s="8"/>
       <c r="H18" s="8"/>
       <c r="M18" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O18" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P18" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q18" s="6">
         <v>3</v>
@@ -6708,25 +6708,25 @@
       <c r="S18" s="3"/>
       <c r="T18" s="3"/>
       <c r="U18" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="V18" s="3"/>
       <c r="W18" s="3"/>
       <c r="X18" s="3"/>
       <c r="Y18" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Z18" s="3"/>
       <c r="AA18" s="3"/>
       <c r="AB18" s="3"/>
       <c r="AC18" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AD18" s="3"/>
       <c r="AE18" s="3"/>
       <c r="AF18" s="3"/>
       <c r="AG18" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="2:33" x14ac:dyDescent="0.15">
@@ -6738,67 +6738,67 @@
       <c r="G19" s="8"/>
       <c r="H19" s="8"/>
       <c r="M19" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N19" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O19" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="P19" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q19" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="Q19" s="6" t="s">
-        <v>63</v>
-      </c>
       <c r="R19" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="S19" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="T19" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="U19" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="V19" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="W19" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="X19" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y19" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Z19" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA19" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AB19" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AC19" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AD19" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AE19" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF19" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AG19" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="2:33" x14ac:dyDescent="0.15">
@@ -6810,41 +6810,41 @@
       <c r="G20" s="9"/>
       <c r="H20" s="8"/>
       <c r="M20" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N20" s="3" t="s">
         <v>4</v>
       </c>
       <c r="O20" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P20" s="3"/>
       <c r="Q20" s="6">
         <v>0</v>
       </c>
       <c r="R20" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="S20" s="3"/>
       <c r="T20" s="3"/>
       <c r="U20" s="3"/>
       <c r="V20" s="3"/>
       <c r="W20" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="X20" s="3"/>
       <c r="Y20" s="3"/>
       <c r="Z20" s="3"/>
       <c r="AA20" s="3"/>
       <c r="AB20" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AC20" s="3"/>
       <c r="AD20" s="3"/>
       <c r="AE20" s="3"/>
       <c r="AF20" s="3"/>
       <c r="AG20" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="2:33" x14ac:dyDescent="0.15">
@@ -6856,13 +6856,13 @@
       <c r="G21" s="8"/>
       <c r="H21" s="8"/>
       <c r="M21" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N21" s="3" t="s">
         <v>4</v>
       </c>
       <c r="O21" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P21" s="3"/>
       <c r="Q21" s="6">
@@ -6870,42 +6870,42 @@
       </c>
       <c r="R21" s="3"/>
       <c r="S21" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="T21" s="3"/>
       <c r="U21" s="3"/>
       <c r="V21" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="W21" s="3"/>
       <c r="X21" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y21" s="3"/>
       <c r="Z21" s="3"/>
       <c r="AA21" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AB21" s="3"/>
       <c r="AC21" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AD21" s="3"/>
       <c r="AE21" s="3"/>
       <c r="AF21" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AG21" s="3"/>
     </row>
     <row r="22" spans="2:33" x14ac:dyDescent="0.15">
       <c r="M22" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N22" s="3" t="s">
         <v>4</v>
       </c>
       <c r="O22" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P22" s="3"/>
       <c r="Q22" s="6">
@@ -6914,37 +6914,37 @@
       <c r="R22" s="3"/>
       <c r="S22" s="3"/>
       <c r="T22" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="U22" s="3"/>
       <c r="V22" s="3"/>
       <c r="W22" s="3"/>
       <c r="X22" s="3"/>
       <c r="Y22" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Z22" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA22" s="3"/>
       <c r="AB22" s="3"/>
       <c r="AC22" s="3"/>
       <c r="AD22" s="3"/>
       <c r="AE22" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF22" s="3"/>
       <c r="AG22" s="3"/>
     </row>
     <row r="23" spans="2:33" x14ac:dyDescent="0.15">
       <c r="M23" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N23" s="3" t="s">
         <v>4</v>
       </c>
       <c r="O23" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P23" s="3"/>
       <c r="Q23" s="6">
@@ -6954,7 +6954,7 @@
       <c r="S23" s="3"/>
       <c r="T23" s="3"/>
       <c r="U23" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="V23" s="3"/>
       <c r="W23" s="3"/>
@@ -6965,7 +6965,7 @@
       <c r="AB23" s="3"/>
       <c r="AC23" s="3"/>
       <c r="AD23" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AE23" s="3"/>
       <c r="AF23" s="3"/>

--- a/doc/sample/test_sample_input/google_test_sample_data.xlsx
+++ b/doc/sample/test_sample_input/google_test_sample_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="882"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="882" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="テスト一覧" sheetId="2" r:id="rId1"/>
@@ -1189,7 +1189,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F8"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="C3" sqref="C3:F3"/>
     </sheetView>
   </sheetViews>
@@ -1309,7 +1309,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AG24"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="J1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.125" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
